--- a/management/周报-2018.xlsx
+++ b/management/周报-2018.xlsx
@@ -13,107 +13,109 @@
   </bookViews>
   <sheets>
     <sheet name="CornJob项目计划" sheetId="5" r:id="rId1"/>
-    <sheet name="20181029" sheetId="102" r:id="rId2"/>
-    <sheet name="20181025" sheetId="101" r:id="rId3"/>
-    <sheet name="20181024" sheetId="100" r:id="rId4"/>
-    <sheet name="20181023" sheetId="99" r:id="rId5"/>
-    <sheet name="20181022" sheetId="98" r:id="rId6"/>
-    <sheet name="20181019（周报）" sheetId="97" r:id="rId7"/>
-    <sheet name="20181019" sheetId="96" r:id="rId8"/>
-    <sheet name="20181018" sheetId="95" r:id="rId9"/>
-    <sheet name="20181017" sheetId="94" r:id="rId10"/>
-    <sheet name="20181016" sheetId="93" r:id="rId11"/>
-    <sheet name="20181015" sheetId="92" r:id="rId12"/>
-    <sheet name="20181012（周报）" sheetId="91" r:id="rId13"/>
-    <sheet name="20181012" sheetId="90" r:id="rId14"/>
-    <sheet name="20181011" sheetId="89" r:id="rId15"/>
-    <sheet name="20181010" sheetId="88" r:id="rId16"/>
-    <sheet name="20181009" sheetId="87" r:id="rId17"/>
-    <sheet name="20181008" sheetId="86" r:id="rId18"/>
-    <sheet name="20180928（周报）" sheetId="80" r:id="rId19"/>
-    <sheet name="20180928" sheetId="84" r:id="rId20"/>
-    <sheet name="20180927" sheetId="83" r:id="rId21"/>
-    <sheet name="20180926" sheetId="82" r:id="rId22"/>
-    <sheet name="20180925" sheetId="81" r:id="rId23"/>
-    <sheet name="20180921（周报）" sheetId="85" r:id="rId24"/>
-    <sheet name="20180921" sheetId="79" r:id="rId25"/>
-    <sheet name="20180920" sheetId="78" r:id="rId26"/>
-    <sheet name="20180919" sheetId="77" r:id="rId27"/>
-    <sheet name="20180918" sheetId="76" r:id="rId28"/>
-    <sheet name="20180917" sheetId="75" r:id="rId29"/>
-    <sheet name="20180914（周报）" sheetId="74" r:id="rId30"/>
-    <sheet name="20180914" sheetId="73" r:id="rId31"/>
-    <sheet name="20180913" sheetId="71" r:id="rId32"/>
-    <sheet name="20180912" sheetId="72" r:id="rId33"/>
-    <sheet name="20180911" sheetId="70" r:id="rId34"/>
-    <sheet name="20180910" sheetId="69" r:id="rId35"/>
-    <sheet name="20180907（周报）" sheetId="68" r:id="rId36"/>
-    <sheet name="20180907" sheetId="67" r:id="rId37"/>
-    <sheet name="20180906" sheetId="66" r:id="rId38"/>
-    <sheet name="20180905" sheetId="65" r:id="rId39"/>
-    <sheet name="20180903" sheetId="64" r:id="rId40"/>
-    <sheet name="20180831（周报）" sheetId="63" r:id="rId41"/>
-    <sheet name="20180831" sheetId="62" r:id="rId42"/>
-    <sheet name="20180830" sheetId="61" r:id="rId43"/>
-    <sheet name="20180829" sheetId="60" r:id="rId44"/>
-    <sheet name="20180828" sheetId="59" r:id="rId45"/>
-    <sheet name="20180827" sheetId="58" r:id="rId46"/>
-    <sheet name="20180824（周报）" sheetId="57" r:id="rId47"/>
-    <sheet name="20180824" sheetId="56" r:id="rId48"/>
-    <sheet name="20180823" sheetId="55" r:id="rId49"/>
-    <sheet name="20180822" sheetId="54" r:id="rId50"/>
-    <sheet name="20180821" sheetId="53" r:id="rId51"/>
-    <sheet name="20180820" sheetId="52" r:id="rId52"/>
-    <sheet name="20180817（周报）" sheetId="51" r:id="rId53"/>
-    <sheet name="20180817" sheetId="50" r:id="rId54"/>
-    <sheet name="20180816" sheetId="49" r:id="rId55"/>
-    <sheet name="20180815" sheetId="48" r:id="rId56"/>
-    <sheet name="20180814" sheetId="47" r:id="rId57"/>
-    <sheet name="20180813" sheetId="46" r:id="rId58"/>
-    <sheet name="20180810（周报）" sheetId="45" r:id="rId59"/>
-    <sheet name="20180810" sheetId="44" r:id="rId60"/>
-    <sheet name="20180809" sheetId="43" r:id="rId61"/>
-    <sheet name="20180808" sheetId="42" r:id="rId62"/>
-    <sheet name="20180807" sheetId="41" r:id="rId63"/>
-    <sheet name="20180806" sheetId="40" r:id="rId64"/>
-    <sheet name="20180803（周报）" sheetId="39" r:id="rId65"/>
-    <sheet name="20180803" sheetId="38" r:id="rId66"/>
-    <sheet name="20180802" sheetId="37" r:id="rId67"/>
-    <sheet name="20180801" sheetId="36" r:id="rId68"/>
-    <sheet name="20180731" sheetId="35" r:id="rId69"/>
-    <sheet name="20180730" sheetId="34" r:id="rId70"/>
-    <sheet name="20180727(周报)" sheetId="33" r:id="rId71"/>
-    <sheet name="20180727" sheetId="32" r:id="rId72"/>
-    <sheet name="20180726" sheetId="31" r:id="rId73"/>
-    <sheet name="20180725" sheetId="30" r:id="rId74"/>
-    <sheet name="20180724" sheetId="29" r:id="rId75"/>
-    <sheet name="20180723" sheetId="28" r:id="rId76"/>
-    <sheet name="20180720(周报)" sheetId="27" r:id="rId77"/>
-    <sheet name="20180720" sheetId="26" r:id="rId78"/>
-    <sheet name="20180719" sheetId="25" r:id="rId79"/>
-    <sheet name="20180718" sheetId="23" r:id="rId80"/>
-    <sheet name="20180717" sheetId="22" r:id="rId81"/>
-    <sheet name="20180716" sheetId="21" r:id="rId82"/>
-    <sheet name="20180713(周报)" sheetId="24" r:id="rId83"/>
-    <sheet name="20180713" sheetId="20" r:id="rId84"/>
-    <sheet name="20180712" sheetId="19" r:id="rId85"/>
-    <sheet name="20180711" sheetId="18" r:id="rId86"/>
-    <sheet name="20180710" sheetId="17" r:id="rId87"/>
-    <sheet name="20180709" sheetId="16" r:id="rId88"/>
-    <sheet name="20180706(周报)" sheetId="15" r:id="rId89"/>
-    <sheet name="20180706" sheetId="14" r:id="rId90"/>
-    <sheet name="20180705" sheetId="13" r:id="rId91"/>
-    <sheet name="20180704" sheetId="12" r:id="rId92"/>
-    <sheet name="20180703" sheetId="11" r:id="rId93"/>
-    <sheet name="20180702" sheetId="10" r:id="rId94"/>
-    <sheet name="20180629" sheetId="9" r:id="rId95"/>
-    <sheet name="20180628" sheetId="8" r:id="rId96"/>
-    <sheet name="20180627" sheetId="7" r:id="rId97"/>
-    <sheet name="20180626" sheetId="6" r:id="rId98"/>
-    <sheet name="20180625" sheetId="3" r:id="rId99"/>
-    <sheet name="20180621" sheetId="2" r:id="rId100"/>
-    <sheet name="20180622" sheetId="1" r:id="rId101"/>
-    <sheet name="项目计划" sheetId="4" r:id="rId102"/>
+    <sheet name="20181031" sheetId="104" r:id="rId2"/>
+    <sheet name="20181030" sheetId="103" r:id="rId3"/>
+    <sheet name="20181029" sheetId="102" r:id="rId4"/>
+    <sheet name="20181025" sheetId="101" r:id="rId5"/>
+    <sheet name="20181024" sheetId="100" r:id="rId6"/>
+    <sheet name="20181023" sheetId="99" r:id="rId7"/>
+    <sheet name="20181022" sheetId="98" r:id="rId8"/>
+    <sheet name="20181019（周报）" sheetId="97" r:id="rId9"/>
+    <sheet name="20181019" sheetId="96" r:id="rId10"/>
+    <sheet name="20181018" sheetId="95" r:id="rId11"/>
+    <sheet name="20181017" sheetId="94" r:id="rId12"/>
+    <sheet name="20181016" sheetId="93" r:id="rId13"/>
+    <sheet name="20181015" sheetId="92" r:id="rId14"/>
+    <sheet name="20181012（周报）" sheetId="91" r:id="rId15"/>
+    <sheet name="20181012" sheetId="90" r:id="rId16"/>
+    <sheet name="20181011" sheetId="89" r:id="rId17"/>
+    <sheet name="20181010" sheetId="88" r:id="rId18"/>
+    <sheet name="20181009" sheetId="87" r:id="rId19"/>
+    <sheet name="20181008" sheetId="86" r:id="rId20"/>
+    <sheet name="20180928（周报）" sheetId="80" r:id="rId21"/>
+    <sheet name="20180928" sheetId="84" r:id="rId22"/>
+    <sheet name="20180927" sheetId="83" r:id="rId23"/>
+    <sheet name="20180926" sheetId="82" r:id="rId24"/>
+    <sheet name="20180925" sheetId="81" r:id="rId25"/>
+    <sheet name="20180921（周报）" sheetId="85" r:id="rId26"/>
+    <sheet name="20180921" sheetId="79" r:id="rId27"/>
+    <sheet name="20180920" sheetId="78" r:id="rId28"/>
+    <sheet name="20180919" sheetId="77" r:id="rId29"/>
+    <sheet name="20180918" sheetId="76" r:id="rId30"/>
+    <sheet name="20180917" sheetId="75" r:id="rId31"/>
+    <sheet name="20180914（周报）" sheetId="74" r:id="rId32"/>
+    <sheet name="20180914" sheetId="73" r:id="rId33"/>
+    <sheet name="20180913" sheetId="71" r:id="rId34"/>
+    <sheet name="20180912" sheetId="72" r:id="rId35"/>
+    <sheet name="20180911" sheetId="70" r:id="rId36"/>
+    <sheet name="20180910" sheetId="69" r:id="rId37"/>
+    <sheet name="20180907（周报）" sheetId="68" r:id="rId38"/>
+    <sheet name="20180907" sheetId="67" r:id="rId39"/>
+    <sheet name="20180906" sheetId="66" r:id="rId40"/>
+    <sheet name="20180905" sheetId="65" r:id="rId41"/>
+    <sheet name="20180903" sheetId="64" r:id="rId42"/>
+    <sheet name="20180831（周报）" sheetId="63" r:id="rId43"/>
+    <sheet name="20180831" sheetId="62" r:id="rId44"/>
+    <sheet name="20180830" sheetId="61" r:id="rId45"/>
+    <sheet name="20180829" sheetId="60" r:id="rId46"/>
+    <sheet name="20180828" sheetId="59" r:id="rId47"/>
+    <sheet name="20180827" sheetId="58" r:id="rId48"/>
+    <sheet name="20180824（周报）" sheetId="57" r:id="rId49"/>
+    <sheet name="20180824" sheetId="56" r:id="rId50"/>
+    <sheet name="20180823" sheetId="55" r:id="rId51"/>
+    <sheet name="20180822" sheetId="54" r:id="rId52"/>
+    <sheet name="20180821" sheetId="53" r:id="rId53"/>
+    <sheet name="20180820" sheetId="52" r:id="rId54"/>
+    <sheet name="20180817（周报）" sheetId="51" r:id="rId55"/>
+    <sheet name="20180817" sheetId="50" r:id="rId56"/>
+    <sheet name="20180816" sheetId="49" r:id="rId57"/>
+    <sheet name="20180815" sheetId="48" r:id="rId58"/>
+    <sheet name="20180814" sheetId="47" r:id="rId59"/>
+    <sheet name="20180813" sheetId="46" r:id="rId60"/>
+    <sheet name="20180810（周报）" sheetId="45" r:id="rId61"/>
+    <sheet name="20180810" sheetId="44" r:id="rId62"/>
+    <sheet name="20180809" sheetId="43" r:id="rId63"/>
+    <sheet name="20180808" sheetId="42" r:id="rId64"/>
+    <sheet name="20180807" sheetId="41" r:id="rId65"/>
+    <sheet name="20180806" sheetId="40" r:id="rId66"/>
+    <sheet name="20180803（周报）" sheetId="39" r:id="rId67"/>
+    <sheet name="20180803" sheetId="38" r:id="rId68"/>
+    <sheet name="20180802" sheetId="37" r:id="rId69"/>
+    <sheet name="20180801" sheetId="36" r:id="rId70"/>
+    <sheet name="20180731" sheetId="35" r:id="rId71"/>
+    <sheet name="20180730" sheetId="34" r:id="rId72"/>
+    <sheet name="20180727(周报)" sheetId="33" r:id="rId73"/>
+    <sheet name="20180727" sheetId="32" r:id="rId74"/>
+    <sheet name="20180726" sheetId="31" r:id="rId75"/>
+    <sheet name="20180725" sheetId="30" r:id="rId76"/>
+    <sheet name="20180724" sheetId="29" r:id="rId77"/>
+    <sheet name="20180723" sheetId="28" r:id="rId78"/>
+    <sheet name="20180720(周报)" sheetId="27" r:id="rId79"/>
+    <sheet name="20180720" sheetId="26" r:id="rId80"/>
+    <sheet name="20180719" sheetId="25" r:id="rId81"/>
+    <sheet name="20180718" sheetId="23" r:id="rId82"/>
+    <sheet name="20180717" sheetId="22" r:id="rId83"/>
+    <sheet name="20180716" sheetId="21" r:id="rId84"/>
+    <sheet name="20180713(周报)" sheetId="24" r:id="rId85"/>
+    <sheet name="20180713" sheetId="20" r:id="rId86"/>
+    <sheet name="20180712" sheetId="19" r:id="rId87"/>
+    <sheet name="20180711" sheetId="18" r:id="rId88"/>
+    <sheet name="20180710" sheetId="17" r:id="rId89"/>
+    <sheet name="20180709" sheetId="16" r:id="rId90"/>
+    <sheet name="20180706(周报)" sheetId="15" r:id="rId91"/>
+    <sheet name="20180706" sheetId="14" r:id="rId92"/>
+    <sheet name="20180705" sheetId="13" r:id="rId93"/>
+    <sheet name="20180704" sheetId="12" r:id="rId94"/>
+    <sheet name="20180703" sheetId="11" r:id="rId95"/>
+    <sheet name="20180702" sheetId="10" r:id="rId96"/>
+    <sheet name="20180629" sheetId="9" r:id="rId97"/>
+    <sheet name="20180628" sheetId="8" r:id="rId98"/>
+    <sheet name="20180627" sheetId="7" r:id="rId99"/>
+    <sheet name="20180626" sheetId="6" r:id="rId100"/>
+    <sheet name="20180625" sheetId="3" r:id="rId101"/>
+    <sheet name="20180621" sheetId="2" r:id="rId102"/>
+    <sheet name="20180622" sheetId="1" r:id="rId103"/>
+    <sheet name="项目计划" sheetId="4" r:id="rId104"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -125,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="575">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2374,6 +2376,31 @@
   </si>
   <si>
     <t>邮件，月报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新产品配置</t>
+  </si>
+  <si>
+    <t>Frankie Guan, Angela Liang,Amy Tang</t>
+  </si>
+  <si>
+    <t>例行版本需求</t>
+  </si>
+  <si>
+    <t>邮件,微信，电话</t>
+  </si>
+  <si>
+    <t>Zhihua Huang，Sannie Li</t>
+  </si>
+  <si>
+    <t>需求排期</t>
+  </si>
+  <si>
+    <t>需求排期表</t>
+  </si>
+  <si>
+    <t>促销问题跟进</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3485,11 +3512,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G7"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3524,7 +3551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3532,17 +3559,17 @@
         <v>247</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>503</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -3556,75 +3583,98 @@
         <v>539</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>134</v>
+        <v>538</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10">
-        <v>0.5</v>
+      <c r="B5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4">
+        <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>49</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3634,6 +3684,264 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet94"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet95"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="38.875" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet96"/>
   <dimension ref="A1:G8"/>
@@ -3811,7 +4119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet97"/>
   <dimension ref="A1:G7"/>
@@ -3977,7 +4285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet98"/>
   <dimension ref="A1"/>
@@ -3994,6 +4302,327 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G7"/>
@@ -4145,7 +4774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G7"/>
@@ -4295,7 +4924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H12"/>
@@ -4430,7 +5059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G7"/>
@@ -4580,7 +5209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G8"/>
@@ -4751,7 +5380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G7"/>
@@ -4901,7 +5530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G7"/>
@@ -5053,7 +5682,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G7"/>
@@ -5201,7 +5979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H13"/>
@@ -5350,156 +6128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>566</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G7"/>
@@ -5647,7 +6276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:G7"/>
@@ -5797,7 +6426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:G8"/>
@@ -5968,7 +6597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:G9"/>
@@ -6162,7 +6791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H13"/>
@@ -6311,7 +6940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:G8"/>
@@ -6484,7 +7113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:G8"/>
@@ -6657,7 +7286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:G10"/>
@@ -6866,7 +7495,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:G9"/>
@@ -7056,7 +7834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:G8"/>
@@ -7229,157 +8007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet100"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>563</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H15"/>
@@ -7554,7 +8182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:G7"/>
@@ -7706,7 +8334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:G7"/>
@@ -7860,7 +8488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:G7"/>
@@ -8012,7 +8640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:G7"/>
@@ -8164,7 +8792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:G9"/>
@@ -8356,7 +8984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H11"/>
@@ -8482,7 +9110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:G8"/>
@@ -8657,7 +9285,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:G7"/>
@@ -8807,7 +9584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:G7"/>
@@ -8957,157 +9734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet101"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:G7"/>
@@ -9259,7 +9886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H13"/>
@@ -9402,7 +10029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:G9"/>
@@ -9592,7 +10219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:G8"/>
@@ -9765,7 +10392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:G7"/>
@@ -9915,7 +10542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:G9"/>
@@ -10105,7 +10732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:G8"/>
@@ -10276,7 +10903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:H13"/>
@@ -10423,7 +11050,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet100"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:G8"/>
@@ -10592,7 +11369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:G7"/>
@@ -10744,157 +11521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet99"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>559</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:G7"/>
@@ -11048,7 +11675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:G7"/>
@@ -11202,7 +11829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:G8"/>
@@ -11381,7 +12008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H13"/>
@@ -11523,7 +12150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:G6"/>
@@ -11658,7 +12285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:G6"/>
@@ -11813,7 +12440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:G6"/>
@@ -11966,7 +12593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:G7"/>
@@ -12140,7 +12767,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet101"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:G6"/>
@@ -12291,7 +13068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H14"/>
@@ -12447,157 +13224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>556</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:G5"/>
@@ -12729,7 +13356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:G7"/>
@@ -12905,7 +13532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:G6"/>
@@ -13060,7 +13687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:G6"/>
@@ -13215,7 +13842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:G6"/>
@@ -13370,7 +13997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H14"/>
@@ -13520,7 +14147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:G5"/>
@@ -13652,7 +14279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:G5"/>
@@ -13780,7 +14407,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet99"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:G6"/>
@@ -13929,7 +14706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:G7"/>
@@ -14099,7 +14876,3017 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet66"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet67"/>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>2</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
+        <v>3</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
+        <v>5</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet68"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet69"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet70"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet71"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet72"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet73"/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>2</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
+        <v>3</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet74"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet75"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet76"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet77"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet78"/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet79"/>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>1</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
+        <v>2</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
+        <v>3</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
+        <v>4</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="17">
+        <v>5</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet80"/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet81"/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet82"/>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="23"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="23"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="32"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="32"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="32"/>
+    </row>
+    <row r="10" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="32"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="32"/>
+    </row>
+    <row r="11" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="32"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="32"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="32"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="32"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="B13:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet83"/>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="21"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="21"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="32"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="32"/>
+    </row>
+    <row r="11" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="32"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="32"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="32"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="32"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="32"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="32"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="B15:B16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H13"/>
@@ -14253,3040 +18040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet66"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet67"/>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
-        <v>1</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>2</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
-        <v>3</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
-        <v>4</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="17">
-        <v>5</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet68"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet69"/>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet70"/>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="A1:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet71"/>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="A1:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet72"/>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet73"/>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
-        <v>1</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>2</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
-        <v>3</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
-        <v>4</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet74"/>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet75"/>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>546</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>539</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>552</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet76"/>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet77"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet78"/>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet79"/>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="17">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="17">
-        <v>7</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>1</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
-        <v>2</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
-        <v>3</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="17">
-        <v>4</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="17">
-        <v>5</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet80"/>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet81"/>
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet82"/>
-  <dimension ref="A1:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="23"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="23"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-    </row>
-    <row r="8" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="32"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="32"/>
-    </row>
-    <row r="9" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="32"/>
-    </row>
-    <row r="10" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="32"/>
-    </row>
-    <row r="11" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-    </row>
-    <row r="13" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="B13:B14"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet83"/>
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="4">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="21"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-    </row>
-    <row r="9" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="21"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-    </row>
-    <row r="10" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="32"/>
-    </row>
-    <row r="11" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="32"/>
-    </row>
-    <row r="12" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="32"/>
-    </row>
-    <row r="13" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="32"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B15:B16"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet84"/>
   <dimension ref="A1:G18"/>
@@ -17529,7 +18283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet85"/>
   <dimension ref="A1:H14"/>
@@ -17699,178 +18453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>539</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet86"/>
   <dimension ref="A1:G18"/>
@@ -18150,7 +18733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet87"/>
   <dimension ref="A1:G5"/>
@@ -18280,7 +18863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet88"/>
   <dimension ref="A1:G6"/>
@@ -18433,7 +19016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet89"/>
   <dimension ref="A1:G6"/>
@@ -18586,7 +19169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet90"/>
   <dimension ref="A1:G6"/>
@@ -18739,7 +19322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet91"/>
   <dimension ref="A1:G3"/>
@@ -18831,7 +19414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet92"/>
   <dimension ref="A1:G6"/>
@@ -18986,7 +19569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet93"/>
   <dimension ref="A1:G6"/>
@@ -19137,262 +19720,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet94"/>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet95"/>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="A1:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="38.875" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/management/周报-2018.xlsx
+++ b/management/周报-2018.xlsx
@@ -13,109 +13,110 @@
   </bookViews>
   <sheets>
     <sheet name="CornJob项目计划" sheetId="5" r:id="rId1"/>
-    <sheet name="20181031" sheetId="104" r:id="rId2"/>
-    <sheet name="20181030" sheetId="103" r:id="rId3"/>
-    <sheet name="20181029" sheetId="102" r:id="rId4"/>
-    <sheet name="20181025" sheetId="101" r:id="rId5"/>
-    <sheet name="20181024" sheetId="100" r:id="rId6"/>
-    <sheet name="20181023" sheetId="99" r:id="rId7"/>
-    <sheet name="20181022" sheetId="98" r:id="rId8"/>
-    <sheet name="20181019（周报）" sheetId="97" r:id="rId9"/>
-    <sheet name="20181019" sheetId="96" r:id="rId10"/>
-    <sheet name="20181018" sheetId="95" r:id="rId11"/>
-    <sheet name="20181017" sheetId="94" r:id="rId12"/>
-    <sheet name="20181016" sheetId="93" r:id="rId13"/>
-    <sheet name="20181015" sheetId="92" r:id="rId14"/>
-    <sheet name="20181012（周报）" sheetId="91" r:id="rId15"/>
-    <sheet name="20181012" sheetId="90" r:id="rId16"/>
-    <sheet name="20181011" sheetId="89" r:id="rId17"/>
-    <sheet name="20181010" sheetId="88" r:id="rId18"/>
-    <sheet name="20181009" sheetId="87" r:id="rId19"/>
-    <sheet name="20181008" sheetId="86" r:id="rId20"/>
-    <sheet name="20180928（周报）" sheetId="80" r:id="rId21"/>
-    <sheet name="20180928" sheetId="84" r:id="rId22"/>
-    <sheet name="20180927" sheetId="83" r:id="rId23"/>
-    <sheet name="20180926" sheetId="82" r:id="rId24"/>
-    <sheet name="20180925" sheetId="81" r:id="rId25"/>
-    <sheet name="20180921（周报）" sheetId="85" r:id="rId26"/>
-    <sheet name="20180921" sheetId="79" r:id="rId27"/>
-    <sheet name="20180920" sheetId="78" r:id="rId28"/>
-    <sheet name="20180919" sheetId="77" r:id="rId29"/>
-    <sheet name="20180918" sheetId="76" r:id="rId30"/>
-    <sheet name="20180917" sheetId="75" r:id="rId31"/>
-    <sheet name="20180914（周报）" sheetId="74" r:id="rId32"/>
-    <sheet name="20180914" sheetId="73" r:id="rId33"/>
-    <sheet name="20180913" sheetId="71" r:id="rId34"/>
-    <sheet name="20180912" sheetId="72" r:id="rId35"/>
-    <sheet name="20180911" sheetId="70" r:id="rId36"/>
-    <sheet name="20180910" sheetId="69" r:id="rId37"/>
-    <sheet name="20180907（周报）" sheetId="68" r:id="rId38"/>
-    <sheet name="20180907" sheetId="67" r:id="rId39"/>
-    <sheet name="20180906" sheetId="66" r:id="rId40"/>
-    <sheet name="20180905" sheetId="65" r:id="rId41"/>
-    <sheet name="20180903" sheetId="64" r:id="rId42"/>
-    <sheet name="20180831（周报）" sheetId="63" r:id="rId43"/>
-    <sheet name="20180831" sheetId="62" r:id="rId44"/>
-    <sheet name="20180830" sheetId="61" r:id="rId45"/>
-    <sheet name="20180829" sheetId="60" r:id="rId46"/>
-    <sheet name="20180828" sheetId="59" r:id="rId47"/>
-    <sheet name="20180827" sheetId="58" r:id="rId48"/>
-    <sheet name="20180824（周报）" sheetId="57" r:id="rId49"/>
-    <sheet name="20180824" sheetId="56" r:id="rId50"/>
-    <sheet name="20180823" sheetId="55" r:id="rId51"/>
-    <sheet name="20180822" sheetId="54" r:id="rId52"/>
-    <sheet name="20180821" sheetId="53" r:id="rId53"/>
-    <sheet name="20180820" sheetId="52" r:id="rId54"/>
-    <sheet name="20180817（周报）" sheetId="51" r:id="rId55"/>
-    <sheet name="20180817" sheetId="50" r:id="rId56"/>
-    <sheet name="20180816" sheetId="49" r:id="rId57"/>
-    <sheet name="20180815" sheetId="48" r:id="rId58"/>
-    <sheet name="20180814" sheetId="47" r:id="rId59"/>
-    <sheet name="20180813" sheetId="46" r:id="rId60"/>
-    <sheet name="20180810（周报）" sheetId="45" r:id="rId61"/>
-    <sheet name="20180810" sheetId="44" r:id="rId62"/>
-    <sheet name="20180809" sheetId="43" r:id="rId63"/>
-    <sheet name="20180808" sheetId="42" r:id="rId64"/>
-    <sheet name="20180807" sheetId="41" r:id="rId65"/>
-    <sheet name="20180806" sheetId="40" r:id="rId66"/>
-    <sheet name="20180803（周报）" sheetId="39" r:id="rId67"/>
-    <sheet name="20180803" sheetId="38" r:id="rId68"/>
-    <sheet name="20180802" sheetId="37" r:id="rId69"/>
-    <sheet name="20180801" sheetId="36" r:id="rId70"/>
-    <sheet name="20180731" sheetId="35" r:id="rId71"/>
-    <sheet name="20180730" sheetId="34" r:id="rId72"/>
-    <sheet name="20180727(周报)" sheetId="33" r:id="rId73"/>
-    <sheet name="20180727" sheetId="32" r:id="rId74"/>
-    <sheet name="20180726" sheetId="31" r:id="rId75"/>
-    <sheet name="20180725" sheetId="30" r:id="rId76"/>
-    <sheet name="20180724" sheetId="29" r:id="rId77"/>
-    <sheet name="20180723" sheetId="28" r:id="rId78"/>
-    <sheet name="20180720(周报)" sheetId="27" r:id="rId79"/>
-    <sheet name="20180720" sheetId="26" r:id="rId80"/>
-    <sheet name="20180719" sheetId="25" r:id="rId81"/>
-    <sheet name="20180718" sheetId="23" r:id="rId82"/>
-    <sheet name="20180717" sheetId="22" r:id="rId83"/>
-    <sheet name="20180716" sheetId="21" r:id="rId84"/>
-    <sheet name="20180713(周报)" sheetId="24" r:id="rId85"/>
-    <sheet name="20180713" sheetId="20" r:id="rId86"/>
-    <sheet name="20180712" sheetId="19" r:id="rId87"/>
-    <sheet name="20180711" sheetId="18" r:id="rId88"/>
-    <sheet name="20180710" sheetId="17" r:id="rId89"/>
-    <sheet name="20180709" sheetId="16" r:id="rId90"/>
-    <sheet name="20180706(周报)" sheetId="15" r:id="rId91"/>
-    <sheet name="20180706" sheetId="14" r:id="rId92"/>
-    <sheet name="20180705" sheetId="13" r:id="rId93"/>
-    <sheet name="20180704" sheetId="12" r:id="rId94"/>
-    <sheet name="20180703" sheetId="11" r:id="rId95"/>
-    <sheet name="20180702" sheetId="10" r:id="rId96"/>
-    <sheet name="20180629" sheetId="9" r:id="rId97"/>
-    <sheet name="20180628" sheetId="8" r:id="rId98"/>
-    <sheet name="20180627" sheetId="7" r:id="rId99"/>
-    <sheet name="20180626" sheetId="6" r:id="rId100"/>
-    <sheet name="20180625" sheetId="3" r:id="rId101"/>
-    <sheet name="20180621" sheetId="2" r:id="rId102"/>
-    <sheet name="20180622" sheetId="1" r:id="rId103"/>
-    <sheet name="项目计划" sheetId="4" r:id="rId104"/>
+    <sheet name="20181101" sheetId="105" r:id="rId2"/>
+    <sheet name="20181031" sheetId="104" r:id="rId3"/>
+    <sheet name="20181030" sheetId="103" r:id="rId4"/>
+    <sheet name="20181029" sheetId="102" r:id="rId5"/>
+    <sheet name="20181025" sheetId="101" r:id="rId6"/>
+    <sheet name="20181024" sheetId="100" r:id="rId7"/>
+    <sheet name="20181023" sheetId="99" r:id="rId8"/>
+    <sheet name="20181022" sheetId="98" r:id="rId9"/>
+    <sheet name="20181019（周报）" sheetId="97" r:id="rId10"/>
+    <sheet name="20181019" sheetId="96" r:id="rId11"/>
+    <sheet name="20181018" sheetId="95" r:id="rId12"/>
+    <sheet name="20181017" sheetId="94" r:id="rId13"/>
+    <sheet name="20181016" sheetId="93" r:id="rId14"/>
+    <sheet name="20181015" sheetId="92" r:id="rId15"/>
+    <sheet name="20181012（周报）" sheetId="91" r:id="rId16"/>
+    <sheet name="20181012" sheetId="90" r:id="rId17"/>
+    <sheet name="20181011" sheetId="89" r:id="rId18"/>
+    <sheet name="20181010" sheetId="88" r:id="rId19"/>
+    <sheet name="20181009" sheetId="87" r:id="rId20"/>
+    <sheet name="20181008" sheetId="86" r:id="rId21"/>
+    <sheet name="20180928（周报）" sheetId="80" r:id="rId22"/>
+    <sheet name="20180928" sheetId="84" r:id="rId23"/>
+    <sheet name="20180927" sheetId="83" r:id="rId24"/>
+    <sheet name="20180926" sheetId="82" r:id="rId25"/>
+    <sheet name="20180925" sheetId="81" r:id="rId26"/>
+    <sheet name="20180921（周报）" sheetId="85" r:id="rId27"/>
+    <sheet name="20180921" sheetId="79" r:id="rId28"/>
+    <sheet name="20180920" sheetId="78" r:id="rId29"/>
+    <sheet name="20180919" sheetId="77" r:id="rId30"/>
+    <sheet name="20180918" sheetId="76" r:id="rId31"/>
+    <sheet name="20180917" sheetId="75" r:id="rId32"/>
+    <sheet name="20180914（周报）" sheetId="74" r:id="rId33"/>
+    <sheet name="20180914" sheetId="73" r:id="rId34"/>
+    <sheet name="20180913" sheetId="71" r:id="rId35"/>
+    <sheet name="20180912" sheetId="72" r:id="rId36"/>
+    <sheet name="20180911" sheetId="70" r:id="rId37"/>
+    <sheet name="20180910" sheetId="69" r:id="rId38"/>
+    <sheet name="20180907（周报）" sheetId="68" r:id="rId39"/>
+    <sheet name="20180907" sheetId="67" r:id="rId40"/>
+    <sheet name="20180906" sheetId="66" r:id="rId41"/>
+    <sheet name="20180905" sheetId="65" r:id="rId42"/>
+    <sheet name="20180903" sheetId="64" r:id="rId43"/>
+    <sheet name="20180831（周报）" sheetId="63" r:id="rId44"/>
+    <sheet name="20180831" sheetId="62" r:id="rId45"/>
+    <sheet name="20180830" sheetId="61" r:id="rId46"/>
+    <sheet name="20180829" sheetId="60" r:id="rId47"/>
+    <sheet name="20180828" sheetId="59" r:id="rId48"/>
+    <sheet name="20180827" sheetId="58" r:id="rId49"/>
+    <sheet name="20180824（周报）" sheetId="57" r:id="rId50"/>
+    <sheet name="20180824" sheetId="56" r:id="rId51"/>
+    <sheet name="20180823" sheetId="55" r:id="rId52"/>
+    <sheet name="20180822" sheetId="54" r:id="rId53"/>
+    <sheet name="20180821" sheetId="53" r:id="rId54"/>
+    <sheet name="20180820" sheetId="52" r:id="rId55"/>
+    <sheet name="20180817（周报）" sheetId="51" r:id="rId56"/>
+    <sheet name="20180817" sheetId="50" r:id="rId57"/>
+    <sheet name="20180816" sheetId="49" r:id="rId58"/>
+    <sheet name="20180815" sheetId="48" r:id="rId59"/>
+    <sheet name="20180814" sheetId="47" r:id="rId60"/>
+    <sheet name="20180813" sheetId="46" r:id="rId61"/>
+    <sheet name="20180810（周报）" sheetId="45" r:id="rId62"/>
+    <sheet name="20180810" sheetId="44" r:id="rId63"/>
+    <sheet name="20180809" sheetId="43" r:id="rId64"/>
+    <sheet name="20180808" sheetId="42" r:id="rId65"/>
+    <sheet name="20180807" sheetId="41" r:id="rId66"/>
+    <sheet name="20180806" sheetId="40" r:id="rId67"/>
+    <sheet name="20180803（周报）" sheetId="39" r:id="rId68"/>
+    <sheet name="20180803" sheetId="38" r:id="rId69"/>
+    <sheet name="20180802" sheetId="37" r:id="rId70"/>
+    <sheet name="20180801" sheetId="36" r:id="rId71"/>
+    <sheet name="20180731" sheetId="35" r:id="rId72"/>
+    <sheet name="20180730" sheetId="34" r:id="rId73"/>
+    <sheet name="20180727(周报)" sheetId="33" r:id="rId74"/>
+    <sheet name="20180727" sheetId="32" r:id="rId75"/>
+    <sheet name="20180726" sheetId="31" r:id="rId76"/>
+    <sheet name="20180725" sheetId="30" r:id="rId77"/>
+    <sheet name="20180724" sheetId="29" r:id="rId78"/>
+    <sheet name="20180723" sheetId="28" r:id="rId79"/>
+    <sheet name="20180720(周报)" sheetId="27" r:id="rId80"/>
+    <sheet name="20180720" sheetId="26" r:id="rId81"/>
+    <sheet name="20180719" sheetId="25" r:id="rId82"/>
+    <sheet name="20180718" sheetId="23" r:id="rId83"/>
+    <sheet name="20180717" sheetId="22" r:id="rId84"/>
+    <sheet name="20180716" sheetId="21" r:id="rId85"/>
+    <sheet name="20180713(周报)" sheetId="24" r:id="rId86"/>
+    <sheet name="20180713" sheetId="20" r:id="rId87"/>
+    <sheet name="20180712" sheetId="19" r:id="rId88"/>
+    <sheet name="20180711" sheetId="18" r:id="rId89"/>
+    <sheet name="20180710" sheetId="17" r:id="rId90"/>
+    <sheet name="20180709" sheetId="16" r:id="rId91"/>
+    <sheet name="20180706(周报)" sheetId="15" r:id="rId92"/>
+    <sheet name="20180706" sheetId="14" r:id="rId93"/>
+    <sheet name="20180705" sheetId="13" r:id="rId94"/>
+    <sheet name="20180704" sheetId="12" r:id="rId95"/>
+    <sheet name="20180703" sheetId="11" r:id="rId96"/>
+    <sheet name="20180702" sheetId="10" r:id="rId97"/>
+    <sheet name="20180629" sheetId="9" r:id="rId98"/>
+    <sheet name="20180628" sheetId="8" r:id="rId99"/>
+    <sheet name="20180627" sheetId="7" r:id="rId100"/>
+    <sheet name="20180626" sheetId="6" r:id="rId101"/>
+    <sheet name="20180625" sheetId="3" r:id="rId102"/>
+    <sheet name="20180621" sheetId="2" r:id="rId103"/>
+    <sheet name="20180622" sheetId="1" r:id="rId104"/>
+    <sheet name="项目计划" sheetId="4" r:id="rId105"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -127,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="576">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2401,6 +2402,10 @@
   </si>
   <si>
     <t>促销问题跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统配置更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3512,169 +3517,150 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G8"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>546</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>539</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="B3" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>552</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="B4" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="4">
+      <c r="B5" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
+      <c r="B11" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
+        <v>3</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3684,6 +3670,159 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet93"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet94"/>
   <dimension ref="A1:G5"/>
@@ -3813,7 +3952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet95"/>
   <dimension ref="A1:G5"/>
@@ -3941,7 +4080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet96"/>
   <dimension ref="A1:G8"/>
@@ -4119,7 +4258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet97"/>
   <dimension ref="A1:G7"/>
@@ -4285,7 +4424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet98"/>
   <dimension ref="A1"/>
@@ -4302,6 +4441,179 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G8"/>
@@ -4472,7 +4784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G7"/>
@@ -4622,7 +4934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G7"/>
@@ -4774,7 +5086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G7"/>
@@ -4924,7 +5236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H12"/>
@@ -5059,7 +5371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G7"/>
@@ -5209,7 +5521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G8"/>
@@ -5380,7 +5692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G7"/>
@@ -5530,7 +5842,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G7"/>
@@ -5682,156 +6143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G7"/>
@@ -5979,7 +6291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H13"/>
@@ -6128,7 +6440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G7"/>
@@ -6276,7 +6588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:G7"/>
@@ -6426,7 +6738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:G8"/>
@@ -6597,7 +6909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:G9"/>
@@ -6791,7 +7103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H13"/>
@@ -6940,7 +7252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:G8"/>
@@ -7113,7 +7425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:G8"/>
@@ -7286,7 +7598,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:G10"/>
@@ -7495,156 +7956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:G9"/>
@@ -7834,7 +8146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:G8"/>
@@ -8007,7 +8319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H15"/>
@@ -8182,7 +8494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:G7"/>
@@ -8334,7 +8646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:G7"/>
@@ -8488,7 +8800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:G7"/>
@@ -8640,7 +8952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:G7"/>
@@ -8792,7 +9104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:G9"/>
@@ -8984,7 +9296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H11"/>
@@ -9110,7 +9422,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:G8"/>
@@ -9285,156 +9746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>566</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:G7"/>
@@ -9584,7 +9896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:G7"/>
@@ -9734,7 +10046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:G7"/>
@@ -9886,7 +10198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H13"/>
@@ -10029,7 +10341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:G9"/>
@@ -10219,7 +10531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:G8"/>
@@ -10392,7 +10704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:G7"/>
@@ -10542,7 +10854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:G9"/>
@@ -10732,7 +11044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:G8"/>
@@ -10903,7 +11215,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:H13"/>
@@ -11050,157 +11511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet100"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>563</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:G8"/>
@@ -11369,7 +11680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:G7"/>
@@ -11521,7 +11832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:G7"/>
@@ -11675,7 +11986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:G7"/>
@@ -11829,7 +12140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:G8"/>
@@ -12008,7 +12319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H13"/>
@@ -12150,7 +12461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:G6"/>
@@ -12285,7 +12596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:G6"/>
@@ -12440,7 +12751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:G6"/>
@@ -12593,7 +12904,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet100"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:G7"/>
@@ -12767,157 +13228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet101"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:G6"/>
@@ -13068,7 +13379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H14"/>
@@ -13224,7 +13535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:G5"/>
@@ -13356,7 +13667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:G7"/>
@@ -13532,7 +13843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:G6"/>
@@ -13687,7 +13998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:G6"/>
@@ -13842,7 +14153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:G6"/>
@@ -13997,7 +14308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H14"/>
@@ -14147,7 +14458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:G5"/>
@@ -14279,7 +14590,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet101"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:G5"/>
@@ -14407,157 +14868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet99"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>559</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:G6"/>
@@ -14706,7 +15017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:G7"/>
@@ -14876,7 +15187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:G7"/>
@@ -15046,7 +15357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H14"/>
@@ -15190,7 +15501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:G7"/>
@@ -15360,7 +15671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:G5"/>
@@ -15488,7 +15799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:G5"/>
@@ -15616,7 +15927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:G5"/>
@@ -15744,7 +16055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:G6"/>
@@ -15895,7 +16206,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet99"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet73"/>
   <dimension ref="A1:H13"/>
@@ -16043,157 +16504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>556</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet74"/>
   <dimension ref="A1:G6"/>
@@ -16344,7 +16655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet75"/>
   <dimension ref="A1:G5"/>
@@ -16472,7 +16783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet76"/>
   <dimension ref="A1:G9"/>
@@ -16686,7 +16997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet77"/>
   <dimension ref="A1:G7"/>
@@ -16858,7 +17169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet78"/>
   <dimension ref="A1:G8"/>
@@ -17051,7 +17362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet79"/>
   <dimension ref="A1:H15"/>
@@ -17224,7 +17535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet80"/>
   <dimension ref="A1:G8"/>
@@ -17411,7 +17722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet81"/>
   <dimension ref="A1:G4"/>
@@ -17520,7 +17831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet82"/>
   <dimension ref="A1:G14"/>
@@ -17681,7 +17992,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet83"/>
   <dimension ref="A1:G16"/>
@@ -17886,161 +18347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>550</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>530</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>549</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>548</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="17">
-        <v>6</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
-        <v>1</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>2</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
-        <v>3</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
-        <v>4</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet84"/>
   <dimension ref="A1:G18"/>
@@ -18283,7 +18590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet85"/>
   <dimension ref="A1:H14"/>
@@ -18453,7 +18760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet86"/>
   <dimension ref="A1:G18"/>
@@ -18733,7 +19040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet87"/>
   <dimension ref="A1:G5"/>
@@ -18863,7 +19170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet88"/>
   <dimension ref="A1:G6"/>
@@ -19016,7 +19323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet89"/>
   <dimension ref="A1:G6"/>
@@ -19169,7 +19476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet90"/>
   <dimension ref="A1:G6"/>
@@ -19322,7 +19629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet91"/>
   <dimension ref="A1:G3"/>
@@ -19414,7 +19721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet92"/>
   <dimension ref="A1:G6"/>
@@ -19567,157 +19874,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet93"/>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/management/周报-2018.xlsx
+++ b/management/周报-2018.xlsx
@@ -9,114 +9,116 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="CornJob项目计划" sheetId="5" r:id="rId1"/>
-    <sheet name="20181101" sheetId="105" r:id="rId2"/>
-    <sheet name="20181031" sheetId="104" r:id="rId3"/>
-    <sheet name="20181030" sheetId="103" r:id="rId4"/>
-    <sheet name="20181029" sheetId="102" r:id="rId5"/>
-    <sheet name="20181025" sheetId="101" r:id="rId6"/>
-    <sheet name="20181024" sheetId="100" r:id="rId7"/>
-    <sheet name="20181023" sheetId="99" r:id="rId8"/>
-    <sheet name="20181022" sheetId="98" r:id="rId9"/>
-    <sheet name="20181019（周报）" sheetId="97" r:id="rId10"/>
-    <sheet name="20181019" sheetId="96" r:id="rId11"/>
-    <sheet name="20181018" sheetId="95" r:id="rId12"/>
-    <sheet name="20181017" sheetId="94" r:id="rId13"/>
-    <sheet name="20181016" sheetId="93" r:id="rId14"/>
-    <sheet name="20181015" sheetId="92" r:id="rId15"/>
-    <sheet name="20181012（周报）" sheetId="91" r:id="rId16"/>
-    <sheet name="20181012" sheetId="90" r:id="rId17"/>
-    <sheet name="20181011" sheetId="89" r:id="rId18"/>
-    <sheet name="20181010" sheetId="88" r:id="rId19"/>
-    <sheet name="20181009" sheetId="87" r:id="rId20"/>
-    <sheet name="20181008" sheetId="86" r:id="rId21"/>
-    <sheet name="20180928（周报）" sheetId="80" r:id="rId22"/>
-    <sheet name="20180928" sheetId="84" r:id="rId23"/>
-    <sheet name="20180927" sheetId="83" r:id="rId24"/>
-    <sheet name="20180926" sheetId="82" r:id="rId25"/>
-    <sheet name="20180925" sheetId="81" r:id="rId26"/>
-    <sheet name="20180921（周报）" sheetId="85" r:id="rId27"/>
-    <sheet name="20180921" sheetId="79" r:id="rId28"/>
-    <sheet name="20180920" sheetId="78" r:id="rId29"/>
-    <sheet name="20180919" sheetId="77" r:id="rId30"/>
-    <sheet name="20180918" sheetId="76" r:id="rId31"/>
-    <sheet name="20180917" sheetId="75" r:id="rId32"/>
-    <sheet name="20180914（周报）" sheetId="74" r:id="rId33"/>
-    <sheet name="20180914" sheetId="73" r:id="rId34"/>
-    <sheet name="20180913" sheetId="71" r:id="rId35"/>
-    <sheet name="20180912" sheetId="72" r:id="rId36"/>
-    <sheet name="20180911" sheetId="70" r:id="rId37"/>
-    <sheet name="20180910" sheetId="69" r:id="rId38"/>
-    <sheet name="20180907（周报）" sheetId="68" r:id="rId39"/>
-    <sheet name="20180907" sheetId="67" r:id="rId40"/>
-    <sheet name="20180906" sheetId="66" r:id="rId41"/>
-    <sheet name="20180905" sheetId="65" r:id="rId42"/>
-    <sheet name="20180903" sheetId="64" r:id="rId43"/>
-    <sheet name="20180831（周报）" sheetId="63" r:id="rId44"/>
-    <sheet name="20180831" sheetId="62" r:id="rId45"/>
-    <sheet name="20180830" sheetId="61" r:id="rId46"/>
-    <sheet name="20180829" sheetId="60" r:id="rId47"/>
-    <sheet name="20180828" sheetId="59" r:id="rId48"/>
-    <sheet name="20180827" sheetId="58" r:id="rId49"/>
-    <sheet name="20180824（周报）" sheetId="57" r:id="rId50"/>
-    <sheet name="20180824" sheetId="56" r:id="rId51"/>
-    <sheet name="20180823" sheetId="55" r:id="rId52"/>
-    <sheet name="20180822" sheetId="54" r:id="rId53"/>
-    <sheet name="20180821" sheetId="53" r:id="rId54"/>
-    <sheet name="20180820" sheetId="52" r:id="rId55"/>
-    <sheet name="20180817（周报）" sheetId="51" r:id="rId56"/>
-    <sheet name="20180817" sheetId="50" r:id="rId57"/>
-    <sheet name="20180816" sheetId="49" r:id="rId58"/>
-    <sheet name="20180815" sheetId="48" r:id="rId59"/>
-    <sheet name="20180814" sheetId="47" r:id="rId60"/>
-    <sheet name="20180813" sheetId="46" r:id="rId61"/>
-    <sheet name="20180810（周报）" sheetId="45" r:id="rId62"/>
-    <sheet name="20180810" sheetId="44" r:id="rId63"/>
-    <sheet name="20180809" sheetId="43" r:id="rId64"/>
-    <sheet name="20180808" sheetId="42" r:id="rId65"/>
-    <sheet name="20180807" sheetId="41" r:id="rId66"/>
-    <sheet name="20180806" sheetId="40" r:id="rId67"/>
-    <sheet name="20180803（周报）" sheetId="39" r:id="rId68"/>
-    <sheet name="20180803" sheetId="38" r:id="rId69"/>
-    <sheet name="20180802" sheetId="37" r:id="rId70"/>
-    <sheet name="20180801" sheetId="36" r:id="rId71"/>
-    <sheet name="20180731" sheetId="35" r:id="rId72"/>
-    <sheet name="20180730" sheetId="34" r:id="rId73"/>
-    <sheet name="20180727(周报)" sheetId="33" r:id="rId74"/>
-    <sheet name="20180727" sheetId="32" r:id="rId75"/>
-    <sheet name="20180726" sheetId="31" r:id="rId76"/>
-    <sheet name="20180725" sheetId="30" r:id="rId77"/>
-    <sheet name="20180724" sheetId="29" r:id="rId78"/>
-    <sheet name="20180723" sheetId="28" r:id="rId79"/>
-    <sheet name="20180720(周报)" sheetId="27" r:id="rId80"/>
-    <sheet name="20180720" sheetId="26" r:id="rId81"/>
-    <sheet name="20180719" sheetId="25" r:id="rId82"/>
-    <sheet name="20180718" sheetId="23" r:id="rId83"/>
-    <sheet name="20180717" sheetId="22" r:id="rId84"/>
-    <sheet name="20180716" sheetId="21" r:id="rId85"/>
-    <sheet name="20180713(周报)" sheetId="24" r:id="rId86"/>
-    <sheet name="20180713" sheetId="20" r:id="rId87"/>
-    <sheet name="20180712" sheetId="19" r:id="rId88"/>
-    <sheet name="20180711" sheetId="18" r:id="rId89"/>
-    <sheet name="20180710" sheetId="17" r:id="rId90"/>
-    <sheet name="20180709" sheetId="16" r:id="rId91"/>
-    <sheet name="20180706(周报)" sheetId="15" r:id="rId92"/>
-    <sheet name="20180706" sheetId="14" r:id="rId93"/>
-    <sheet name="20180705" sheetId="13" r:id="rId94"/>
-    <sheet name="20180704" sheetId="12" r:id="rId95"/>
-    <sheet name="20180703" sheetId="11" r:id="rId96"/>
-    <sheet name="20180702" sheetId="10" r:id="rId97"/>
-    <sheet name="20180629" sheetId="9" r:id="rId98"/>
-    <sheet name="20180628" sheetId="8" r:id="rId99"/>
-    <sheet name="20180627" sheetId="7" r:id="rId100"/>
-    <sheet name="20180626" sheetId="6" r:id="rId101"/>
-    <sheet name="20180625" sheetId="3" r:id="rId102"/>
-    <sheet name="20180621" sheetId="2" r:id="rId103"/>
-    <sheet name="20180622" sheetId="1" r:id="rId104"/>
-    <sheet name="项目计划" sheetId="4" r:id="rId105"/>
+    <sheet name="20181102（周报）" sheetId="107" r:id="rId2"/>
+    <sheet name="20181102" sheetId="106" r:id="rId3"/>
+    <sheet name="20181101" sheetId="105" r:id="rId4"/>
+    <sheet name="20181031" sheetId="104" r:id="rId5"/>
+    <sheet name="20181030" sheetId="103" r:id="rId6"/>
+    <sheet name="20181029" sheetId="102" r:id="rId7"/>
+    <sheet name="20181025" sheetId="101" r:id="rId8"/>
+    <sheet name="20181024" sheetId="100" r:id="rId9"/>
+    <sheet name="20181023" sheetId="99" r:id="rId10"/>
+    <sheet name="20181022" sheetId="98" r:id="rId11"/>
+    <sheet name="20181019（周报）" sheetId="97" r:id="rId12"/>
+    <sheet name="20181019" sheetId="96" r:id="rId13"/>
+    <sheet name="20181018" sheetId="95" r:id="rId14"/>
+    <sheet name="20181017" sheetId="94" r:id="rId15"/>
+    <sheet name="20181016" sheetId="93" r:id="rId16"/>
+    <sheet name="20181015" sheetId="92" r:id="rId17"/>
+    <sheet name="20181012（周报）" sheetId="91" r:id="rId18"/>
+    <sheet name="20181012" sheetId="90" r:id="rId19"/>
+    <sheet name="20181011" sheetId="89" r:id="rId20"/>
+    <sheet name="20181010" sheetId="88" r:id="rId21"/>
+    <sheet name="20181009" sheetId="87" r:id="rId22"/>
+    <sheet name="20181008" sheetId="86" r:id="rId23"/>
+    <sheet name="20180928（周报）" sheetId="80" r:id="rId24"/>
+    <sheet name="20180928" sheetId="84" r:id="rId25"/>
+    <sheet name="20180927" sheetId="83" r:id="rId26"/>
+    <sheet name="20180926" sheetId="82" r:id="rId27"/>
+    <sheet name="20180925" sheetId="81" r:id="rId28"/>
+    <sheet name="20180921（周报）" sheetId="85" r:id="rId29"/>
+    <sheet name="20180921" sheetId="79" r:id="rId30"/>
+    <sheet name="20180920" sheetId="78" r:id="rId31"/>
+    <sheet name="20180919" sheetId="77" r:id="rId32"/>
+    <sheet name="20180918" sheetId="76" r:id="rId33"/>
+    <sheet name="20180917" sheetId="75" r:id="rId34"/>
+    <sheet name="20180914（周报）" sheetId="74" r:id="rId35"/>
+    <sheet name="20180914" sheetId="73" r:id="rId36"/>
+    <sheet name="20180913" sheetId="71" r:id="rId37"/>
+    <sheet name="20180912" sheetId="72" r:id="rId38"/>
+    <sheet name="20180911" sheetId="70" r:id="rId39"/>
+    <sheet name="20180910" sheetId="69" r:id="rId40"/>
+    <sheet name="20180907（周报）" sheetId="68" r:id="rId41"/>
+    <sheet name="20180907" sheetId="67" r:id="rId42"/>
+    <sheet name="20180906" sheetId="66" r:id="rId43"/>
+    <sheet name="20180905" sheetId="65" r:id="rId44"/>
+    <sheet name="20180903" sheetId="64" r:id="rId45"/>
+    <sheet name="20180831（周报）" sheetId="63" r:id="rId46"/>
+    <sheet name="20180831" sheetId="62" r:id="rId47"/>
+    <sheet name="20180830" sheetId="61" r:id="rId48"/>
+    <sheet name="20180829" sheetId="60" r:id="rId49"/>
+    <sheet name="20180828" sheetId="59" r:id="rId50"/>
+    <sheet name="20180827" sheetId="58" r:id="rId51"/>
+    <sheet name="20180824（周报）" sheetId="57" r:id="rId52"/>
+    <sheet name="20180824" sheetId="56" r:id="rId53"/>
+    <sheet name="20180823" sheetId="55" r:id="rId54"/>
+    <sheet name="20180822" sheetId="54" r:id="rId55"/>
+    <sheet name="20180821" sheetId="53" r:id="rId56"/>
+    <sheet name="20180820" sheetId="52" r:id="rId57"/>
+    <sheet name="20180817（周报）" sheetId="51" r:id="rId58"/>
+    <sheet name="20180817" sheetId="50" r:id="rId59"/>
+    <sheet name="20180816" sheetId="49" r:id="rId60"/>
+    <sheet name="20180815" sheetId="48" r:id="rId61"/>
+    <sheet name="20180814" sheetId="47" r:id="rId62"/>
+    <sheet name="20180813" sheetId="46" r:id="rId63"/>
+    <sheet name="20180810（周报）" sheetId="45" r:id="rId64"/>
+    <sheet name="20180810" sheetId="44" r:id="rId65"/>
+    <sheet name="20180809" sheetId="43" r:id="rId66"/>
+    <sheet name="20180808" sheetId="42" r:id="rId67"/>
+    <sheet name="20180807" sheetId="41" r:id="rId68"/>
+    <sheet name="20180806" sheetId="40" r:id="rId69"/>
+    <sheet name="20180803（周报）" sheetId="39" r:id="rId70"/>
+    <sheet name="20180803" sheetId="38" r:id="rId71"/>
+    <sheet name="20180802" sheetId="37" r:id="rId72"/>
+    <sheet name="20180801" sheetId="36" r:id="rId73"/>
+    <sheet name="20180731" sheetId="35" r:id="rId74"/>
+    <sheet name="20180730" sheetId="34" r:id="rId75"/>
+    <sheet name="20180727(周报)" sheetId="33" r:id="rId76"/>
+    <sheet name="20180727" sheetId="32" r:id="rId77"/>
+    <sheet name="20180726" sheetId="31" r:id="rId78"/>
+    <sheet name="20180725" sheetId="30" r:id="rId79"/>
+    <sheet name="20180724" sheetId="29" r:id="rId80"/>
+    <sheet name="20180723" sheetId="28" r:id="rId81"/>
+    <sheet name="20180720(周报)" sheetId="27" r:id="rId82"/>
+    <sheet name="20180720" sheetId="26" r:id="rId83"/>
+    <sheet name="20180719" sheetId="25" r:id="rId84"/>
+    <sheet name="20180718" sheetId="23" r:id="rId85"/>
+    <sheet name="20180717" sheetId="22" r:id="rId86"/>
+    <sheet name="20180716" sheetId="21" r:id="rId87"/>
+    <sheet name="20180713(周报)" sheetId="24" r:id="rId88"/>
+    <sheet name="20180713" sheetId="20" r:id="rId89"/>
+    <sheet name="20180712" sheetId="19" r:id="rId90"/>
+    <sheet name="20180711" sheetId="18" r:id="rId91"/>
+    <sheet name="20180710" sheetId="17" r:id="rId92"/>
+    <sheet name="20180709" sheetId="16" r:id="rId93"/>
+    <sheet name="20180706(周报)" sheetId="15" r:id="rId94"/>
+    <sheet name="20180706" sheetId="14" r:id="rId95"/>
+    <sheet name="20180705" sheetId="13" r:id="rId96"/>
+    <sheet name="20180704" sheetId="12" r:id="rId97"/>
+    <sheet name="20180703" sheetId="11" r:id="rId98"/>
+    <sheet name="20180702" sheetId="10" r:id="rId99"/>
+    <sheet name="20180629" sheetId="9" r:id="rId100"/>
+    <sheet name="20180628" sheetId="8" r:id="rId101"/>
+    <sheet name="20180627" sheetId="7" r:id="rId102"/>
+    <sheet name="20180626" sheetId="6" r:id="rId103"/>
+    <sheet name="20180625" sheetId="3" r:id="rId104"/>
+    <sheet name="20180621" sheetId="2" r:id="rId105"/>
+    <sheet name="20180622" sheetId="1" r:id="rId106"/>
+    <sheet name="项目计划" sheetId="4" r:id="rId107"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -128,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="582">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2406,6 +2408,30 @@
   </si>
   <si>
     <t>系统配置更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHK11月8日新产品配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHK11月18日新产品配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHK Hybris配置变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frankie Guan, Zhihua Huang，Sannie Li,Vicky Chiu, Hardy Yang, Ring Chen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frankie Guan, Angela Liang, Paul Lee, Garlo Tai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3122,7 +3148,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -3516,6 +3542,1324 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet99"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet91"/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="7.25" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet92"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C10:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="7.25" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet93"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet94"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet95"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="38.875" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet96"/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet97"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="33.25" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet98"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H13"/>
@@ -3669,778 +5013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet93"/>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet94"/>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet95"/>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="A1:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="38.875" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet96"/>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9">
-        <v>2</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet97"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="33.25" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet98"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G8"/>
@@ -4613,7 +5186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G8"/>
@@ -4784,7 +5357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G7"/>
@@ -4934,7 +5507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G7"/>
@@ -5086,7 +5659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G7"/>
@@ -5236,7 +5809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H12"/>
@@ -5371,7 +5944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G7"/>
@@ -5521,7 +6094,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G8"/>
@@ -5692,7 +6390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G7"/>
@@ -5842,156 +6540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>575</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G7"/>
@@ -6143,7 +6692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G7"/>
@@ -6291,7 +6840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H13"/>
@@ -6440,7 +6989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G7"/>
@@ -6588,7 +7137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:G7"/>
@@ -6738,7 +7287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:G8"/>
@@ -6909,7 +7458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:G9"/>
@@ -7103,7 +7652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H13"/>
@@ -7252,7 +7801,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:G8"/>
@@ -7425,7 +8102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:G8"/>
@@ -7598,156 +8275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:G10"/>
@@ -7956,7 +8484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:G9"/>
@@ -8146,7 +8674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:G8"/>
@@ -8319,7 +8847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H15"/>
@@ -8494,7 +9022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:G7"/>
@@ -8646,7 +9174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:G7"/>
@@ -8800,7 +9328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:G7"/>
@@ -8952,7 +9480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:G7"/>
@@ -9096,324 +9624,6 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet31"/>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet32"/>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="17">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="17">
-        <v>2</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
-        <v>3</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>4</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>169</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9470,17 +9680,17 @@
         <v>311</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>557</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -9498,7 +9708,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="4">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>571</v>
@@ -9519,7 +9729,7 @@
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>124</v>
@@ -9572,6 +9782,324 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet31"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet32"/>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:G8"/>
@@ -9746,7 +10274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:G7"/>
@@ -9896,7 +10424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:G7"/>
@@ -10046,7 +10574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:G7"/>
@@ -10198,7 +10726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H13"/>
@@ -10341,7 +10869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:G9"/>
@@ -10531,7 +11059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:G8"/>
@@ -10704,7 +11232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:G7"/>
@@ -10854,7 +11382,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:G9"/>
@@ -11044,7 +11721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:G8"/>
@@ -11215,156 +11892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>566</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:H13"/>
@@ -11511,7 +12039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:G8"/>
@@ -11680,7 +12208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:G7"/>
@@ -11832,7 +12360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:G7"/>
@@ -11986,7 +12514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:G7"/>
@@ -12140,7 +12668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:G8"/>
@@ -12319,7 +12847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H13"/>
@@ -12461,7 +12989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:G6"/>
@@ -12596,7 +13124,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:G6"/>
@@ -12751,7 +13428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:G6"/>
@@ -12904,157 +13581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet100"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>563</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:G7"/>
@@ -13228,7 +13755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:G6"/>
@@ -13379,7 +13906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H14"/>
@@ -13535,7 +14062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:G5"/>
@@ -13667,7 +14194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:G7"/>
@@ -13843,7 +14370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:G6"/>
@@ -13998,7 +14525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:G6"/>
@@ -14153,7 +14680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:G6"/>
@@ -14308,7 +14835,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H14"/>
@@ -14458,7 +15134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:G5"/>
@@ -14590,157 +15266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet101"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:G5"/>
@@ -14868,7 +15394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:G6"/>
@@ -15017,7 +15543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:G7"/>
@@ -15187,7 +15713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:G7"/>
@@ -15357,7 +15883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H14"/>
@@ -15501,7 +16027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:G7"/>
@@ -15671,7 +16197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:G5"/>
@@ -15799,7 +16325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:G5"/>
@@ -15927,7 +16453,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet100"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:G5"/>
@@ -16055,7 +16731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:G6"/>
@@ -16206,157 +16882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet99"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>559</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet73"/>
   <dimension ref="A1:H13"/>
@@ -16504,7 +17030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet74"/>
   <dimension ref="A1:G6"/>
@@ -16655,7 +17181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet75"/>
   <dimension ref="A1:G5"/>
@@ -16783,7 +17309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet76"/>
   <dimension ref="A1:G9"/>
@@ -16997,7 +17523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet77"/>
   <dimension ref="A1:G7"/>
@@ -17169,7 +17695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet78"/>
   <dimension ref="A1:G8"/>
@@ -17362,7 +17888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet79"/>
   <dimension ref="A1:H15"/>
@@ -17535,7 +18061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet80"/>
   <dimension ref="A1:G8"/>
@@ -17722,7 +18248,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet101"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet81"/>
   <dimension ref="A1:G4"/>
@@ -17831,7 +18507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet82"/>
   <dimension ref="A1:G14"/>
@@ -17992,157 +18668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>556</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet83"/>
   <dimension ref="A1:G16"/>
@@ -18347,7 +18873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet84"/>
   <dimension ref="A1:G18"/>
@@ -18590,7 +19116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet85"/>
   <dimension ref="A1:H14"/>
@@ -18760,7 +19286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet86"/>
   <dimension ref="A1:G18"/>
@@ -19040,7 +19566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet87"/>
   <dimension ref="A1:G5"/>
@@ -19170,7 +19696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet88"/>
   <dimension ref="A1:G6"/>
@@ -19323,7 +19849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet89"/>
   <dimension ref="A1:G6"/>
@@ -19476,7 +20002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet90"/>
   <dimension ref="A1:G6"/>
@@ -19627,251 +20153,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet91"/>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="31.375" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="7.25" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="F2" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet92"/>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C10:C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="31.375" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="7.25" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="F2" s="4">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/management/周报-2018.xlsx
+++ b/management/周报-2018.xlsx
@@ -9,116 +9,118 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CornJob项目计划" sheetId="5" r:id="rId1"/>
-    <sheet name="20181102（周报）" sheetId="107" r:id="rId2"/>
-    <sheet name="20181102" sheetId="106" r:id="rId3"/>
-    <sheet name="20181101" sheetId="105" r:id="rId4"/>
-    <sheet name="20181031" sheetId="104" r:id="rId5"/>
-    <sheet name="20181030" sheetId="103" r:id="rId6"/>
-    <sheet name="20181029" sheetId="102" r:id="rId7"/>
-    <sheet name="20181025" sheetId="101" r:id="rId8"/>
-    <sheet name="20181024" sheetId="100" r:id="rId9"/>
-    <sheet name="20181023" sheetId="99" r:id="rId10"/>
-    <sheet name="20181022" sheetId="98" r:id="rId11"/>
-    <sheet name="20181019（周报）" sheetId="97" r:id="rId12"/>
-    <sheet name="20181019" sheetId="96" r:id="rId13"/>
-    <sheet name="20181018" sheetId="95" r:id="rId14"/>
-    <sheet name="20181017" sheetId="94" r:id="rId15"/>
-    <sheet name="20181016" sheetId="93" r:id="rId16"/>
-    <sheet name="20181015" sheetId="92" r:id="rId17"/>
-    <sheet name="20181012（周报）" sheetId="91" r:id="rId18"/>
-    <sheet name="20181012" sheetId="90" r:id="rId19"/>
-    <sheet name="20181011" sheetId="89" r:id="rId20"/>
-    <sheet name="20181010" sheetId="88" r:id="rId21"/>
-    <sheet name="20181009" sheetId="87" r:id="rId22"/>
-    <sheet name="20181008" sheetId="86" r:id="rId23"/>
-    <sheet name="20180928（周报）" sheetId="80" r:id="rId24"/>
-    <sheet name="20180928" sheetId="84" r:id="rId25"/>
-    <sheet name="20180927" sheetId="83" r:id="rId26"/>
-    <sheet name="20180926" sheetId="82" r:id="rId27"/>
-    <sheet name="20180925" sheetId="81" r:id="rId28"/>
-    <sheet name="20180921（周报）" sheetId="85" r:id="rId29"/>
-    <sheet name="20180921" sheetId="79" r:id="rId30"/>
-    <sheet name="20180920" sheetId="78" r:id="rId31"/>
-    <sheet name="20180919" sheetId="77" r:id="rId32"/>
-    <sheet name="20180918" sheetId="76" r:id="rId33"/>
-    <sheet name="20180917" sheetId="75" r:id="rId34"/>
-    <sheet name="20180914（周报）" sheetId="74" r:id="rId35"/>
-    <sheet name="20180914" sheetId="73" r:id="rId36"/>
-    <sheet name="20180913" sheetId="71" r:id="rId37"/>
-    <sheet name="20180912" sheetId="72" r:id="rId38"/>
-    <sheet name="20180911" sheetId="70" r:id="rId39"/>
-    <sheet name="20180910" sheetId="69" r:id="rId40"/>
-    <sheet name="20180907（周报）" sheetId="68" r:id="rId41"/>
-    <sheet name="20180907" sheetId="67" r:id="rId42"/>
-    <sheet name="20180906" sheetId="66" r:id="rId43"/>
-    <sheet name="20180905" sheetId="65" r:id="rId44"/>
-    <sheet name="20180903" sheetId="64" r:id="rId45"/>
-    <sheet name="20180831（周报）" sheetId="63" r:id="rId46"/>
-    <sheet name="20180831" sheetId="62" r:id="rId47"/>
-    <sheet name="20180830" sheetId="61" r:id="rId48"/>
-    <sheet name="20180829" sheetId="60" r:id="rId49"/>
-    <sheet name="20180828" sheetId="59" r:id="rId50"/>
-    <sheet name="20180827" sheetId="58" r:id="rId51"/>
-    <sheet name="20180824（周报）" sheetId="57" r:id="rId52"/>
-    <sheet name="20180824" sheetId="56" r:id="rId53"/>
-    <sheet name="20180823" sheetId="55" r:id="rId54"/>
-    <sheet name="20180822" sheetId="54" r:id="rId55"/>
-    <sheet name="20180821" sheetId="53" r:id="rId56"/>
-    <sheet name="20180820" sheetId="52" r:id="rId57"/>
-    <sheet name="20180817（周报）" sheetId="51" r:id="rId58"/>
-    <sheet name="20180817" sheetId="50" r:id="rId59"/>
-    <sheet name="20180816" sheetId="49" r:id="rId60"/>
-    <sheet name="20180815" sheetId="48" r:id="rId61"/>
-    <sheet name="20180814" sheetId="47" r:id="rId62"/>
-    <sheet name="20180813" sheetId="46" r:id="rId63"/>
-    <sheet name="20180810（周报）" sheetId="45" r:id="rId64"/>
-    <sheet name="20180810" sheetId="44" r:id="rId65"/>
-    <sheet name="20180809" sheetId="43" r:id="rId66"/>
-    <sheet name="20180808" sheetId="42" r:id="rId67"/>
-    <sheet name="20180807" sheetId="41" r:id="rId68"/>
-    <sheet name="20180806" sheetId="40" r:id="rId69"/>
-    <sheet name="20180803（周报）" sheetId="39" r:id="rId70"/>
-    <sheet name="20180803" sheetId="38" r:id="rId71"/>
-    <sheet name="20180802" sheetId="37" r:id="rId72"/>
-    <sheet name="20180801" sheetId="36" r:id="rId73"/>
-    <sheet name="20180731" sheetId="35" r:id="rId74"/>
-    <sheet name="20180730" sheetId="34" r:id="rId75"/>
-    <sheet name="20180727(周报)" sheetId="33" r:id="rId76"/>
-    <sheet name="20180727" sheetId="32" r:id="rId77"/>
-    <sheet name="20180726" sheetId="31" r:id="rId78"/>
-    <sheet name="20180725" sheetId="30" r:id="rId79"/>
-    <sheet name="20180724" sheetId="29" r:id="rId80"/>
-    <sheet name="20180723" sheetId="28" r:id="rId81"/>
-    <sheet name="20180720(周报)" sheetId="27" r:id="rId82"/>
-    <sheet name="20180720" sheetId="26" r:id="rId83"/>
-    <sheet name="20180719" sheetId="25" r:id="rId84"/>
-    <sheet name="20180718" sheetId="23" r:id="rId85"/>
-    <sheet name="20180717" sheetId="22" r:id="rId86"/>
-    <sheet name="20180716" sheetId="21" r:id="rId87"/>
-    <sheet name="20180713(周报)" sheetId="24" r:id="rId88"/>
-    <sheet name="20180713" sheetId="20" r:id="rId89"/>
-    <sheet name="20180712" sheetId="19" r:id="rId90"/>
-    <sheet name="20180711" sheetId="18" r:id="rId91"/>
-    <sheet name="20180710" sheetId="17" r:id="rId92"/>
-    <sheet name="20180709" sheetId="16" r:id="rId93"/>
-    <sheet name="20180706(周报)" sheetId="15" r:id="rId94"/>
-    <sheet name="20180706" sheetId="14" r:id="rId95"/>
-    <sheet name="20180705" sheetId="13" r:id="rId96"/>
-    <sheet name="20180704" sheetId="12" r:id="rId97"/>
-    <sheet name="20180703" sheetId="11" r:id="rId98"/>
-    <sheet name="20180702" sheetId="10" r:id="rId99"/>
-    <sheet name="20180629" sheetId="9" r:id="rId100"/>
-    <sheet name="20180628" sheetId="8" r:id="rId101"/>
-    <sheet name="20180627" sheetId="7" r:id="rId102"/>
-    <sheet name="20180626" sheetId="6" r:id="rId103"/>
-    <sheet name="20180625" sheetId="3" r:id="rId104"/>
-    <sheet name="20180621" sheetId="2" r:id="rId105"/>
-    <sheet name="20180622" sheetId="1" r:id="rId106"/>
-    <sheet name="项目计划" sheetId="4" r:id="rId107"/>
+    <sheet name="20181107" sheetId="109" r:id="rId2"/>
+    <sheet name="20181105" sheetId="108" r:id="rId3"/>
+    <sheet name="20181102（周报）" sheetId="107" r:id="rId4"/>
+    <sheet name="20181102" sheetId="106" r:id="rId5"/>
+    <sheet name="20181101" sheetId="105" r:id="rId6"/>
+    <sheet name="20181031" sheetId="104" r:id="rId7"/>
+    <sheet name="20181030" sheetId="103" r:id="rId8"/>
+    <sheet name="20181029" sheetId="102" r:id="rId9"/>
+    <sheet name="20181025" sheetId="101" r:id="rId10"/>
+    <sheet name="20181024" sheetId="100" r:id="rId11"/>
+    <sheet name="20181023" sheetId="99" r:id="rId12"/>
+    <sheet name="20181022" sheetId="98" r:id="rId13"/>
+    <sheet name="20181019（周报）" sheetId="97" r:id="rId14"/>
+    <sheet name="20181019" sheetId="96" r:id="rId15"/>
+    <sheet name="20181018" sheetId="95" r:id="rId16"/>
+    <sheet name="20181017" sheetId="94" r:id="rId17"/>
+    <sheet name="20181016" sheetId="93" r:id="rId18"/>
+    <sheet name="20181015" sheetId="92" r:id="rId19"/>
+    <sheet name="20181012（周报）" sheetId="91" r:id="rId20"/>
+    <sheet name="20181012" sheetId="90" r:id="rId21"/>
+    <sheet name="20181011" sheetId="89" r:id="rId22"/>
+    <sheet name="20181010" sheetId="88" r:id="rId23"/>
+    <sheet name="20181009" sheetId="87" r:id="rId24"/>
+    <sheet name="20181008" sheetId="86" r:id="rId25"/>
+    <sheet name="20180928（周报）" sheetId="80" r:id="rId26"/>
+    <sheet name="20180928" sheetId="84" r:id="rId27"/>
+    <sheet name="20180927" sheetId="83" r:id="rId28"/>
+    <sheet name="20180926" sheetId="82" r:id="rId29"/>
+    <sheet name="20180925" sheetId="81" r:id="rId30"/>
+    <sheet name="20180921（周报）" sheetId="85" r:id="rId31"/>
+    <sheet name="20180921" sheetId="79" r:id="rId32"/>
+    <sheet name="20180920" sheetId="78" r:id="rId33"/>
+    <sheet name="20180919" sheetId="77" r:id="rId34"/>
+    <sheet name="20180918" sheetId="76" r:id="rId35"/>
+    <sheet name="20180917" sheetId="75" r:id="rId36"/>
+    <sheet name="20180914（周报）" sheetId="74" r:id="rId37"/>
+    <sheet name="20180914" sheetId="73" r:id="rId38"/>
+    <sheet name="20180913" sheetId="71" r:id="rId39"/>
+    <sheet name="20180912" sheetId="72" r:id="rId40"/>
+    <sheet name="20180911" sheetId="70" r:id="rId41"/>
+    <sheet name="20180910" sheetId="69" r:id="rId42"/>
+    <sheet name="20180907（周报）" sheetId="68" r:id="rId43"/>
+    <sheet name="20180907" sheetId="67" r:id="rId44"/>
+    <sheet name="20180906" sheetId="66" r:id="rId45"/>
+    <sheet name="20180905" sheetId="65" r:id="rId46"/>
+    <sheet name="20180903" sheetId="64" r:id="rId47"/>
+    <sheet name="20180831（周报）" sheetId="63" r:id="rId48"/>
+    <sheet name="20180831" sheetId="62" r:id="rId49"/>
+    <sheet name="20180830" sheetId="61" r:id="rId50"/>
+    <sheet name="20180829" sheetId="60" r:id="rId51"/>
+    <sheet name="20180828" sheetId="59" r:id="rId52"/>
+    <sheet name="20180827" sheetId="58" r:id="rId53"/>
+    <sheet name="20180824（周报）" sheetId="57" r:id="rId54"/>
+    <sheet name="20180824" sheetId="56" r:id="rId55"/>
+    <sheet name="20180823" sheetId="55" r:id="rId56"/>
+    <sheet name="20180822" sheetId="54" r:id="rId57"/>
+    <sheet name="20180821" sheetId="53" r:id="rId58"/>
+    <sheet name="20180820" sheetId="52" r:id="rId59"/>
+    <sheet name="20180817（周报）" sheetId="51" r:id="rId60"/>
+    <sheet name="20180817" sheetId="50" r:id="rId61"/>
+    <sheet name="20180816" sheetId="49" r:id="rId62"/>
+    <sheet name="20180815" sheetId="48" r:id="rId63"/>
+    <sheet name="20180814" sheetId="47" r:id="rId64"/>
+    <sheet name="20180813" sheetId="46" r:id="rId65"/>
+    <sheet name="20180810（周报）" sheetId="45" r:id="rId66"/>
+    <sheet name="20180810" sheetId="44" r:id="rId67"/>
+    <sheet name="20180809" sheetId="43" r:id="rId68"/>
+    <sheet name="20180808" sheetId="42" r:id="rId69"/>
+    <sheet name="20180807" sheetId="41" r:id="rId70"/>
+    <sheet name="20180806" sheetId="40" r:id="rId71"/>
+    <sheet name="20180803（周报）" sheetId="39" r:id="rId72"/>
+    <sheet name="20180803" sheetId="38" r:id="rId73"/>
+    <sheet name="20180802" sheetId="37" r:id="rId74"/>
+    <sheet name="20180801" sheetId="36" r:id="rId75"/>
+    <sheet name="20180731" sheetId="35" r:id="rId76"/>
+    <sheet name="20180730" sheetId="34" r:id="rId77"/>
+    <sheet name="20180727(周报)" sheetId="33" r:id="rId78"/>
+    <sheet name="20180727" sheetId="32" r:id="rId79"/>
+    <sheet name="20180726" sheetId="31" r:id="rId80"/>
+    <sheet name="20180725" sheetId="30" r:id="rId81"/>
+    <sheet name="20180724" sheetId="29" r:id="rId82"/>
+    <sheet name="20180723" sheetId="28" r:id="rId83"/>
+    <sheet name="20180720(周报)" sheetId="27" r:id="rId84"/>
+    <sheet name="20180720" sheetId="26" r:id="rId85"/>
+    <sheet name="20180719" sheetId="25" r:id="rId86"/>
+    <sheet name="20180718" sheetId="23" r:id="rId87"/>
+    <sheet name="20180717" sheetId="22" r:id="rId88"/>
+    <sheet name="20180716" sheetId="21" r:id="rId89"/>
+    <sheet name="20180713(周报)" sheetId="24" r:id="rId90"/>
+    <sheet name="20180713" sheetId="20" r:id="rId91"/>
+    <sheet name="20180712" sheetId="19" r:id="rId92"/>
+    <sheet name="20180711" sheetId="18" r:id="rId93"/>
+    <sheet name="20180710" sheetId="17" r:id="rId94"/>
+    <sheet name="20180709" sheetId="16" r:id="rId95"/>
+    <sheet name="20180706(周报)" sheetId="15" r:id="rId96"/>
+    <sheet name="20180706" sheetId="14" r:id="rId97"/>
+    <sheet name="20180705" sheetId="13" r:id="rId98"/>
+    <sheet name="20180704" sheetId="12" r:id="rId99"/>
+    <sheet name="20180703" sheetId="11" r:id="rId100"/>
+    <sheet name="20180702" sheetId="10" r:id="rId101"/>
+    <sheet name="20180629" sheetId="9" r:id="rId102"/>
+    <sheet name="20180628" sheetId="8" r:id="rId103"/>
+    <sheet name="20180627" sheetId="7" r:id="rId104"/>
+    <sheet name="20180626" sheetId="6" r:id="rId105"/>
+    <sheet name="20180625" sheetId="3" r:id="rId106"/>
+    <sheet name="20180621" sheetId="2" r:id="rId107"/>
+    <sheet name="20180622" sheetId="1" r:id="rId108"/>
+    <sheet name="项目计划" sheetId="4" r:id="rId109"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -130,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="590">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2432,6 +2434,38 @@
   </si>
   <si>
     <t>Frankie Guan, Angela Liang, Paul Lee, Garlo Tai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frankie Guan, Zhihua Huang，Sannie Li,Vicky Chiu, Hardy Yang, Ring Chen, Zeus Liang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品配置,Banner配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frankie Guan, Angela Liang, Paul Lee, Garlo Tai, Eileen Kong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品配置,Banner配置,Manus配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frankie Guan, Angela Liang, Paul Lee, Hailey Chow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Frankie Guan, Zhihua Huang，Sannie Li,Vicky Chiu, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amshop Team Meeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bruce Ding, Frankie Guan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3148,8 +3182,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3543,11 +3577,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet99"/>
+  <sheetPr codeName="Sheet100"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3582,7 +3616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3590,20 +3624,20 @@
         <v>311</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>557</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="4">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3614,14 +3648,14 @@
         <v>507</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="4">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -3639,7 +3673,7 @@
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>519</v>
@@ -3692,6 +3726,312 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet89"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet90"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet91"/>
   <dimension ref="A1:G3"/>
@@ -3783,7 +4123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet92"/>
   <dimension ref="A1:G6"/>
@@ -3938,7 +4278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet93"/>
   <dimension ref="A1:G6"/>
@@ -4091,7 +4431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet94"/>
   <dimension ref="A1:G5"/>
@@ -4221,7 +4561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet95"/>
   <dimension ref="A1:G5"/>
@@ -4349,7 +4689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet96"/>
   <dimension ref="A1:G8"/>
@@ -4527,7 +4867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet97"/>
   <dimension ref="A1:G7"/>
@@ -4693,7 +5033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet98"/>
   <dimension ref="A1"/>
@@ -4710,6 +5050,306 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet101"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet99"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G7"/>
@@ -4859,7 +5499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H13"/>
@@ -5013,7 +5653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G8"/>
@@ -5186,7 +5826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G8"/>
@@ -5357,7 +5997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G7"/>
@@ -5507,7 +6147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G7"/>
@@ -5659,7 +6299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G7"/>
@@ -5809,7 +6449,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H12"/>
@@ -5944,7 +6733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G7"/>
@@ -6094,132 +6883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="17">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="17">
-        <v>2</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
-        <v>3</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>4</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G8"/>
@@ -6390,7 +7054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G7"/>
@@ -6540,7 +7204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G7"/>
@@ -6692,7 +7356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G7"/>
@@ -6840,7 +7504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H13"/>
@@ -6989,7 +7653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G7"/>
@@ -7137,7 +7801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:G7"/>
@@ -7287,7 +7951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:G8"/>
@@ -7458,7 +8122,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:G9"/>
@@ -7652,7 +8444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H13"/>
@@ -7801,135 +8593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:G8"/>
@@ -8102,7 +8766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:G8"/>
@@ -8275,7 +8939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:G10"/>
@@ -8484,7 +9148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:G9"/>
@@ -8674,7 +9338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:G8"/>
@@ -8847,7 +9511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H15"/>
@@ -9022,7 +9686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:G7"/>
@@ -9174,7 +9838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:G7"/>
@@ -9328,7 +9992,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:G7"/>
@@ -9480,7 +10269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:G7"/>
@@ -9632,156 +10421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>575</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:G9"/>
@@ -9973,7 +10613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H11"/>
@@ -10099,7 +10739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:G8"/>
@@ -10274,7 +10914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:G7"/>
@@ -10424,7 +11064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:G7"/>
@@ -10574,7 +11214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:G7"/>
@@ -10726,7 +11366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H13"/>
@@ -10869,7 +11509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:G9"/>
@@ -11059,7 +11699,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:G8"/>
@@ -11232,7 +12000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:G7"/>
@@ -11382,156 +12150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:G9"/>
@@ -11721,7 +12340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:G8"/>
@@ -11892,7 +12511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:H13"/>
@@ -12039,7 +12658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:G8"/>
@@ -12208,7 +12827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:G7"/>
@@ -12360,7 +12979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:G7"/>
@@ -12514,7 +13133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:G7"/>
@@ -12668,7 +13287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:G8"/>
@@ -12839,283 +13458,6 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet49"/>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="17">
-        <v>1</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
-        <v>2</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>3</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
-        <v>4</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
-        <v>5</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet50"/>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13172,17 +13514,17 @@
         <v>311</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>557</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -13200,7 +13542,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="4">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>571</v>
@@ -13221,7 +13563,7 @@
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>124</v>
@@ -13274,6 +13616,283 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet49"/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
+        <v>1</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
+        <v>5</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet50"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:G6"/>
@@ -13428,7 +14047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:G6"/>
@@ -13581,7 +14200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:G7"/>
@@ -13755,7 +14374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:G6"/>
@@ -13906,7 +14525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H14"/>
@@ -14062,7 +14681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:G5"/>
@@ -14194,7 +14813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:G7"/>
@@ -14370,7 +14989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:G6"/>
@@ -14525,7 +15144,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:G6"/>
@@ -14680,7 +15448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:G6"/>
@@ -14835,156 +15603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>566</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H14"/>
@@ -15134,7 +15753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:G5"/>
@@ -15266,7 +15885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:G5"/>
@@ -15394,7 +16013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:G6"/>
@@ -15543,7 +16162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:G7"/>
@@ -15713,7 +16332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:G7"/>
@@ -15883,7 +16502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H14"/>
@@ -16027,7 +16646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:G7"/>
@@ -16197,7 +16816,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:G5"/>
@@ -16325,7 +17093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:G5"/>
@@ -16453,157 +17221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet100"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>563</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:G5"/>
@@ -16731,7 +17349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:G6"/>
@@ -16882,7 +17500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet73"/>
   <dimension ref="A1:H13"/>
@@ -17030,7 +17648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet74"/>
   <dimension ref="A1:G6"/>
@@ -17181,7 +17799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet75"/>
   <dimension ref="A1:G5"/>
@@ -17309,7 +17927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet76"/>
   <dimension ref="A1:G9"/>
@@ -17523,7 +18141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet77"/>
   <dimension ref="A1:G7"/>
@@ -17695,7 +18313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet78"/>
   <dimension ref="A1:G8"/>
@@ -17888,7 +18506,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet79"/>
   <dimension ref="A1:H15"/>
@@ -18061,7 +18828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet80"/>
   <dimension ref="A1:G8"/>
@@ -18248,157 +19015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet101"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet81"/>
   <dimension ref="A1:G4"/>
@@ -18507,7 +19124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet82"/>
   <dimension ref="A1:G14"/>
@@ -18668,7 +19285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet83"/>
   <dimension ref="A1:G16"/>
@@ -18873,7 +19490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet84"/>
   <dimension ref="A1:G18"/>
@@ -19116,7 +19733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet85"/>
   <dimension ref="A1:H14"/>
@@ -19286,7 +19903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet86"/>
   <dimension ref="A1:G18"/>
@@ -19566,7 +20183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet87"/>
   <dimension ref="A1:G5"/>
@@ -19696,7 +20313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet88"/>
   <dimension ref="A1:G6"/>
@@ -19847,310 +20464,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet89"/>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet90"/>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/management/周报-2018.xlsx
+++ b/management/周报-2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -13,114 +13,115 @@
   </bookViews>
   <sheets>
     <sheet name="CornJob项目计划" sheetId="5" r:id="rId1"/>
-    <sheet name="20181107" sheetId="109" r:id="rId2"/>
-    <sheet name="20181105" sheetId="108" r:id="rId3"/>
-    <sheet name="20181102（周报）" sheetId="107" r:id="rId4"/>
-    <sheet name="20181102" sheetId="106" r:id="rId5"/>
-    <sheet name="20181101" sheetId="105" r:id="rId6"/>
-    <sheet name="20181031" sheetId="104" r:id="rId7"/>
-    <sheet name="20181030" sheetId="103" r:id="rId8"/>
-    <sheet name="20181029" sheetId="102" r:id="rId9"/>
-    <sheet name="20181025" sheetId="101" r:id="rId10"/>
-    <sheet name="20181024" sheetId="100" r:id="rId11"/>
-    <sheet name="20181023" sheetId="99" r:id="rId12"/>
-    <sheet name="20181022" sheetId="98" r:id="rId13"/>
-    <sheet name="20181019（周报）" sheetId="97" r:id="rId14"/>
-    <sheet name="20181019" sheetId="96" r:id="rId15"/>
-    <sheet name="20181018" sheetId="95" r:id="rId16"/>
-    <sheet name="20181017" sheetId="94" r:id="rId17"/>
-    <sheet name="20181016" sheetId="93" r:id="rId18"/>
-    <sheet name="20181015" sheetId="92" r:id="rId19"/>
-    <sheet name="20181012（周报）" sheetId="91" r:id="rId20"/>
-    <sheet name="20181012" sheetId="90" r:id="rId21"/>
-    <sheet name="20181011" sheetId="89" r:id="rId22"/>
-    <sheet name="20181010" sheetId="88" r:id="rId23"/>
-    <sheet name="20181009" sheetId="87" r:id="rId24"/>
-    <sheet name="20181008" sheetId="86" r:id="rId25"/>
-    <sheet name="20180928（周报）" sheetId="80" r:id="rId26"/>
-    <sheet name="20180928" sheetId="84" r:id="rId27"/>
-    <sheet name="20180927" sheetId="83" r:id="rId28"/>
-    <sheet name="20180926" sheetId="82" r:id="rId29"/>
-    <sheet name="20180925" sheetId="81" r:id="rId30"/>
-    <sheet name="20180921（周报）" sheetId="85" r:id="rId31"/>
-    <sheet name="20180921" sheetId="79" r:id="rId32"/>
-    <sheet name="20180920" sheetId="78" r:id="rId33"/>
-    <sheet name="20180919" sheetId="77" r:id="rId34"/>
-    <sheet name="20180918" sheetId="76" r:id="rId35"/>
-    <sheet name="20180917" sheetId="75" r:id="rId36"/>
-    <sheet name="20180914（周报）" sheetId="74" r:id="rId37"/>
-    <sheet name="20180914" sheetId="73" r:id="rId38"/>
-    <sheet name="20180913" sheetId="71" r:id="rId39"/>
-    <sheet name="20180912" sheetId="72" r:id="rId40"/>
-    <sheet name="20180911" sheetId="70" r:id="rId41"/>
-    <sheet name="20180910" sheetId="69" r:id="rId42"/>
-    <sheet name="20180907（周报）" sheetId="68" r:id="rId43"/>
-    <sheet name="20180907" sheetId="67" r:id="rId44"/>
-    <sheet name="20180906" sheetId="66" r:id="rId45"/>
-    <sheet name="20180905" sheetId="65" r:id="rId46"/>
-    <sheet name="20180903" sheetId="64" r:id="rId47"/>
-    <sheet name="20180831（周报）" sheetId="63" r:id="rId48"/>
-    <sheet name="20180831" sheetId="62" r:id="rId49"/>
-    <sheet name="20180830" sheetId="61" r:id="rId50"/>
-    <sheet name="20180829" sheetId="60" r:id="rId51"/>
-    <sheet name="20180828" sheetId="59" r:id="rId52"/>
-    <sheet name="20180827" sheetId="58" r:id="rId53"/>
-    <sheet name="20180824（周报）" sheetId="57" r:id="rId54"/>
-    <sheet name="20180824" sheetId="56" r:id="rId55"/>
-    <sheet name="20180823" sheetId="55" r:id="rId56"/>
-    <sheet name="20180822" sheetId="54" r:id="rId57"/>
-    <sheet name="20180821" sheetId="53" r:id="rId58"/>
-    <sheet name="20180820" sheetId="52" r:id="rId59"/>
-    <sheet name="20180817（周报）" sheetId="51" r:id="rId60"/>
-    <sheet name="20180817" sheetId="50" r:id="rId61"/>
-    <sheet name="20180816" sheetId="49" r:id="rId62"/>
-    <sheet name="20180815" sheetId="48" r:id="rId63"/>
-    <sheet name="20180814" sheetId="47" r:id="rId64"/>
-    <sheet name="20180813" sheetId="46" r:id="rId65"/>
-    <sheet name="20180810（周报）" sheetId="45" r:id="rId66"/>
-    <sheet name="20180810" sheetId="44" r:id="rId67"/>
-    <sheet name="20180809" sheetId="43" r:id="rId68"/>
-    <sheet name="20180808" sheetId="42" r:id="rId69"/>
-    <sheet name="20180807" sheetId="41" r:id="rId70"/>
-    <sheet name="20180806" sheetId="40" r:id="rId71"/>
-    <sheet name="20180803（周报）" sheetId="39" r:id="rId72"/>
-    <sheet name="20180803" sheetId="38" r:id="rId73"/>
-    <sheet name="20180802" sheetId="37" r:id="rId74"/>
-    <sheet name="20180801" sheetId="36" r:id="rId75"/>
-    <sheet name="20180731" sheetId="35" r:id="rId76"/>
-    <sheet name="20180730" sheetId="34" r:id="rId77"/>
-    <sheet name="20180727(周报)" sheetId="33" r:id="rId78"/>
-    <sheet name="20180727" sheetId="32" r:id="rId79"/>
-    <sheet name="20180726" sheetId="31" r:id="rId80"/>
-    <sheet name="20180725" sheetId="30" r:id="rId81"/>
-    <sheet name="20180724" sheetId="29" r:id="rId82"/>
-    <sheet name="20180723" sheetId="28" r:id="rId83"/>
-    <sheet name="20180720(周报)" sheetId="27" r:id="rId84"/>
-    <sheet name="20180720" sheetId="26" r:id="rId85"/>
-    <sheet name="20180719" sheetId="25" r:id="rId86"/>
-    <sheet name="20180718" sheetId="23" r:id="rId87"/>
-    <sheet name="20180717" sheetId="22" r:id="rId88"/>
-    <sheet name="20180716" sheetId="21" r:id="rId89"/>
-    <sheet name="20180713(周报)" sheetId="24" r:id="rId90"/>
-    <sheet name="20180713" sheetId="20" r:id="rId91"/>
-    <sheet name="20180712" sheetId="19" r:id="rId92"/>
-    <sheet name="20180711" sheetId="18" r:id="rId93"/>
-    <sheet name="20180710" sheetId="17" r:id="rId94"/>
-    <sheet name="20180709" sheetId="16" r:id="rId95"/>
-    <sheet name="20180706(周报)" sheetId="15" r:id="rId96"/>
-    <sheet name="20180706" sheetId="14" r:id="rId97"/>
-    <sheet name="20180705" sheetId="13" r:id="rId98"/>
-    <sheet name="20180704" sheetId="12" r:id="rId99"/>
-    <sheet name="20180703" sheetId="11" r:id="rId100"/>
-    <sheet name="20180702" sheetId="10" r:id="rId101"/>
-    <sheet name="20180629" sheetId="9" r:id="rId102"/>
-    <sheet name="20180628" sheetId="8" r:id="rId103"/>
-    <sheet name="20180627" sheetId="7" r:id="rId104"/>
-    <sheet name="20180626" sheetId="6" r:id="rId105"/>
-    <sheet name="20180625" sheetId="3" r:id="rId106"/>
-    <sheet name="20180621" sheetId="2" r:id="rId107"/>
-    <sheet name="20180622" sheetId="1" r:id="rId108"/>
-    <sheet name="项目计划" sheetId="4" r:id="rId109"/>
+    <sheet name="20181108" sheetId="110" r:id="rId2"/>
+    <sheet name="20181107" sheetId="109" r:id="rId3"/>
+    <sheet name="20181105" sheetId="108" r:id="rId4"/>
+    <sheet name="20181102（周报）" sheetId="107" r:id="rId5"/>
+    <sheet name="20181102" sheetId="106" r:id="rId6"/>
+    <sheet name="20181101" sheetId="105" r:id="rId7"/>
+    <sheet name="20181031" sheetId="104" r:id="rId8"/>
+    <sheet name="20181030" sheetId="103" r:id="rId9"/>
+    <sheet name="20181029" sheetId="102" r:id="rId10"/>
+    <sheet name="20181025" sheetId="101" r:id="rId11"/>
+    <sheet name="20181024" sheetId="100" r:id="rId12"/>
+    <sheet name="20181023" sheetId="99" r:id="rId13"/>
+    <sheet name="20181022" sheetId="98" r:id="rId14"/>
+    <sheet name="20181019（周报）" sheetId="97" r:id="rId15"/>
+    <sheet name="20181019" sheetId="96" r:id="rId16"/>
+    <sheet name="20181018" sheetId="95" r:id="rId17"/>
+    <sheet name="20181017" sheetId="94" r:id="rId18"/>
+    <sheet name="20181016" sheetId="93" r:id="rId19"/>
+    <sheet name="20181015" sheetId="92" r:id="rId20"/>
+    <sheet name="20181012（周报）" sheetId="91" r:id="rId21"/>
+    <sheet name="20181012" sheetId="90" r:id="rId22"/>
+    <sheet name="20181011" sheetId="89" r:id="rId23"/>
+    <sheet name="20181010" sheetId="88" r:id="rId24"/>
+    <sheet name="20181009" sheetId="87" r:id="rId25"/>
+    <sheet name="20181008" sheetId="86" r:id="rId26"/>
+    <sheet name="20180928（周报）" sheetId="80" r:id="rId27"/>
+    <sheet name="20180928" sheetId="84" r:id="rId28"/>
+    <sheet name="20180927" sheetId="83" r:id="rId29"/>
+    <sheet name="20180926" sheetId="82" r:id="rId30"/>
+    <sheet name="20180925" sheetId="81" r:id="rId31"/>
+    <sheet name="20180921（周报）" sheetId="85" r:id="rId32"/>
+    <sheet name="20180921" sheetId="79" r:id="rId33"/>
+    <sheet name="20180920" sheetId="78" r:id="rId34"/>
+    <sheet name="20180919" sheetId="77" r:id="rId35"/>
+    <sheet name="20180918" sheetId="76" r:id="rId36"/>
+    <sheet name="20180917" sheetId="75" r:id="rId37"/>
+    <sheet name="20180914（周报）" sheetId="74" r:id="rId38"/>
+    <sheet name="20180914" sheetId="73" r:id="rId39"/>
+    <sheet name="20180913" sheetId="71" r:id="rId40"/>
+    <sheet name="20180912" sheetId="72" r:id="rId41"/>
+    <sheet name="20180911" sheetId="70" r:id="rId42"/>
+    <sheet name="20180910" sheetId="69" r:id="rId43"/>
+    <sheet name="20180907（周报）" sheetId="68" r:id="rId44"/>
+    <sheet name="20180907" sheetId="67" r:id="rId45"/>
+    <sheet name="20180906" sheetId="66" r:id="rId46"/>
+    <sheet name="20180905" sheetId="65" r:id="rId47"/>
+    <sheet name="20180903" sheetId="64" r:id="rId48"/>
+    <sheet name="20180831（周报）" sheetId="63" r:id="rId49"/>
+    <sheet name="20180831" sheetId="62" r:id="rId50"/>
+    <sheet name="20180830" sheetId="61" r:id="rId51"/>
+    <sheet name="20180829" sheetId="60" r:id="rId52"/>
+    <sheet name="20180828" sheetId="59" r:id="rId53"/>
+    <sheet name="20180827" sheetId="58" r:id="rId54"/>
+    <sheet name="20180824（周报）" sheetId="57" r:id="rId55"/>
+    <sheet name="20180824" sheetId="56" r:id="rId56"/>
+    <sheet name="20180823" sheetId="55" r:id="rId57"/>
+    <sheet name="20180822" sheetId="54" r:id="rId58"/>
+    <sheet name="20180821" sheetId="53" r:id="rId59"/>
+    <sheet name="20180820" sheetId="52" r:id="rId60"/>
+    <sheet name="20180817（周报）" sheetId="51" r:id="rId61"/>
+    <sheet name="20180817" sheetId="50" r:id="rId62"/>
+    <sheet name="20180816" sheetId="49" r:id="rId63"/>
+    <sheet name="20180815" sheetId="48" r:id="rId64"/>
+    <sheet name="20180814" sheetId="47" r:id="rId65"/>
+    <sheet name="20180813" sheetId="46" r:id="rId66"/>
+    <sheet name="20180810（周报）" sheetId="45" r:id="rId67"/>
+    <sheet name="20180810" sheetId="44" r:id="rId68"/>
+    <sheet name="20180809" sheetId="43" r:id="rId69"/>
+    <sheet name="20180808" sheetId="42" r:id="rId70"/>
+    <sheet name="20180807" sheetId="41" r:id="rId71"/>
+    <sheet name="20180806" sheetId="40" r:id="rId72"/>
+    <sheet name="20180803（周报）" sheetId="39" r:id="rId73"/>
+    <sheet name="20180803" sheetId="38" r:id="rId74"/>
+    <sheet name="20180802" sheetId="37" r:id="rId75"/>
+    <sheet name="20180801" sheetId="36" r:id="rId76"/>
+    <sheet name="20180731" sheetId="35" r:id="rId77"/>
+    <sheet name="20180730" sheetId="34" r:id="rId78"/>
+    <sheet name="20180727(周报)" sheetId="33" r:id="rId79"/>
+    <sheet name="20180727" sheetId="32" r:id="rId80"/>
+    <sheet name="20180726" sheetId="31" r:id="rId81"/>
+    <sheet name="20180725" sheetId="30" r:id="rId82"/>
+    <sheet name="20180724" sheetId="29" r:id="rId83"/>
+    <sheet name="20180723" sheetId="28" r:id="rId84"/>
+    <sheet name="20180720(周报)" sheetId="27" r:id="rId85"/>
+    <sheet name="20180720" sheetId="26" r:id="rId86"/>
+    <sheet name="20180719" sheetId="25" r:id="rId87"/>
+    <sheet name="20180718" sheetId="23" r:id="rId88"/>
+    <sheet name="20180717" sheetId="22" r:id="rId89"/>
+    <sheet name="20180716" sheetId="21" r:id="rId90"/>
+    <sheet name="20180713(周报)" sheetId="24" r:id="rId91"/>
+    <sheet name="20180713" sheetId="20" r:id="rId92"/>
+    <sheet name="20180712" sheetId="19" r:id="rId93"/>
+    <sheet name="20180711" sheetId="18" r:id="rId94"/>
+    <sheet name="20180710" sheetId="17" r:id="rId95"/>
+    <sheet name="20180709" sheetId="16" r:id="rId96"/>
+    <sheet name="20180706(周报)" sheetId="15" r:id="rId97"/>
+    <sheet name="20180706" sheetId="14" r:id="rId98"/>
+    <sheet name="20180705" sheetId="13" r:id="rId99"/>
+    <sheet name="20180704" sheetId="12" r:id="rId100"/>
+    <sheet name="20180703" sheetId="11" r:id="rId101"/>
+    <sheet name="20180702" sheetId="10" r:id="rId102"/>
+    <sheet name="20180629" sheetId="9" r:id="rId103"/>
+    <sheet name="20180628" sheetId="8" r:id="rId104"/>
+    <sheet name="20180627" sheetId="7" r:id="rId105"/>
+    <sheet name="20180626" sheetId="6" r:id="rId106"/>
+    <sheet name="20180625" sheetId="3" r:id="rId107"/>
+    <sheet name="20180621" sheetId="2" r:id="rId108"/>
+    <sheet name="20180622" sheetId="1" r:id="rId109"/>
+    <sheet name="项目计划" sheetId="4" r:id="rId110"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -132,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="594">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2467,6 +2468,18 @@
   <si>
     <t>Bruce Ding, Frankie Guan</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查促销，产品配置,Manus配置</t>
+  </si>
+  <si>
+    <t>邮件，Hybris配置，电话</t>
+  </si>
+  <si>
+    <t>Frankie Guan, Hailey Chow， Garlo Tai</t>
+  </si>
+  <si>
+    <t>Frankie Guan, Zhihua Huang，Judy Zhou</t>
   </si>
 </sst>
 </file>
@@ -2746,7 +2759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2860,6 +2873,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3577,11 +3611,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet100"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3627,14 +3660,14 @@
         <v>521</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>557</v>
+        <v>503</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="4">
         <v>1.5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -3642,41 +3675,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>507</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>563</v>
+        <v>228</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="4">
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
+        <v>291</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>228</v>
+        <v>566</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>519</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -3726,6 +3759,159 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet88"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet89"/>
   <dimension ref="A1:G6"/>
@@ -3878,7 +4064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet90"/>
   <dimension ref="A1:G6"/>
@@ -4031,7 +4217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet91"/>
   <dimension ref="A1:G3"/>
@@ -4123,7 +4309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet92"/>
   <dimension ref="A1:G6"/>
@@ -4278,7 +4464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet93"/>
   <dimension ref="A1:G6"/>
@@ -4431,7 +4617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet94"/>
   <dimension ref="A1:G5"/>
@@ -4561,7 +4747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet95"/>
   <dimension ref="A1:G5"/>
@@ -4689,7 +4875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet96"/>
   <dimension ref="A1:G8"/>
@@ -4867,7 +5053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet97"/>
   <dimension ref="A1:G7"/>
@@ -5033,7 +5219,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet100"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet98"/>
   <dimension ref="A1"/>
@@ -5049,7 +5385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet101"/>
   <dimension ref="A1:G7"/>
@@ -5199,7 +5535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet99"/>
   <dimension ref="A1:G7"/>
@@ -5349,7 +5685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G7"/>
@@ -5499,7 +5835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H13"/>
@@ -5653,7 +5989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G8"/>
@@ -5826,7 +6162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G8"/>
@@ -5997,7 +6333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G7"/>
@@ -6147,7 +6483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G7"/>
@@ -6299,7 +6635,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="39">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="40">
+        <v>4</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="39">
+        <v>2</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="40">
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="39">
+        <v>3</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="39">
+        <v>4</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G7"/>
@@ -6449,156 +6913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H12"/>
@@ -6733,7 +7048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G7"/>
@@ -6883,7 +7198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G8"/>
@@ -7054,7 +7369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G7"/>
@@ -7204,7 +7519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G7"/>
@@ -7356,7 +7671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G7"/>
@@ -7504,7 +7819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H13"/>
@@ -7653,7 +7968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G7"/>
@@ -7801,7 +8116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:G7"/>
@@ -7951,7 +8266,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:G8"/>
@@ -8122,135 +8586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>583</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:G9"/>
@@ -8444,7 +8780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H13"/>
@@ -8593,7 +8929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:G8"/>
@@ -8766,7 +9102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:G8"/>
@@ -8939,7 +9275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:G10"/>
@@ -9148,7 +9484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:G9"/>
@@ -9338,7 +9674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:G8"/>
@@ -9511,7 +9847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H15"/>
@@ -9686,7 +10022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:G7"/>
@@ -9838,7 +10174,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:G7"/>
@@ -9992,132 +10456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="17">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="17">
-        <v>2</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
-        <v>3</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>4</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:G7"/>
@@ -10269,7 +10608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:G7"/>
@@ -10421,7 +10760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:G9"/>
@@ -10613,7 +10952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H11"/>
@@ -10739,7 +11078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:G8"/>
@@ -10914,7 +11253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:G7"/>
@@ -11064,7 +11403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:G7"/>
@@ -11214,7 +11553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:G7"/>
@@ -11366,7 +11705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H13"/>
@@ -11509,7 +11848,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:G9"/>
@@ -11699,135 +12163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:G8"/>
@@ -12000,7 +12336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:G7"/>
@@ -12150,7 +12486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:G9"/>
@@ -12340,7 +12676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:G8"/>
@@ -12511,7 +12847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:H13"/>
@@ -12658,7 +12994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:G8"/>
@@ -12827,7 +13163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:G7"/>
@@ -12979,7 +13315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:G7"/>
@@ -13133,7 +13469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:G7"/>
@@ -13287,7 +13623,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:G8"/>
@@ -13466,156 +13930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>575</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H13"/>
@@ -13757,7 +14072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:G6"/>
@@ -13892,7 +14207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:G6"/>
@@ -14047,7 +14362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:G6"/>
@@ -14200,7 +14515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:G7"/>
@@ -14374,7 +14689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:G6"/>
@@ -14525,7 +14840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H14"/>
@@ -14681,7 +14996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:G5"/>
@@ -14813,7 +15128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:G7"/>
@@ -14989,7 +15304,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:G6"/>
@@ -15144,156 +15608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:G6"/>
@@ -15448,7 +15763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:G6"/>
@@ -15603,7 +15918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H14"/>
@@ -15753,7 +16068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:G5"/>
@@ -15885,7 +16200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:G5"/>
@@ -16013,7 +16328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:G6"/>
@@ -16162,7 +16477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:G7"/>
@@ -16332,7 +16647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:G7"/>
@@ -16502,7 +16817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H14"/>
@@ -16646,7 +16961,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:G7"/>
@@ -16816,156 +17280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:G5"/>
@@ -17093,7 +17408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:G5"/>
@@ -17221,7 +17536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:G5"/>
@@ -17349,7 +17664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:G6"/>
@@ -17500,7 +17815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet73"/>
   <dimension ref="A1:H13"/>
@@ -17648,7 +17963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet74"/>
   <dimension ref="A1:G6"/>
@@ -17799,7 +18114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet75"/>
   <dimension ref="A1:G5"/>
@@ -17927,7 +18242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet76"/>
   <dimension ref="A1:G9"/>
@@ -18141,7 +18456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet77"/>
   <dimension ref="A1:G7"/>
@@ -18313,7 +18628,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet78"/>
   <dimension ref="A1:G8"/>
@@ -18506,156 +18970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>566</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet79"/>
   <dimension ref="A1:H15"/>
@@ -18828,7 +19143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet80"/>
   <dimension ref="A1:G8"/>
@@ -19015,7 +19330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet81"/>
   <dimension ref="A1:G4"/>
@@ -19124,7 +19439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet82"/>
   <dimension ref="A1:G14"/>
@@ -19285,7 +19600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet83"/>
   <dimension ref="A1:G16"/>
@@ -19490,7 +19805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet84"/>
   <dimension ref="A1:G18"/>
@@ -19733,7 +20048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet85"/>
   <dimension ref="A1:H14"/>
@@ -19903,7 +20218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet86"/>
   <dimension ref="A1:G18"/>
@@ -20183,7 +20498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet87"/>
   <dimension ref="A1:G5"/>
@@ -20311,157 +20626,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet88"/>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/management/周报-2018.xlsx
+++ b/management/周报-2018.xlsx
@@ -13,117 +13,119 @@
   </bookViews>
   <sheets>
     <sheet name="CornJob项目计划" sheetId="5" r:id="rId1"/>
-    <sheet name="20181108" sheetId="110" r:id="rId2"/>
-    <sheet name="20181107" sheetId="109" r:id="rId3"/>
-    <sheet name="20181105" sheetId="108" r:id="rId4"/>
-    <sheet name="20181102（周报）" sheetId="107" r:id="rId5"/>
-    <sheet name="20181102" sheetId="106" r:id="rId6"/>
-    <sheet name="20181101" sheetId="105" r:id="rId7"/>
-    <sheet name="20181031" sheetId="104" r:id="rId8"/>
-    <sheet name="20181030" sheetId="103" r:id="rId9"/>
-    <sheet name="20181029" sheetId="102" r:id="rId10"/>
-    <sheet name="20181025" sheetId="101" r:id="rId11"/>
-    <sheet name="20181024" sheetId="100" r:id="rId12"/>
-    <sheet name="20181023" sheetId="99" r:id="rId13"/>
-    <sheet name="20181022" sheetId="98" r:id="rId14"/>
-    <sheet name="20181019（周报）" sheetId="97" r:id="rId15"/>
-    <sheet name="20181019" sheetId="96" r:id="rId16"/>
-    <sheet name="20181018" sheetId="95" r:id="rId17"/>
-    <sheet name="20181017" sheetId="94" r:id="rId18"/>
-    <sheet name="20181016" sheetId="93" r:id="rId19"/>
-    <sheet name="20181015" sheetId="92" r:id="rId20"/>
-    <sheet name="20181012（周报）" sheetId="91" r:id="rId21"/>
-    <sheet name="20181012" sheetId="90" r:id="rId22"/>
-    <sheet name="20181011" sheetId="89" r:id="rId23"/>
-    <sheet name="20181010" sheetId="88" r:id="rId24"/>
-    <sheet name="20181009" sheetId="87" r:id="rId25"/>
-    <sheet name="20181008" sheetId="86" r:id="rId26"/>
-    <sheet name="20180928（周报）" sheetId="80" r:id="rId27"/>
-    <sheet name="20180928" sheetId="84" r:id="rId28"/>
-    <sheet name="20180927" sheetId="83" r:id="rId29"/>
-    <sheet name="20180926" sheetId="82" r:id="rId30"/>
-    <sheet name="20180925" sheetId="81" r:id="rId31"/>
-    <sheet name="20180921（周报）" sheetId="85" r:id="rId32"/>
-    <sheet name="20180921" sheetId="79" r:id="rId33"/>
-    <sheet name="20180920" sheetId="78" r:id="rId34"/>
-    <sheet name="20180919" sheetId="77" r:id="rId35"/>
-    <sheet name="20180918" sheetId="76" r:id="rId36"/>
-    <sheet name="20180917" sheetId="75" r:id="rId37"/>
-    <sheet name="20180914（周报）" sheetId="74" r:id="rId38"/>
-    <sheet name="20180914" sheetId="73" r:id="rId39"/>
-    <sheet name="20180913" sheetId="71" r:id="rId40"/>
-    <sheet name="20180912" sheetId="72" r:id="rId41"/>
-    <sheet name="20180911" sheetId="70" r:id="rId42"/>
-    <sheet name="20180910" sheetId="69" r:id="rId43"/>
-    <sheet name="20180907（周报）" sheetId="68" r:id="rId44"/>
-    <sheet name="20180907" sheetId="67" r:id="rId45"/>
-    <sheet name="20180906" sheetId="66" r:id="rId46"/>
-    <sheet name="20180905" sheetId="65" r:id="rId47"/>
-    <sheet name="20180903" sheetId="64" r:id="rId48"/>
-    <sheet name="20180831（周报）" sheetId="63" r:id="rId49"/>
-    <sheet name="20180831" sheetId="62" r:id="rId50"/>
-    <sheet name="20180830" sheetId="61" r:id="rId51"/>
-    <sheet name="20180829" sheetId="60" r:id="rId52"/>
-    <sheet name="20180828" sheetId="59" r:id="rId53"/>
-    <sheet name="20180827" sheetId="58" r:id="rId54"/>
-    <sheet name="20180824（周报）" sheetId="57" r:id="rId55"/>
-    <sheet name="20180824" sheetId="56" r:id="rId56"/>
-    <sheet name="20180823" sheetId="55" r:id="rId57"/>
-    <sheet name="20180822" sheetId="54" r:id="rId58"/>
-    <sheet name="20180821" sheetId="53" r:id="rId59"/>
-    <sheet name="20180820" sheetId="52" r:id="rId60"/>
-    <sheet name="20180817（周报）" sheetId="51" r:id="rId61"/>
-    <sheet name="20180817" sheetId="50" r:id="rId62"/>
-    <sheet name="20180816" sheetId="49" r:id="rId63"/>
-    <sheet name="20180815" sheetId="48" r:id="rId64"/>
-    <sheet name="20180814" sheetId="47" r:id="rId65"/>
-    <sheet name="20180813" sheetId="46" r:id="rId66"/>
-    <sheet name="20180810（周报）" sheetId="45" r:id="rId67"/>
-    <sheet name="20180810" sheetId="44" r:id="rId68"/>
-    <sheet name="20180809" sheetId="43" r:id="rId69"/>
-    <sheet name="20180808" sheetId="42" r:id="rId70"/>
-    <sheet name="20180807" sheetId="41" r:id="rId71"/>
-    <sheet name="20180806" sheetId="40" r:id="rId72"/>
-    <sheet name="20180803（周报）" sheetId="39" r:id="rId73"/>
-    <sheet name="20180803" sheetId="38" r:id="rId74"/>
-    <sheet name="20180802" sheetId="37" r:id="rId75"/>
-    <sheet name="20180801" sheetId="36" r:id="rId76"/>
-    <sheet name="20180731" sheetId="35" r:id="rId77"/>
-    <sheet name="20180730" sheetId="34" r:id="rId78"/>
-    <sheet name="20180727(周报)" sheetId="33" r:id="rId79"/>
-    <sheet name="20180727" sheetId="32" r:id="rId80"/>
-    <sheet name="20180726" sheetId="31" r:id="rId81"/>
-    <sheet name="20180725" sheetId="30" r:id="rId82"/>
-    <sheet name="20180724" sheetId="29" r:id="rId83"/>
-    <sheet name="20180723" sheetId="28" r:id="rId84"/>
-    <sheet name="20180720(周报)" sheetId="27" r:id="rId85"/>
-    <sheet name="20180720" sheetId="26" r:id="rId86"/>
-    <sheet name="20180719" sheetId="25" r:id="rId87"/>
-    <sheet name="20180718" sheetId="23" r:id="rId88"/>
-    <sheet name="20180717" sheetId="22" r:id="rId89"/>
-    <sheet name="20180716" sheetId="21" r:id="rId90"/>
-    <sheet name="20180713(周报)" sheetId="24" r:id="rId91"/>
-    <sheet name="20180713" sheetId="20" r:id="rId92"/>
-    <sheet name="20180712" sheetId="19" r:id="rId93"/>
-    <sheet name="20180711" sheetId="18" r:id="rId94"/>
-    <sheet name="20180710" sheetId="17" r:id="rId95"/>
-    <sheet name="20180709" sheetId="16" r:id="rId96"/>
-    <sheet name="20180706(周报)" sheetId="15" r:id="rId97"/>
-    <sheet name="20180706" sheetId="14" r:id="rId98"/>
-    <sheet name="20180705" sheetId="13" r:id="rId99"/>
-    <sheet name="20180704" sheetId="12" r:id="rId100"/>
-    <sheet name="20180703" sheetId="11" r:id="rId101"/>
-    <sheet name="20180702" sheetId="10" r:id="rId102"/>
-    <sheet name="20180629" sheetId="9" r:id="rId103"/>
-    <sheet name="20180628" sheetId="8" r:id="rId104"/>
-    <sheet name="20180627" sheetId="7" r:id="rId105"/>
-    <sheet name="20180626" sheetId="6" r:id="rId106"/>
-    <sheet name="20180625" sheetId="3" r:id="rId107"/>
-    <sheet name="20180621" sheetId="2" r:id="rId108"/>
-    <sheet name="20180622" sheetId="1" r:id="rId109"/>
-    <sheet name="项目计划" sheetId="4" r:id="rId110"/>
+    <sheet name="20181113" sheetId="112" r:id="rId2"/>
+    <sheet name="20181112" sheetId="111" r:id="rId3"/>
+    <sheet name="20181108" sheetId="110" r:id="rId4"/>
+    <sheet name="20181107" sheetId="109" r:id="rId5"/>
+    <sheet name="20181105" sheetId="108" r:id="rId6"/>
+    <sheet name="20181102（周报）" sheetId="107" r:id="rId7"/>
+    <sheet name="20181102" sheetId="106" r:id="rId8"/>
+    <sheet name="20181101" sheetId="105" r:id="rId9"/>
+    <sheet name="20181031" sheetId="104" r:id="rId10"/>
+    <sheet name="20181030" sheetId="103" r:id="rId11"/>
+    <sheet name="20181029" sheetId="102" r:id="rId12"/>
+    <sheet name="20181025" sheetId="101" r:id="rId13"/>
+    <sheet name="20181024" sheetId="100" r:id="rId14"/>
+    <sheet name="20181023" sheetId="99" r:id="rId15"/>
+    <sheet name="20181022" sheetId="98" r:id="rId16"/>
+    <sheet name="20181019（周报）" sheetId="97" r:id="rId17"/>
+    <sheet name="20181019" sheetId="96" r:id="rId18"/>
+    <sheet name="20181018" sheetId="95" r:id="rId19"/>
+    <sheet name="20181017" sheetId="94" r:id="rId20"/>
+    <sheet name="20181016" sheetId="93" r:id="rId21"/>
+    <sheet name="20181015" sheetId="92" r:id="rId22"/>
+    <sheet name="20181012（周报）" sheetId="91" r:id="rId23"/>
+    <sheet name="20181012" sheetId="90" r:id="rId24"/>
+    <sheet name="20181011" sheetId="89" r:id="rId25"/>
+    <sheet name="20181010" sheetId="88" r:id="rId26"/>
+    <sheet name="20181009" sheetId="87" r:id="rId27"/>
+    <sheet name="20181008" sheetId="86" r:id="rId28"/>
+    <sheet name="20180928（周报）" sheetId="80" r:id="rId29"/>
+    <sheet name="20180928" sheetId="84" r:id="rId30"/>
+    <sheet name="20180927" sheetId="83" r:id="rId31"/>
+    <sheet name="20180926" sheetId="82" r:id="rId32"/>
+    <sheet name="20180925" sheetId="81" r:id="rId33"/>
+    <sheet name="20180921（周报）" sheetId="85" r:id="rId34"/>
+    <sheet name="20180921" sheetId="79" r:id="rId35"/>
+    <sheet name="20180920" sheetId="78" r:id="rId36"/>
+    <sheet name="20180919" sheetId="77" r:id="rId37"/>
+    <sheet name="20180918" sheetId="76" r:id="rId38"/>
+    <sheet name="20180917" sheetId="75" r:id="rId39"/>
+    <sheet name="20180914（周报）" sheetId="74" r:id="rId40"/>
+    <sheet name="20180914" sheetId="73" r:id="rId41"/>
+    <sheet name="20180913" sheetId="71" r:id="rId42"/>
+    <sheet name="20180912" sheetId="72" r:id="rId43"/>
+    <sheet name="20180911" sheetId="70" r:id="rId44"/>
+    <sheet name="20180910" sheetId="69" r:id="rId45"/>
+    <sheet name="20180907（周报）" sheetId="68" r:id="rId46"/>
+    <sheet name="20180907" sheetId="67" r:id="rId47"/>
+    <sheet name="20180906" sheetId="66" r:id="rId48"/>
+    <sheet name="20180905" sheetId="65" r:id="rId49"/>
+    <sheet name="20180903" sheetId="64" r:id="rId50"/>
+    <sheet name="20180831（周报）" sheetId="63" r:id="rId51"/>
+    <sheet name="20180831" sheetId="62" r:id="rId52"/>
+    <sheet name="20180830" sheetId="61" r:id="rId53"/>
+    <sheet name="20180829" sheetId="60" r:id="rId54"/>
+    <sheet name="20180828" sheetId="59" r:id="rId55"/>
+    <sheet name="20180827" sheetId="58" r:id="rId56"/>
+    <sheet name="20180824（周报）" sheetId="57" r:id="rId57"/>
+    <sheet name="20180824" sheetId="56" r:id="rId58"/>
+    <sheet name="20180823" sheetId="55" r:id="rId59"/>
+    <sheet name="20180822" sheetId="54" r:id="rId60"/>
+    <sheet name="20180821" sheetId="53" r:id="rId61"/>
+    <sheet name="20180820" sheetId="52" r:id="rId62"/>
+    <sheet name="20180817（周报）" sheetId="51" r:id="rId63"/>
+    <sheet name="20180817" sheetId="50" r:id="rId64"/>
+    <sheet name="20180816" sheetId="49" r:id="rId65"/>
+    <sheet name="20180815" sheetId="48" r:id="rId66"/>
+    <sheet name="20180814" sheetId="47" r:id="rId67"/>
+    <sheet name="20180813" sheetId="46" r:id="rId68"/>
+    <sheet name="20180810（周报）" sheetId="45" r:id="rId69"/>
+    <sheet name="20180810" sheetId="44" r:id="rId70"/>
+    <sheet name="20180809" sheetId="43" r:id="rId71"/>
+    <sheet name="20180808" sheetId="42" r:id="rId72"/>
+    <sheet name="20180807" sheetId="41" r:id="rId73"/>
+    <sheet name="20180806" sheetId="40" r:id="rId74"/>
+    <sheet name="20180803（周报）" sheetId="39" r:id="rId75"/>
+    <sheet name="20180803" sheetId="38" r:id="rId76"/>
+    <sheet name="20180802" sheetId="37" r:id="rId77"/>
+    <sheet name="20180801" sheetId="36" r:id="rId78"/>
+    <sheet name="20180731" sheetId="35" r:id="rId79"/>
+    <sheet name="20180730" sheetId="34" r:id="rId80"/>
+    <sheet name="20180727(周报)" sheetId="33" r:id="rId81"/>
+    <sheet name="20180727" sheetId="32" r:id="rId82"/>
+    <sheet name="20180726" sheetId="31" r:id="rId83"/>
+    <sheet name="20180725" sheetId="30" r:id="rId84"/>
+    <sheet name="20180724" sheetId="29" r:id="rId85"/>
+    <sheet name="20180723" sheetId="28" r:id="rId86"/>
+    <sheet name="20180720(周报)" sheetId="27" r:id="rId87"/>
+    <sheet name="20180720" sheetId="26" r:id="rId88"/>
+    <sheet name="20180719" sheetId="25" r:id="rId89"/>
+    <sheet name="20180718" sheetId="23" r:id="rId90"/>
+    <sheet name="20180717" sheetId="22" r:id="rId91"/>
+    <sheet name="20180716" sheetId="21" r:id="rId92"/>
+    <sheet name="20180713(周报)" sheetId="24" r:id="rId93"/>
+    <sheet name="20180713" sheetId="20" r:id="rId94"/>
+    <sheet name="20180712" sheetId="19" r:id="rId95"/>
+    <sheet name="20180711" sheetId="18" r:id="rId96"/>
+    <sheet name="20180710" sheetId="17" r:id="rId97"/>
+    <sheet name="20180709" sheetId="16" r:id="rId98"/>
+    <sheet name="20180706(周报)" sheetId="15" r:id="rId99"/>
+    <sheet name="20180706" sheetId="14" r:id="rId100"/>
+    <sheet name="20180705" sheetId="13" r:id="rId101"/>
+    <sheet name="20180704" sheetId="12" r:id="rId102"/>
+    <sheet name="20180703" sheetId="11" r:id="rId103"/>
+    <sheet name="20180702" sheetId="10" r:id="rId104"/>
+    <sheet name="20180629" sheetId="9" r:id="rId105"/>
+    <sheet name="20180628" sheetId="8" r:id="rId106"/>
+    <sheet name="20180627" sheetId="7" r:id="rId107"/>
+    <sheet name="20180626" sheetId="6" r:id="rId108"/>
+    <sheet name="20180625" sheetId="3" r:id="rId109"/>
+    <sheet name="20180621" sheetId="2" r:id="rId110"/>
+    <sheet name="20180622" sheetId="1" r:id="rId111"/>
+    <sheet name="项目计划" sheetId="4" r:id="rId112"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -133,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="602">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2480,6 +2482,38 @@
   </si>
   <si>
     <t>Frankie Guan, Zhihua Huang，Judy Zhou</t>
+  </si>
+  <si>
+    <t>小组会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bruce Ding, Sally Zou, Frankie Guan等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查促销，产品配置,Manus配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frankie Guan, Hailey Chow， Hazel Wan，Sannie Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frankie Guan, Zhihua Huang，Judy Zhou，Sannie Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frankie Guan, Zhihua Huang，Sannie Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frankie Guan, Hailey Chow， Hazel Wan，Ashley Yiu, Eileen Koon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2853,6 +2887,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2873,27 +2928,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3614,7 +3648,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G6" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3657,17 +3691,17 @@
         <v>311</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>521</v>
+        <v>574</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="4">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -3675,20 +3709,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>228</v>
+        <v>570</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="4">
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>519</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -3696,20 +3730,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>291</v>
+        <v>572</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>293</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -3717,7 +3751,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
@@ -3728,7 +3762,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -3759,6 +3793,416 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet86"/>
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+    </row>
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B12" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+      <c r="B13" s="43"/>
+      <c r="C13" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="43"/>
+    </row>
+    <row r="14" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="43"/>
+      <c r="C14" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="44"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="43"/>
+      <c r="C15" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="44"/>
+      <c r="C16" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="44"/>
+      <c r="C18" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="B17:B18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet87"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet88"/>
   <dimension ref="A1:G6"/>
@@ -3911,7 +4355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet89"/>
   <dimension ref="A1:G6"/>
@@ -4064,7 +4508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet90"/>
   <dimension ref="A1:G6"/>
@@ -4217,7 +4661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet91"/>
   <dimension ref="A1:G3"/>
@@ -4309,7 +4753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet92"/>
   <dimension ref="A1:G6"/>
@@ -4464,7 +4908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet93"/>
   <dimension ref="A1:G6"/>
@@ -4617,7 +5061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet94"/>
   <dimension ref="A1:G5"/>
@@ -4747,7 +5191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet95"/>
   <dimension ref="A1:G5"/>
@@ -4875,7 +5319,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet96"/>
   <dimension ref="A1:G8"/>
@@ -5053,7 +5646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet97"/>
   <dimension ref="A1:G7"/>
@@ -5219,7 +5812,172 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet98"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet100"/>
   <dimension ref="A1:G7"/>
@@ -5369,23 +6127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet98"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet101"/>
   <dimension ref="A1:G7"/>
@@ -5535,7 +6277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet99"/>
   <dimension ref="A1:G7"/>
@@ -5685,7 +6427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G7"/>
@@ -5835,7 +6577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H13"/>
@@ -5989,7 +6731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G8"/>
@@ -6162,7 +6904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G8"/>
@@ -6333,7 +7075,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
+        <v>2</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G7"/>
@@ -6483,7 +7374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G7"/>
@@ -6635,135 +7526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="39">
-        <v>1</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>590</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="40">
-        <v>4</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="39">
-        <v>2</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="40">
-        <v>2.5</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="39">
-        <v>3</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="39">
-        <v>4</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G7"/>
@@ -6913,7 +7676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H12"/>
@@ -7048,7 +7811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G7"/>
@@ -7198,7 +7961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G8"/>
@@ -7369,7 +8132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G7"/>
@@ -7519,7 +8282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G7"/>
@@ -7671,7 +8434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G7"/>
@@ -7819,7 +8582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H13"/>
@@ -7968,7 +8731,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>2</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>4</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G7"/>
@@ -8116,7 +9028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:G7"/>
@@ -8266,156 +9178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:G8"/>
@@ -8586,7 +9349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:G9"/>
@@ -8780,7 +9543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H13"/>
@@ -8929,7 +9692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:G8"/>
@@ -9102,7 +9865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:G8"/>
@@ -9275,7 +10038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:G10"/>
@@ -9484,7 +10247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:G9"/>
@@ -9674,7 +10437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:G8"/>
@@ -9847,7 +10610,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>4</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H15"/>
@@ -10022,7 +10913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:G7"/>
@@ -10174,135 +11065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>583</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:G7"/>
@@ -10456,7 +11219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:G7"/>
@@ -10608,7 +11371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:G7"/>
@@ -10760,7 +11523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:G9"/>
@@ -10952,7 +11715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H11"/>
@@ -11078,7 +11841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:G8"/>
@@ -11253,7 +12016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:G7"/>
@@ -11403,7 +12166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:G7"/>
@@ -11553,7 +12316,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:G7"/>
@@ -11705,7 +12617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H13"/>
@@ -11848,132 +12760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="17">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="17">
-        <v>2</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
-        <v>3</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>4</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:G9"/>
@@ -12163,7 +12950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:G8"/>
@@ -12336,7 +13123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:G7"/>
@@ -12486,7 +13273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:G9"/>
@@ -12676,7 +13463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:G8"/>
@@ -12847,7 +13634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:H13"/>
@@ -12994,7 +13781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:G8"/>
@@ -13163,7 +13950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:G7"/>
@@ -13315,7 +14102,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:G7"/>
@@ -13469,7 +14384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:G7"/>
@@ -13623,135 +14538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:G8"/>
@@ -13930,7 +14717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H13"/>
@@ -14072,7 +14859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:G6"/>
@@ -14207,7 +14994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:G6"/>
@@ -14362,7 +15149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:G6"/>
@@ -14515,7 +15302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:G7"/>
@@ -14689,7 +15476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:G6"/>
@@ -14840,7 +15627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H14"/>
@@ -14996,7 +15783,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:G5"/>
@@ -15128,7 +16040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:G7"/>
@@ -15304,156 +16216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>575</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:G6"/>
@@ -15608,7 +16371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:G6"/>
@@ -15763,7 +16526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:G6"/>
@@ -15918,7 +16681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H14"/>
@@ -16068,7 +16831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:G5"/>
@@ -16200,7 +16963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:G5"/>
@@ -16328,7 +17091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:G6"/>
@@ -16477,7 +17240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:G7"/>
@@ -16647,7 +17410,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:G7"/>
@@ -16817,7 +17708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H14"/>
@@ -16961,156 +17852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:G7"/>
@@ -17280,7 +18022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:G5"/>
@@ -17408,7 +18150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:G5"/>
@@ -17536,7 +18278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:G5"/>
@@ -17664,7 +18406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:G6"/>
@@ -17815,7 +18557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet73"/>
   <dimension ref="A1:H13"/>
@@ -17963,7 +18705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet74"/>
   <dimension ref="A1:G6"/>
@@ -18114,7 +18856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet75"/>
   <dimension ref="A1:G5"/>
@@ -18232,392 +18974,6 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet76"/>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet77"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -18676,17 +19032,17 @@
         <v>311</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>557</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -18704,7 +19060,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="4">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>571</v>
@@ -18725,7 +19081,7 @@
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>124</v>
@@ -18778,6 +19134,392 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet76"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet77"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet78"/>
   <dimension ref="A1:G8"/>
@@ -18970,7 +19712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet79"/>
   <dimension ref="A1:H15"/>
@@ -19143,7 +19885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet80"/>
   <dimension ref="A1:G8"/>
@@ -19330,7 +20072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet81"/>
   <dimension ref="A1:G4"/>
@@ -19439,7 +20181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet82"/>
   <dimension ref="A1:G14"/>
@@ -19543,46 +20285,46 @@
     </row>
     <row r="6" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="23"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="23"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="32"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="32"/>
+      <c r="D8" s="39"/>
     </row>
     <row r="9" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="24"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="39"/>
     </row>
     <row r="10" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="24"/>
-      <c r="D10" s="32"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
     </row>
@@ -19600,7 +20342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet83"/>
   <dimension ref="A1:G16"/>
@@ -19748,46 +20490,46 @@
     </row>
     <row r="8" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="21"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="21"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="32"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="32"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="32"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="32"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
     </row>
@@ -19805,7 +20547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet84"/>
   <dimension ref="A1:G18"/>
@@ -19991,46 +20733,46 @@
     </row>
     <row r="10" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="20"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="20"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="32"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="32"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="32"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="32"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
     </row>
     <row r="17" spans="2:4" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="32"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
     </row>
     <row r="18" spans="2:4" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B18" s="32"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
     </row>
@@ -20048,7 +20790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet85"/>
   <dimension ref="A1:H14"/>
@@ -20216,414 +20958,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet86"/>
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-    </row>
-    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="B12" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="B13" s="36"/>
-      <c r="C13" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="36"/>
-    </row>
-    <row r="14" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="36"/>
-      <c r="C14" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="37"/>
-    </row>
-    <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36"/>
-      <c r="C15" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="37"/>
-      <c r="C16" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="37"/>
-      <c r="C18" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="B17:B18"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet87"/>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/management/周报-2018.xlsx
+++ b/management/周报-2018.xlsx
@@ -13,117 +13,118 @@
   </bookViews>
   <sheets>
     <sheet name="CornJob项目计划" sheetId="5" r:id="rId1"/>
-    <sheet name="20181113" sheetId="112" r:id="rId2"/>
-    <sheet name="20181112" sheetId="111" r:id="rId3"/>
-    <sheet name="20181108" sheetId="110" r:id="rId4"/>
-    <sheet name="20181107" sheetId="109" r:id="rId5"/>
-    <sheet name="20181105" sheetId="108" r:id="rId6"/>
-    <sheet name="20181102（周报）" sheetId="107" r:id="rId7"/>
-    <sheet name="20181102" sheetId="106" r:id="rId8"/>
-    <sheet name="20181101" sheetId="105" r:id="rId9"/>
-    <sheet name="20181031" sheetId="104" r:id="rId10"/>
-    <sheet name="20181030" sheetId="103" r:id="rId11"/>
-    <sheet name="20181029" sheetId="102" r:id="rId12"/>
-    <sheet name="20181025" sheetId="101" r:id="rId13"/>
-    <sheet name="20181024" sheetId="100" r:id="rId14"/>
-    <sheet name="20181023" sheetId="99" r:id="rId15"/>
-    <sheet name="20181022" sheetId="98" r:id="rId16"/>
-    <sheet name="20181019（周报）" sheetId="97" r:id="rId17"/>
-    <sheet name="20181019" sheetId="96" r:id="rId18"/>
-    <sheet name="20181018" sheetId="95" r:id="rId19"/>
-    <sheet name="20181017" sheetId="94" r:id="rId20"/>
-    <sheet name="20181016" sheetId="93" r:id="rId21"/>
-    <sheet name="20181015" sheetId="92" r:id="rId22"/>
-    <sheet name="20181012（周报）" sheetId="91" r:id="rId23"/>
-    <sheet name="20181012" sheetId="90" r:id="rId24"/>
-    <sheet name="20181011" sheetId="89" r:id="rId25"/>
-    <sheet name="20181010" sheetId="88" r:id="rId26"/>
-    <sheet name="20181009" sheetId="87" r:id="rId27"/>
-    <sheet name="20181008" sheetId="86" r:id="rId28"/>
-    <sheet name="20180928（周报）" sheetId="80" r:id="rId29"/>
-    <sheet name="20180928" sheetId="84" r:id="rId30"/>
-    <sheet name="20180927" sheetId="83" r:id="rId31"/>
-    <sheet name="20180926" sheetId="82" r:id="rId32"/>
-    <sheet name="20180925" sheetId="81" r:id="rId33"/>
-    <sheet name="20180921（周报）" sheetId="85" r:id="rId34"/>
-    <sheet name="20180921" sheetId="79" r:id="rId35"/>
-    <sheet name="20180920" sheetId="78" r:id="rId36"/>
-    <sheet name="20180919" sheetId="77" r:id="rId37"/>
-    <sheet name="20180918" sheetId="76" r:id="rId38"/>
-    <sheet name="20180917" sheetId="75" r:id="rId39"/>
-    <sheet name="20180914（周报）" sheetId="74" r:id="rId40"/>
-    <sheet name="20180914" sheetId="73" r:id="rId41"/>
-    <sheet name="20180913" sheetId="71" r:id="rId42"/>
-    <sheet name="20180912" sheetId="72" r:id="rId43"/>
-    <sheet name="20180911" sheetId="70" r:id="rId44"/>
-    <sheet name="20180910" sheetId="69" r:id="rId45"/>
-    <sheet name="20180907（周报）" sheetId="68" r:id="rId46"/>
-    <sheet name="20180907" sheetId="67" r:id="rId47"/>
-    <sheet name="20180906" sheetId="66" r:id="rId48"/>
-    <sheet name="20180905" sheetId="65" r:id="rId49"/>
-    <sheet name="20180903" sheetId="64" r:id="rId50"/>
-    <sheet name="20180831（周报）" sheetId="63" r:id="rId51"/>
-    <sheet name="20180831" sheetId="62" r:id="rId52"/>
-    <sheet name="20180830" sheetId="61" r:id="rId53"/>
-    <sheet name="20180829" sheetId="60" r:id="rId54"/>
-    <sheet name="20180828" sheetId="59" r:id="rId55"/>
-    <sheet name="20180827" sheetId="58" r:id="rId56"/>
-    <sheet name="20180824（周报）" sheetId="57" r:id="rId57"/>
-    <sheet name="20180824" sheetId="56" r:id="rId58"/>
-    <sheet name="20180823" sheetId="55" r:id="rId59"/>
-    <sheet name="20180822" sheetId="54" r:id="rId60"/>
-    <sheet name="20180821" sheetId="53" r:id="rId61"/>
-    <sheet name="20180820" sheetId="52" r:id="rId62"/>
-    <sheet name="20180817（周报）" sheetId="51" r:id="rId63"/>
-    <sheet name="20180817" sheetId="50" r:id="rId64"/>
-    <sheet name="20180816" sheetId="49" r:id="rId65"/>
-    <sheet name="20180815" sheetId="48" r:id="rId66"/>
-    <sheet name="20180814" sheetId="47" r:id="rId67"/>
-    <sheet name="20180813" sheetId="46" r:id="rId68"/>
-    <sheet name="20180810（周报）" sheetId="45" r:id="rId69"/>
-    <sheet name="20180810" sheetId="44" r:id="rId70"/>
-    <sheet name="20180809" sheetId="43" r:id="rId71"/>
-    <sheet name="20180808" sheetId="42" r:id="rId72"/>
-    <sheet name="20180807" sheetId="41" r:id="rId73"/>
-    <sheet name="20180806" sheetId="40" r:id="rId74"/>
-    <sheet name="20180803（周报）" sheetId="39" r:id="rId75"/>
-    <sheet name="20180803" sheetId="38" r:id="rId76"/>
-    <sheet name="20180802" sheetId="37" r:id="rId77"/>
-    <sheet name="20180801" sheetId="36" r:id="rId78"/>
-    <sheet name="20180731" sheetId="35" r:id="rId79"/>
-    <sheet name="20180730" sheetId="34" r:id="rId80"/>
-    <sheet name="20180727(周报)" sheetId="33" r:id="rId81"/>
-    <sheet name="20180727" sheetId="32" r:id="rId82"/>
-    <sheet name="20180726" sheetId="31" r:id="rId83"/>
-    <sheet name="20180725" sheetId="30" r:id="rId84"/>
-    <sheet name="20180724" sheetId="29" r:id="rId85"/>
-    <sheet name="20180723" sheetId="28" r:id="rId86"/>
-    <sheet name="20180720(周报)" sheetId="27" r:id="rId87"/>
-    <sheet name="20180720" sheetId="26" r:id="rId88"/>
-    <sheet name="20180719" sheetId="25" r:id="rId89"/>
-    <sheet name="20180718" sheetId="23" r:id="rId90"/>
-    <sheet name="20180717" sheetId="22" r:id="rId91"/>
-    <sheet name="20180716" sheetId="21" r:id="rId92"/>
-    <sheet name="20180713(周报)" sheetId="24" r:id="rId93"/>
-    <sheet name="20180713" sheetId="20" r:id="rId94"/>
-    <sheet name="20180712" sheetId="19" r:id="rId95"/>
-    <sheet name="20180711" sheetId="18" r:id="rId96"/>
-    <sheet name="20180710" sheetId="17" r:id="rId97"/>
-    <sheet name="20180709" sheetId="16" r:id="rId98"/>
-    <sheet name="20180706(周报)" sheetId="15" r:id="rId99"/>
-    <sheet name="20180706" sheetId="14" r:id="rId100"/>
-    <sheet name="20180705" sheetId="13" r:id="rId101"/>
-    <sheet name="20180704" sheetId="12" r:id="rId102"/>
-    <sheet name="20180703" sheetId="11" r:id="rId103"/>
-    <sheet name="20180702" sheetId="10" r:id="rId104"/>
-    <sheet name="20180629" sheetId="9" r:id="rId105"/>
-    <sheet name="20180628" sheetId="8" r:id="rId106"/>
-    <sheet name="20180627" sheetId="7" r:id="rId107"/>
-    <sheet name="20180626" sheetId="6" r:id="rId108"/>
-    <sheet name="20180625" sheetId="3" r:id="rId109"/>
-    <sheet name="20180621" sheetId="2" r:id="rId110"/>
-    <sheet name="20180622" sheetId="1" r:id="rId111"/>
-    <sheet name="项目计划" sheetId="4" r:id="rId112"/>
+    <sheet name="20181114" sheetId="113" r:id="rId2"/>
+    <sheet name="20181113" sheetId="112" r:id="rId3"/>
+    <sheet name="20181112" sheetId="111" r:id="rId4"/>
+    <sheet name="20181108" sheetId="110" r:id="rId5"/>
+    <sheet name="20181107" sheetId="109" r:id="rId6"/>
+    <sheet name="20181105" sheetId="108" r:id="rId7"/>
+    <sheet name="20181102（周报）" sheetId="107" r:id="rId8"/>
+    <sheet name="20181102" sheetId="106" r:id="rId9"/>
+    <sheet name="20181101" sheetId="105" r:id="rId10"/>
+    <sheet name="20181031" sheetId="104" r:id="rId11"/>
+    <sheet name="20181030" sheetId="103" r:id="rId12"/>
+    <sheet name="20181029" sheetId="102" r:id="rId13"/>
+    <sheet name="20181025" sheetId="101" r:id="rId14"/>
+    <sheet name="20181024" sheetId="100" r:id="rId15"/>
+    <sheet name="20181023" sheetId="99" r:id="rId16"/>
+    <sheet name="20181022" sheetId="98" r:id="rId17"/>
+    <sheet name="20181019（周报）" sheetId="97" r:id="rId18"/>
+    <sheet name="20181019" sheetId="96" r:id="rId19"/>
+    <sheet name="20181018" sheetId="95" r:id="rId20"/>
+    <sheet name="20181017" sheetId="94" r:id="rId21"/>
+    <sheet name="20181016" sheetId="93" r:id="rId22"/>
+    <sheet name="20181015" sheetId="92" r:id="rId23"/>
+    <sheet name="20181012（周报）" sheetId="91" r:id="rId24"/>
+    <sheet name="20181012" sheetId="90" r:id="rId25"/>
+    <sheet name="20181011" sheetId="89" r:id="rId26"/>
+    <sheet name="20181010" sheetId="88" r:id="rId27"/>
+    <sheet name="20181009" sheetId="87" r:id="rId28"/>
+    <sheet name="20181008" sheetId="86" r:id="rId29"/>
+    <sheet name="20180928（周报）" sheetId="80" r:id="rId30"/>
+    <sheet name="20180928" sheetId="84" r:id="rId31"/>
+    <sheet name="20180927" sheetId="83" r:id="rId32"/>
+    <sheet name="20180926" sheetId="82" r:id="rId33"/>
+    <sheet name="20180925" sheetId="81" r:id="rId34"/>
+    <sheet name="20180921（周报）" sheetId="85" r:id="rId35"/>
+    <sheet name="20180921" sheetId="79" r:id="rId36"/>
+    <sheet name="20180920" sheetId="78" r:id="rId37"/>
+    <sheet name="20180919" sheetId="77" r:id="rId38"/>
+    <sheet name="20180918" sheetId="76" r:id="rId39"/>
+    <sheet name="20180917" sheetId="75" r:id="rId40"/>
+    <sheet name="20180914（周报）" sheetId="74" r:id="rId41"/>
+    <sheet name="20180914" sheetId="73" r:id="rId42"/>
+    <sheet name="20180913" sheetId="71" r:id="rId43"/>
+    <sheet name="20180912" sheetId="72" r:id="rId44"/>
+    <sheet name="20180911" sheetId="70" r:id="rId45"/>
+    <sheet name="20180910" sheetId="69" r:id="rId46"/>
+    <sheet name="20180907（周报）" sheetId="68" r:id="rId47"/>
+    <sheet name="20180907" sheetId="67" r:id="rId48"/>
+    <sheet name="20180906" sheetId="66" r:id="rId49"/>
+    <sheet name="20180905" sheetId="65" r:id="rId50"/>
+    <sheet name="20180903" sheetId="64" r:id="rId51"/>
+    <sheet name="20180831（周报）" sheetId="63" r:id="rId52"/>
+    <sheet name="20180831" sheetId="62" r:id="rId53"/>
+    <sheet name="20180830" sheetId="61" r:id="rId54"/>
+    <sheet name="20180829" sheetId="60" r:id="rId55"/>
+    <sheet name="20180828" sheetId="59" r:id="rId56"/>
+    <sheet name="20180827" sheetId="58" r:id="rId57"/>
+    <sheet name="20180824（周报）" sheetId="57" r:id="rId58"/>
+    <sheet name="20180824" sheetId="56" r:id="rId59"/>
+    <sheet name="20180823" sheetId="55" r:id="rId60"/>
+    <sheet name="20180822" sheetId="54" r:id="rId61"/>
+    <sheet name="20180821" sheetId="53" r:id="rId62"/>
+    <sheet name="20180820" sheetId="52" r:id="rId63"/>
+    <sheet name="20180817（周报）" sheetId="51" r:id="rId64"/>
+    <sheet name="20180817" sheetId="50" r:id="rId65"/>
+    <sheet name="20180816" sheetId="49" r:id="rId66"/>
+    <sheet name="20180815" sheetId="48" r:id="rId67"/>
+    <sheet name="20180814" sheetId="47" r:id="rId68"/>
+    <sheet name="20180813" sheetId="46" r:id="rId69"/>
+    <sheet name="20180810（周报）" sheetId="45" r:id="rId70"/>
+    <sheet name="20180810" sheetId="44" r:id="rId71"/>
+    <sheet name="20180809" sheetId="43" r:id="rId72"/>
+    <sheet name="20180808" sheetId="42" r:id="rId73"/>
+    <sheet name="20180807" sheetId="41" r:id="rId74"/>
+    <sheet name="20180806" sheetId="40" r:id="rId75"/>
+    <sheet name="20180803（周报）" sheetId="39" r:id="rId76"/>
+    <sheet name="20180803" sheetId="38" r:id="rId77"/>
+    <sheet name="20180802" sheetId="37" r:id="rId78"/>
+    <sheet name="20180801" sheetId="36" r:id="rId79"/>
+    <sheet name="20180731" sheetId="35" r:id="rId80"/>
+    <sheet name="20180730" sheetId="34" r:id="rId81"/>
+    <sheet name="20180727(周报)" sheetId="33" r:id="rId82"/>
+    <sheet name="20180727" sheetId="32" r:id="rId83"/>
+    <sheet name="20180726" sheetId="31" r:id="rId84"/>
+    <sheet name="20180725" sheetId="30" r:id="rId85"/>
+    <sheet name="20180724" sheetId="29" r:id="rId86"/>
+    <sheet name="20180723" sheetId="28" r:id="rId87"/>
+    <sheet name="20180720(周报)" sheetId="27" r:id="rId88"/>
+    <sheet name="20180720" sheetId="26" r:id="rId89"/>
+    <sheet name="20180719" sheetId="25" r:id="rId90"/>
+    <sheet name="20180718" sheetId="23" r:id="rId91"/>
+    <sheet name="20180717" sheetId="22" r:id="rId92"/>
+    <sheet name="20180716" sheetId="21" r:id="rId93"/>
+    <sheet name="20180713(周报)" sheetId="24" r:id="rId94"/>
+    <sheet name="20180713" sheetId="20" r:id="rId95"/>
+    <sheet name="20180712" sheetId="19" r:id="rId96"/>
+    <sheet name="20180711" sheetId="18" r:id="rId97"/>
+    <sheet name="20180710" sheetId="17" r:id="rId98"/>
+    <sheet name="20180709" sheetId="16" r:id="rId99"/>
+    <sheet name="20180706(周报)" sheetId="15" r:id="rId100"/>
+    <sheet name="20180706" sheetId="14" r:id="rId101"/>
+    <sheet name="20180705" sheetId="13" r:id="rId102"/>
+    <sheet name="20180704" sheetId="12" r:id="rId103"/>
+    <sheet name="20180703" sheetId="11" r:id="rId104"/>
+    <sheet name="20180702" sheetId="10" r:id="rId105"/>
+    <sheet name="20180629" sheetId="9" r:id="rId106"/>
+    <sheet name="20180628" sheetId="8" r:id="rId107"/>
+    <sheet name="20180627" sheetId="7" r:id="rId108"/>
+    <sheet name="20180626" sheetId="6" r:id="rId109"/>
+    <sheet name="20180625" sheetId="3" r:id="rId110"/>
+    <sheet name="20180621" sheetId="2" r:id="rId111"/>
+    <sheet name="20180622" sheetId="1" r:id="rId112"/>
+    <sheet name="项目计划" sheetId="4" r:id="rId113"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -135,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="604">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2513,6 +2514,14 @@
   </si>
   <si>
     <t>开发需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新产品配置,产品配置变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新产品配置,产品配置变更,促销配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3648,7 +3657,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3691,17 +3700,17 @@
         <v>311</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>557</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="4">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -3719,7 +3728,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="4">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>571</v>
@@ -3793,6 +3802,176 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet85"/>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>2</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
+        <v>3</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
+        <v>5</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet86"/>
   <dimension ref="A1:G18"/>
@@ -4072,7 +4251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet87"/>
   <dimension ref="A1:G5"/>
@@ -4202,7 +4381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet88"/>
   <dimension ref="A1:G6"/>
@@ -4355,7 +4534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet89"/>
   <dimension ref="A1:G6"/>
@@ -4508,7 +4687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet90"/>
   <dimension ref="A1:G6"/>
@@ -4661,7 +4840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet91"/>
   <dimension ref="A1:G3"/>
@@ -4753,7 +4932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet92"/>
   <dimension ref="A1:G6"/>
@@ -4908,7 +5087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet93"/>
   <dimension ref="A1:G6"/>
@@ -5061,7 +5240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet94"/>
   <dimension ref="A1:G5"/>
@@ -5191,7 +5370,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet95"/>
   <dimension ref="A1:G5"/>
@@ -5319,156 +5647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet96"/>
   <dimension ref="A1:G8"/>
@@ -5646,7 +5825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet97"/>
   <dimension ref="A1:G7"/>
@@ -5812,7 +5991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet98"/>
   <dimension ref="A1"/>
@@ -5833,6 +6012,155 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -5977,7 +6305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet100"/>
   <dimension ref="A1:G7"/>
@@ -6127,7 +6455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet101"/>
   <dimension ref="A1:G7"/>
@@ -6277,7 +6605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet99"/>
   <dimension ref="A1:G7"/>
@@ -6427,7 +6755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G7"/>
@@ -6577,7 +6905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H13"/>
@@ -6731,7 +7059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G8"/>
@@ -6904,7 +7232,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>603</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>7</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G8"/>
@@ -7075,156 +7531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>596</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>1</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="33">
-        <v>2</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G7"/>
@@ -7374,7 +7681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G7"/>
@@ -7526,7 +7833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G7"/>
@@ -7676,7 +7983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H12"/>
@@ -7811,7 +8118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G7"/>
@@ -7961,7 +8268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G8"/>
@@ -8132,7 +8439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G7"/>
@@ -8282,7 +8589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G7"/>
@@ -8434,7 +8741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G7"/>
@@ -8574,155 +8881,6 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>509</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="25"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
-        <v>1</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>2</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
-        <v>3</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
-        <v>4</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>169</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8779,20 +8937,20 @@
         <v>311</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>591</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="33">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -8807,31 +8965,31 @@
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>594</v>
+        <v>345</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="33">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>595</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -8881,6 +9039,155 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="25"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>2</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
+        <v>3</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G7"/>
@@ -9028,7 +9335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:G7"/>
@@ -9178,7 +9485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:G8"/>
@@ -9349,7 +9656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:G9"/>
@@ -9543,7 +9850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H13"/>
@@ -9692,7 +9999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:G8"/>
@@ -9865,7 +10172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:G8"/>
@@ -10038,7 +10345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:G10"/>
@@ -10247,7 +10554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:G9"/>
@@ -10437,7 +10744,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>2</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>4</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:G8"/>
@@ -10610,135 +11066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>590</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>4</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H15"/>
@@ -10913,7 +11241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:G7"/>
@@ -11065,7 +11393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:G7"/>
@@ -11219,7 +11547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:G7"/>
@@ -11371,7 +11699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:G7"/>
@@ -11523,7 +11851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:G9"/>
@@ -11715,7 +12043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H11"/>
@@ -11841,7 +12169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:G8"/>
@@ -12016,7 +12344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:G7"/>
@@ -12166,7 +12494,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>4</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:G7"/>
@@ -12316,156 +12772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:G7"/>
@@ -12617,7 +12924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H13"/>
@@ -12760,7 +13067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:G9"/>
@@ -12950,7 +13257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:G8"/>
@@ -13123,7 +13430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:G7"/>
@@ -13273,7 +13580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:G9"/>
@@ -13463,7 +13770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:G8"/>
@@ -13634,7 +13941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:H13"/>
@@ -13781,7 +14088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:G8"/>
@@ -13950,7 +14257,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:G7"/>
@@ -14102,135 +14558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>583</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:G7"/>
@@ -14384,7 +14712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:G7"/>
@@ -14538,7 +14866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:G8"/>
@@ -14717,7 +15045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H13"/>
@@ -14859,7 +15187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:G6"/>
@@ -14994,7 +15322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:G6"/>
@@ -15149,7 +15477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:G6"/>
@@ -15302,7 +15630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:G7"/>
@@ -15476,7 +15804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:G6"/>
@@ -15627,7 +15955,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H14"/>
@@ -15783,132 +16239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="17">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="17">
-        <v>2</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
-        <v>3</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>4</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:G5"/>
@@ -16040,7 +16371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:G7"/>
@@ -16216,7 +16547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:G6"/>
@@ -16371,7 +16702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:G6"/>
@@ -16526,7 +16857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:G6"/>
@@ -16681,7 +17012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H14"/>
@@ -16831,7 +17162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:G5"/>
@@ -16963,7 +17294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:G5"/>
@@ -17091,7 +17422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:G6"/>
@@ -17240,7 +17571,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:G7"/>
@@ -17410,135 +17866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:G7"/>
@@ -17708,7 +18036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H14"/>
@@ -17852,7 +18180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:G7"/>
@@ -18022,7 +18350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:G5"/>
@@ -18150,7 +18478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:G5"/>
@@ -18278,7 +18606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:G5"/>
@@ -18406,7 +18734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:G6"/>
@@ -18557,7 +18885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet73"/>
   <dimension ref="A1:H13"/>
@@ -18705,7 +19033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet74"/>
   <dimension ref="A1:G6"/>
@@ -18856,7 +19184,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet75"/>
   <dimension ref="A1:G5"/>
@@ -18984,156 +19440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>575</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet76"/>
   <dimension ref="A1:G9"/>
@@ -19347,7 +19654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet77"/>
   <dimension ref="A1:G7"/>
@@ -19519,7 +19826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet78"/>
   <dimension ref="A1:G8"/>
@@ -19712,7 +20019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet79"/>
   <dimension ref="A1:H15"/>
@@ -19885,7 +20192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet80"/>
   <dimension ref="A1:G8"/>
@@ -20072,7 +20379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet81"/>
   <dimension ref="A1:G4"/>
@@ -20181,7 +20488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet82"/>
   <dimension ref="A1:G14"/>
@@ -20342,7 +20649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet83"/>
   <dimension ref="A1:G16"/>
@@ -20547,7 +20854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet84"/>
   <dimension ref="A1:G18"/>
@@ -20788,174 +21095,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet85"/>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4.375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="17">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
-        <v>1</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>2</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
-        <v>3</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
-        <v>4</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="17">
-        <v>5</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/management/周报-2018.xlsx
+++ b/management/周报-2018.xlsx
@@ -13,118 +13,122 @@
   </bookViews>
   <sheets>
     <sheet name="CornJob项目计划" sheetId="5" r:id="rId1"/>
-    <sheet name="20181114" sheetId="113" r:id="rId2"/>
-    <sheet name="20181113" sheetId="112" r:id="rId3"/>
-    <sheet name="20181112" sheetId="111" r:id="rId4"/>
-    <sheet name="20181108" sheetId="110" r:id="rId5"/>
-    <sheet name="20181107" sheetId="109" r:id="rId6"/>
-    <sheet name="20181105" sheetId="108" r:id="rId7"/>
-    <sheet name="20181102（周报）" sheetId="107" r:id="rId8"/>
-    <sheet name="20181102" sheetId="106" r:id="rId9"/>
-    <sheet name="20181101" sheetId="105" r:id="rId10"/>
-    <sheet name="20181031" sheetId="104" r:id="rId11"/>
-    <sheet name="20181030" sheetId="103" r:id="rId12"/>
-    <sheet name="20181029" sheetId="102" r:id="rId13"/>
-    <sheet name="20181025" sheetId="101" r:id="rId14"/>
-    <sheet name="20181024" sheetId="100" r:id="rId15"/>
-    <sheet name="20181023" sheetId="99" r:id="rId16"/>
-    <sheet name="20181022" sheetId="98" r:id="rId17"/>
-    <sheet name="20181019（周报）" sheetId="97" r:id="rId18"/>
-    <sheet name="20181019" sheetId="96" r:id="rId19"/>
-    <sheet name="20181018" sheetId="95" r:id="rId20"/>
-    <sheet name="20181017" sheetId="94" r:id="rId21"/>
-    <sheet name="20181016" sheetId="93" r:id="rId22"/>
-    <sheet name="20181015" sheetId="92" r:id="rId23"/>
-    <sheet name="20181012（周报）" sheetId="91" r:id="rId24"/>
-    <sheet name="20181012" sheetId="90" r:id="rId25"/>
-    <sheet name="20181011" sheetId="89" r:id="rId26"/>
-    <sheet name="20181010" sheetId="88" r:id="rId27"/>
-    <sheet name="20181009" sheetId="87" r:id="rId28"/>
-    <sheet name="20181008" sheetId="86" r:id="rId29"/>
-    <sheet name="20180928（周报）" sheetId="80" r:id="rId30"/>
-    <sheet name="20180928" sheetId="84" r:id="rId31"/>
-    <sheet name="20180927" sheetId="83" r:id="rId32"/>
-    <sheet name="20180926" sheetId="82" r:id="rId33"/>
-    <sheet name="20180925" sheetId="81" r:id="rId34"/>
-    <sheet name="20180921（周报）" sheetId="85" r:id="rId35"/>
-    <sheet name="20180921" sheetId="79" r:id="rId36"/>
-    <sheet name="20180920" sheetId="78" r:id="rId37"/>
-    <sheet name="20180919" sheetId="77" r:id="rId38"/>
-    <sheet name="20180918" sheetId="76" r:id="rId39"/>
-    <sheet name="20180917" sheetId="75" r:id="rId40"/>
-    <sheet name="20180914（周报）" sheetId="74" r:id="rId41"/>
-    <sheet name="20180914" sheetId="73" r:id="rId42"/>
-    <sheet name="20180913" sheetId="71" r:id="rId43"/>
-    <sheet name="20180912" sheetId="72" r:id="rId44"/>
-    <sheet name="20180911" sheetId="70" r:id="rId45"/>
-    <sheet name="20180910" sheetId="69" r:id="rId46"/>
-    <sheet name="20180907（周报）" sheetId="68" r:id="rId47"/>
-    <sheet name="20180907" sheetId="67" r:id="rId48"/>
-    <sheet name="20180906" sheetId="66" r:id="rId49"/>
-    <sheet name="20180905" sheetId="65" r:id="rId50"/>
-    <sheet name="20180903" sheetId="64" r:id="rId51"/>
-    <sheet name="20180831（周报）" sheetId="63" r:id="rId52"/>
-    <sheet name="20180831" sheetId="62" r:id="rId53"/>
-    <sheet name="20180830" sheetId="61" r:id="rId54"/>
-    <sheet name="20180829" sheetId="60" r:id="rId55"/>
-    <sheet name="20180828" sheetId="59" r:id="rId56"/>
-    <sheet name="20180827" sheetId="58" r:id="rId57"/>
-    <sheet name="20180824（周报）" sheetId="57" r:id="rId58"/>
-    <sheet name="20180824" sheetId="56" r:id="rId59"/>
-    <sheet name="20180823" sheetId="55" r:id="rId60"/>
-    <sheet name="20180822" sheetId="54" r:id="rId61"/>
-    <sheet name="20180821" sheetId="53" r:id="rId62"/>
-    <sheet name="20180820" sheetId="52" r:id="rId63"/>
-    <sheet name="20180817（周报）" sheetId="51" r:id="rId64"/>
-    <sheet name="20180817" sheetId="50" r:id="rId65"/>
-    <sheet name="20180816" sheetId="49" r:id="rId66"/>
-    <sheet name="20180815" sheetId="48" r:id="rId67"/>
-    <sheet name="20180814" sheetId="47" r:id="rId68"/>
-    <sheet name="20180813" sheetId="46" r:id="rId69"/>
-    <sheet name="20180810（周报）" sheetId="45" r:id="rId70"/>
-    <sheet name="20180810" sheetId="44" r:id="rId71"/>
-    <sheet name="20180809" sheetId="43" r:id="rId72"/>
-    <sheet name="20180808" sheetId="42" r:id="rId73"/>
-    <sheet name="20180807" sheetId="41" r:id="rId74"/>
-    <sheet name="20180806" sheetId="40" r:id="rId75"/>
-    <sheet name="20180803（周报）" sheetId="39" r:id="rId76"/>
-    <sheet name="20180803" sheetId="38" r:id="rId77"/>
-    <sheet name="20180802" sheetId="37" r:id="rId78"/>
-    <sheet name="20180801" sheetId="36" r:id="rId79"/>
-    <sheet name="20180731" sheetId="35" r:id="rId80"/>
-    <sheet name="20180730" sheetId="34" r:id="rId81"/>
-    <sheet name="20180727(周报)" sheetId="33" r:id="rId82"/>
-    <sheet name="20180727" sheetId="32" r:id="rId83"/>
-    <sheet name="20180726" sheetId="31" r:id="rId84"/>
-    <sheet name="20180725" sheetId="30" r:id="rId85"/>
-    <sheet name="20180724" sheetId="29" r:id="rId86"/>
-    <sheet name="20180723" sheetId="28" r:id="rId87"/>
-    <sheet name="20180720(周报)" sheetId="27" r:id="rId88"/>
-    <sheet name="20180720" sheetId="26" r:id="rId89"/>
-    <sheet name="20180719" sheetId="25" r:id="rId90"/>
-    <sheet name="20180718" sheetId="23" r:id="rId91"/>
-    <sheet name="20180717" sheetId="22" r:id="rId92"/>
-    <sheet name="20180716" sheetId="21" r:id="rId93"/>
-    <sheet name="20180713(周报)" sheetId="24" r:id="rId94"/>
-    <sheet name="20180713" sheetId="20" r:id="rId95"/>
-    <sheet name="20180712" sheetId="19" r:id="rId96"/>
-    <sheet name="20180711" sheetId="18" r:id="rId97"/>
-    <sheet name="20180710" sheetId="17" r:id="rId98"/>
-    <sheet name="20180709" sheetId="16" r:id="rId99"/>
-    <sheet name="20180706(周报)" sheetId="15" r:id="rId100"/>
-    <sheet name="20180706" sheetId="14" r:id="rId101"/>
-    <sheet name="20180705" sheetId="13" r:id="rId102"/>
-    <sheet name="20180704" sheetId="12" r:id="rId103"/>
-    <sheet name="20180703" sheetId="11" r:id="rId104"/>
-    <sheet name="20180702" sheetId="10" r:id="rId105"/>
-    <sheet name="20180629" sheetId="9" r:id="rId106"/>
-    <sheet name="20180628" sheetId="8" r:id="rId107"/>
-    <sheet name="20180627" sheetId="7" r:id="rId108"/>
-    <sheet name="20180626" sheetId="6" r:id="rId109"/>
-    <sheet name="20180625" sheetId="3" r:id="rId110"/>
-    <sheet name="20180621" sheetId="2" r:id="rId111"/>
-    <sheet name="20180622" sheetId="1" r:id="rId112"/>
-    <sheet name="项目计划" sheetId="4" r:id="rId113"/>
+    <sheet name="20181119" sheetId="117" r:id="rId2"/>
+    <sheet name="20181116（周报）" sheetId="116" r:id="rId3"/>
+    <sheet name="20181116" sheetId="115" r:id="rId4"/>
+    <sheet name="20181115" sheetId="114" r:id="rId5"/>
+    <sheet name="20181114" sheetId="113" r:id="rId6"/>
+    <sheet name="20181113" sheetId="112" r:id="rId7"/>
+    <sheet name="20181112" sheetId="111" r:id="rId8"/>
+    <sheet name="20181108" sheetId="110" r:id="rId9"/>
+    <sheet name="20181107" sheetId="109" r:id="rId10"/>
+    <sheet name="20181105" sheetId="108" r:id="rId11"/>
+    <sheet name="20181102（周报）" sheetId="107" r:id="rId12"/>
+    <sheet name="20181102" sheetId="106" r:id="rId13"/>
+    <sheet name="20181101" sheetId="105" r:id="rId14"/>
+    <sheet name="20181031" sheetId="104" r:id="rId15"/>
+    <sheet name="20181030" sheetId="103" r:id="rId16"/>
+    <sheet name="20181029" sheetId="102" r:id="rId17"/>
+    <sheet name="20181025" sheetId="101" r:id="rId18"/>
+    <sheet name="20181024" sheetId="100" r:id="rId19"/>
+    <sheet name="20181023" sheetId="99" r:id="rId20"/>
+    <sheet name="20181022" sheetId="98" r:id="rId21"/>
+    <sheet name="20181019（周报）" sheetId="97" r:id="rId22"/>
+    <sheet name="20181019" sheetId="96" r:id="rId23"/>
+    <sheet name="20181018" sheetId="95" r:id="rId24"/>
+    <sheet name="20181017" sheetId="94" r:id="rId25"/>
+    <sheet name="20181016" sheetId="93" r:id="rId26"/>
+    <sheet name="20181015" sheetId="92" r:id="rId27"/>
+    <sheet name="20181012（周报）" sheetId="91" r:id="rId28"/>
+    <sheet name="20181012" sheetId="90" r:id="rId29"/>
+    <sheet name="20181011" sheetId="89" r:id="rId30"/>
+    <sheet name="20181010" sheetId="88" r:id="rId31"/>
+    <sheet name="20181009" sheetId="87" r:id="rId32"/>
+    <sheet name="20181008" sheetId="86" r:id="rId33"/>
+    <sheet name="20180928（周报）" sheetId="80" r:id="rId34"/>
+    <sheet name="20180928" sheetId="84" r:id="rId35"/>
+    <sheet name="20180927" sheetId="83" r:id="rId36"/>
+    <sheet name="20180926" sheetId="82" r:id="rId37"/>
+    <sheet name="20180925" sheetId="81" r:id="rId38"/>
+    <sheet name="20180921（周报）" sheetId="85" r:id="rId39"/>
+    <sheet name="20180921" sheetId="79" r:id="rId40"/>
+    <sheet name="20180920" sheetId="78" r:id="rId41"/>
+    <sheet name="20180919" sheetId="77" r:id="rId42"/>
+    <sheet name="20180918" sheetId="76" r:id="rId43"/>
+    <sheet name="20180917" sheetId="75" r:id="rId44"/>
+    <sheet name="20180914（周报）" sheetId="74" r:id="rId45"/>
+    <sheet name="20180914" sheetId="73" r:id="rId46"/>
+    <sheet name="20180913" sheetId="71" r:id="rId47"/>
+    <sheet name="20180912" sheetId="72" r:id="rId48"/>
+    <sheet name="20180911" sheetId="70" r:id="rId49"/>
+    <sheet name="20180910" sheetId="69" r:id="rId50"/>
+    <sheet name="20180907（周报）" sheetId="68" r:id="rId51"/>
+    <sheet name="20180907" sheetId="67" r:id="rId52"/>
+    <sheet name="20180906" sheetId="66" r:id="rId53"/>
+    <sheet name="20180905" sheetId="65" r:id="rId54"/>
+    <sheet name="20180903" sheetId="64" r:id="rId55"/>
+    <sheet name="20180831（周报）" sheetId="63" r:id="rId56"/>
+    <sheet name="20180831" sheetId="62" r:id="rId57"/>
+    <sheet name="20180830" sheetId="61" r:id="rId58"/>
+    <sheet name="20180829" sheetId="60" r:id="rId59"/>
+    <sheet name="20180828" sheetId="59" r:id="rId60"/>
+    <sheet name="20180827" sheetId="58" r:id="rId61"/>
+    <sheet name="20180824（周报）" sheetId="57" r:id="rId62"/>
+    <sheet name="20180824" sheetId="56" r:id="rId63"/>
+    <sheet name="20180823" sheetId="55" r:id="rId64"/>
+    <sheet name="20180822" sheetId="54" r:id="rId65"/>
+    <sheet name="20180821" sheetId="53" r:id="rId66"/>
+    <sheet name="20180820" sheetId="52" r:id="rId67"/>
+    <sheet name="20180817（周报）" sheetId="51" r:id="rId68"/>
+    <sheet name="20180817" sheetId="50" r:id="rId69"/>
+    <sheet name="20180816" sheetId="49" r:id="rId70"/>
+    <sheet name="20180815" sheetId="48" r:id="rId71"/>
+    <sheet name="20180814" sheetId="47" r:id="rId72"/>
+    <sheet name="20180813" sheetId="46" r:id="rId73"/>
+    <sheet name="20180810（周报）" sheetId="45" r:id="rId74"/>
+    <sheet name="20180810" sheetId="44" r:id="rId75"/>
+    <sheet name="20180809" sheetId="43" r:id="rId76"/>
+    <sheet name="20180808" sheetId="42" r:id="rId77"/>
+    <sheet name="20180807" sheetId="41" r:id="rId78"/>
+    <sheet name="20180806" sheetId="40" r:id="rId79"/>
+    <sheet name="20180803（周报）" sheetId="39" r:id="rId80"/>
+    <sheet name="20180803" sheetId="38" r:id="rId81"/>
+    <sheet name="20180802" sheetId="37" r:id="rId82"/>
+    <sheet name="20180801" sheetId="36" r:id="rId83"/>
+    <sheet name="20180731" sheetId="35" r:id="rId84"/>
+    <sheet name="20180730" sheetId="34" r:id="rId85"/>
+    <sheet name="20180727(周报)" sheetId="33" r:id="rId86"/>
+    <sheet name="20180727" sheetId="32" r:id="rId87"/>
+    <sheet name="20180726" sheetId="31" r:id="rId88"/>
+    <sheet name="20180725" sheetId="30" r:id="rId89"/>
+    <sheet name="20180724" sheetId="29" r:id="rId90"/>
+    <sheet name="20180723" sheetId="28" r:id="rId91"/>
+    <sheet name="20180720(周报)" sheetId="27" r:id="rId92"/>
+    <sheet name="20180720" sheetId="26" r:id="rId93"/>
+    <sheet name="20180719" sheetId="25" r:id="rId94"/>
+    <sheet name="20180718" sheetId="23" r:id="rId95"/>
+    <sheet name="20180717" sheetId="22" r:id="rId96"/>
+    <sheet name="20180716" sheetId="21" r:id="rId97"/>
+    <sheet name="20180713(周报)" sheetId="24" r:id="rId98"/>
+    <sheet name="20180713" sheetId="20" r:id="rId99"/>
+    <sheet name="20180712" sheetId="19" r:id="rId100"/>
+    <sheet name="20180711" sheetId="18" r:id="rId101"/>
+    <sheet name="20180710" sheetId="17" r:id="rId102"/>
+    <sheet name="20180709" sheetId="16" r:id="rId103"/>
+    <sheet name="20180706(周报)" sheetId="15" r:id="rId104"/>
+    <sheet name="20180706" sheetId="14" r:id="rId105"/>
+    <sheet name="20180705" sheetId="13" r:id="rId106"/>
+    <sheet name="20180704" sheetId="12" r:id="rId107"/>
+    <sheet name="20180703" sheetId="11" r:id="rId108"/>
+    <sheet name="20180702" sheetId="10" r:id="rId109"/>
+    <sheet name="20180629" sheetId="9" r:id="rId110"/>
+    <sheet name="20180628" sheetId="8" r:id="rId111"/>
+    <sheet name="20180627" sheetId="7" r:id="rId112"/>
+    <sheet name="20180626" sheetId="6" r:id="rId113"/>
+    <sheet name="20180625" sheetId="3" r:id="rId114"/>
+    <sheet name="20180621" sheetId="2" r:id="rId115"/>
+    <sheet name="20180622" sheetId="1" r:id="rId116"/>
+    <sheet name="项目计划" sheetId="4" r:id="rId117"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -136,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="612">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2522,6 +2526,38 @@
   </si>
   <si>
     <t>新产品配置,产品配置变更,促销配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外购例行版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jacky Chen, Yvonne Gong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新产品配置,产品配置变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ashley Yiu, Piko Law</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHK11月15日新产品配置,促销配置，促销检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHK Hybris需求开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frankie Guan, Zhihua Huang，Jin Ling,Sannie Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benny Zhao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3692,7 +3728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3700,7 +3736,7 @@
         <v>311</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>557</v>
@@ -3710,10 +3746,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3728,10 +3764,10 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -3739,20 +3775,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>265</v>
+        <v>588</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>573</v>
+        <v>40</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>124</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -3802,6 +3838,724 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet81"/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet82"/>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="23"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+    </row>
+    <row r="7" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="23"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+    </row>
+    <row r="8" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="39"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="39"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="39"/>
+    </row>
+    <row r="10" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="39"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="39"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="39"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="39"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="39"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="B13:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet83"/>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="21"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+    </row>
+    <row r="9" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="21"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="39"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="39"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="39"/>
+    </row>
+    <row r="12" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="39"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="39"/>
+    </row>
+    <row r="13" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="39"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="39"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="39"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="39"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="B15:B16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet84"/>
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="20"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="20"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="39"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="39"/>
+    </row>
+    <row r="13" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="39"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="39"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="39"/>
+    </row>
+    <row r="15" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="39"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="39"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="2:4" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="39"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="2:4" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="39"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="B17:B18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet85"/>
   <dimension ref="A1:H14"/>
@@ -3971,7 +4725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet86"/>
   <dimension ref="A1:G18"/>
@@ -4251,7 +5005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet87"/>
   <dimension ref="A1:G5"/>
@@ -4381,7 +5135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet88"/>
   <dimension ref="A1:G6"/>
@@ -4534,7 +5288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet89"/>
   <dimension ref="A1:G6"/>
@@ -4687,7 +5441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet90"/>
   <dimension ref="A1:G6"/>
@@ -4840,7 +5594,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet91"/>
   <dimension ref="A1:G3"/>
@@ -4932,7 +5814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet92"/>
   <dimension ref="A1:G6"/>
@@ -5087,7 +5969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet93"/>
   <dimension ref="A1:G6"/>
@@ -5240,7 +6122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet94"/>
   <dimension ref="A1:G5"/>
@@ -5370,156 +6252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet95"/>
   <dimension ref="A1:G5"/>
@@ -5647,7 +6380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet96"/>
   <dimension ref="A1:G8"/>
@@ -5825,7 +6558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet97"/>
   <dimension ref="A1:G7"/>
@@ -5991,7 +6724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet98"/>
   <dimension ref="A1"/>
@@ -6008,6 +6741,259 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -6055,17 +7041,17 @@
         <v>311</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>557</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -6083,7 +7069,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="4">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>571</v>
@@ -6104,7 +7090,7 @@
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>124</v>
@@ -6156,7 +7142,305 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -6305,7 +7589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet100"/>
   <dimension ref="A1:G7"/>
@@ -6455,7 +7739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet101"/>
   <dimension ref="A1:G7"/>
@@ -6605,7 +7889,154 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
+        <v>4</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet99"/>
   <dimension ref="A1:G7"/>
@@ -6755,7 +8186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G7"/>
@@ -6905,7 +8336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H13"/>
@@ -7059,7 +8490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G8"/>
@@ -7232,135 +8663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="A1:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>603</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>7</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>1</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G8"/>
@@ -7531,7 +8834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G7"/>
@@ -7681,7 +8984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G7"/>
@@ -7833,7 +9136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G7"/>
@@ -7983,7 +9286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H12"/>
@@ -8118,7 +9421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G7"/>
@@ -8268,7 +9571,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>609</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G8"/>
@@ -8439,7 +9867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G7"/>
@@ -8589,7 +10017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G7"/>
@@ -8741,7 +10169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G7"/>
@@ -8889,156 +10317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>602</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>1</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="33">
-        <v>2</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H13"/>
@@ -9187,7 +10466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G7"/>
@@ -9335,7 +10614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:G7"/>
@@ -9485,7 +10764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:G8"/>
@@ -9656,7 +10935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:G9"/>
@@ -9850,7 +11129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H13"/>
@@ -9999,7 +11278,114 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>606</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="32">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:G8"/>
@@ -10172,7 +11558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:G8"/>
@@ -10345,7 +11731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:G10"/>
@@ -10554,7 +11940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:G9"/>
@@ -10744,156 +12130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>596</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>2</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>4</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:G8"/>
@@ -11066,7 +12303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H15"/>
@@ -11241,7 +12478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:G7"/>
@@ -11393,7 +12630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:G7"/>
@@ -11547,7 +12784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:G7"/>
@@ -11699,7 +12936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:G7"/>
@@ -11851,7 +13088,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>603</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>604</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
+        <v>2</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:G9"/>
@@ -12043,7 +13429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H11"/>
@@ -12169,7 +13555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:G8"/>
@@ -12344,7 +13730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:G7"/>
@@ -12494,135 +13880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>590</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>4</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:G7"/>
@@ -12772,7 +14030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:G7"/>
@@ -12924,7 +14182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H13"/>
@@ -13067,7 +14325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:G9"/>
@@ -13257,7 +14515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:G8"/>
@@ -13430,7 +14688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:G7"/>
@@ -13580,7 +14838,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>603</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>7</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:G9"/>
@@ -13770,7 +15156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:G8"/>
@@ -13941,7 +15327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:H13"/>
@@ -14088,7 +15474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:G8"/>
@@ -14257,156 +15643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:G7"/>
@@ -14558,7 +15795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:G7"/>
@@ -14712,7 +15949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:G7"/>
@@ -14866,7 +16103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:G8"/>
@@ -15045,7 +16282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H13"/>
@@ -15187,7 +16424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:G6"/>
@@ -15322,7 +16559,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
+        <v>2</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:G6"/>
@@ -15477,7 +16863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:G6"/>
@@ -15630,7 +17016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:G7"/>
@@ -15804,7 +17190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:G6"/>
@@ -15955,135 +17341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>583</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H14"/>
@@ -16239,7 +17497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:G5"/>
@@ -16371,7 +17629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:G7"/>
@@ -16547,7 +17805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:G6"/>
@@ -16702,7 +17960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:G6"/>
@@ -16857,7 +18115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:G6"/>
@@ -17012,7 +18270,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>2</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>4</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H14"/>
@@ -17162,7 +18569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:G5"/>
@@ -17294,7 +18701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:G5"/>
@@ -17422,7 +18829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:G6"/>
@@ -17571,132 +18978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="17">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="17">
-        <v>2</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
-        <v>3</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>4</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:G7"/>
@@ -17866,7 +19148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:G7"/>
@@ -18036,7 +19318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H14"/>
@@ -18180,7 +19462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:G7"/>
@@ -18350,7 +19632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:G5"/>
@@ -18478,7 +19760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:G5"/>
@@ -18606,7 +19888,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>4</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:G5"/>
@@ -18734,7 +20144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:G6"/>
@@ -18885,7 +20295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet73"/>
   <dimension ref="A1:H13"/>
@@ -19033,7 +20443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet74"/>
   <dimension ref="A1:G6"/>
@@ -19184,135 +20594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet75"/>
   <dimension ref="A1:G5"/>
@@ -19440,7 +20722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet76"/>
   <dimension ref="A1:G9"/>
@@ -19654,7 +20936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet77"/>
   <dimension ref="A1:G7"/>
@@ -19826,7 +21108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet78"/>
   <dimension ref="A1:G8"/>
@@ -20019,7 +21301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet79"/>
   <dimension ref="A1:H15"/>
@@ -20192,7 +21474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet80"/>
   <dimension ref="A1:G8"/>
@@ -20377,722 +21659,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet81"/>
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet82"/>
-  <dimension ref="A1:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="23"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-    </row>
-    <row r="7" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="23"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-    </row>
-    <row r="8" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="39"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="39"/>
-    </row>
-    <row r="9" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="39"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="39"/>
-    </row>
-    <row r="10" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="39"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="39"/>
-    </row>
-    <row r="11" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="39"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="39"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-    </row>
-    <row r="13" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="39"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="39"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="B13:B14"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet83"/>
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="4">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="21"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-    </row>
-    <row r="9" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="21"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-    </row>
-    <row r="10" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="39"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="39"/>
-    </row>
-    <row r="11" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="39"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="39"/>
-    </row>
-    <row r="12" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="39"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="39"/>
-    </row>
-    <row r="13" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="39"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="39"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="39"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="39"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B15:B16"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet84"/>
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="20"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-    </row>
-    <row r="11" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="20"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-    </row>
-    <row r="12" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="39"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="39"/>
-    </row>
-    <row r="13" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="39"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="39"/>
-    </row>
-    <row r="14" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="39"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="39"/>
-    </row>
-    <row r="15" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="39"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="39"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="2:4" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="39"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="2:4" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B18" s="39"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="B17:B18"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/management/周报-2018.xlsx
+++ b/management/周报-2018.xlsx
@@ -1,134 +1,136 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CN085258\git\ahkamanet\management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cn085258\git\ahkamanet\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2DECC4-72D1-4A39-82BC-C6E08F8CC395}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CornJob项目计划" sheetId="5" r:id="rId1"/>
-    <sheet name="20181119" sheetId="117" r:id="rId2"/>
-    <sheet name="20181116（周报）" sheetId="116" r:id="rId3"/>
-    <sheet name="20181116" sheetId="115" r:id="rId4"/>
-    <sheet name="20181115" sheetId="114" r:id="rId5"/>
-    <sheet name="20181114" sheetId="113" r:id="rId6"/>
-    <sheet name="20181113" sheetId="112" r:id="rId7"/>
-    <sheet name="20181112" sheetId="111" r:id="rId8"/>
-    <sheet name="20181108" sheetId="110" r:id="rId9"/>
-    <sheet name="20181107" sheetId="109" r:id="rId10"/>
-    <sheet name="20181105" sheetId="108" r:id="rId11"/>
-    <sheet name="20181102（周报）" sheetId="107" r:id="rId12"/>
-    <sheet name="20181102" sheetId="106" r:id="rId13"/>
-    <sheet name="20181101" sheetId="105" r:id="rId14"/>
-    <sheet name="20181031" sheetId="104" r:id="rId15"/>
-    <sheet name="20181030" sheetId="103" r:id="rId16"/>
-    <sheet name="20181029" sheetId="102" r:id="rId17"/>
-    <sheet name="20181025" sheetId="101" r:id="rId18"/>
-    <sheet name="20181024" sheetId="100" r:id="rId19"/>
-    <sheet name="20181023" sheetId="99" r:id="rId20"/>
-    <sheet name="20181022" sheetId="98" r:id="rId21"/>
-    <sheet name="20181019（周报）" sheetId="97" r:id="rId22"/>
-    <sheet name="20181019" sheetId="96" r:id="rId23"/>
-    <sheet name="20181018" sheetId="95" r:id="rId24"/>
-    <sheet name="20181017" sheetId="94" r:id="rId25"/>
-    <sheet name="20181016" sheetId="93" r:id="rId26"/>
-    <sheet name="20181015" sheetId="92" r:id="rId27"/>
-    <sheet name="20181012（周报）" sheetId="91" r:id="rId28"/>
-    <sheet name="20181012" sheetId="90" r:id="rId29"/>
-    <sheet name="20181011" sheetId="89" r:id="rId30"/>
-    <sheet name="20181010" sheetId="88" r:id="rId31"/>
-    <sheet name="20181009" sheetId="87" r:id="rId32"/>
-    <sheet name="20181008" sheetId="86" r:id="rId33"/>
-    <sheet name="20180928（周报）" sheetId="80" r:id="rId34"/>
-    <sheet name="20180928" sheetId="84" r:id="rId35"/>
-    <sheet name="20180927" sheetId="83" r:id="rId36"/>
-    <sheet name="20180926" sheetId="82" r:id="rId37"/>
-    <sheet name="20180925" sheetId="81" r:id="rId38"/>
-    <sheet name="20180921（周报）" sheetId="85" r:id="rId39"/>
-    <sheet name="20180921" sheetId="79" r:id="rId40"/>
-    <sheet name="20180920" sheetId="78" r:id="rId41"/>
-    <sheet name="20180919" sheetId="77" r:id="rId42"/>
-    <sheet name="20180918" sheetId="76" r:id="rId43"/>
-    <sheet name="20180917" sheetId="75" r:id="rId44"/>
-    <sheet name="20180914（周报）" sheetId="74" r:id="rId45"/>
-    <sheet name="20180914" sheetId="73" r:id="rId46"/>
-    <sheet name="20180913" sheetId="71" r:id="rId47"/>
-    <sheet name="20180912" sheetId="72" r:id="rId48"/>
-    <sheet name="20180911" sheetId="70" r:id="rId49"/>
-    <sheet name="20180910" sheetId="69" r:id="rId50"/>
-    <sheet name="20180907（周报）" sheetId="68" r:id="rId51"/>
-    <sheet name="20180907" sheetId="67" r:id="rId52"/>
-    <sheet name="20180906" sheetId="66" r:id="rId53"/>
-    <sheet name="20180905" sheetId="65" r:id="rId54"/>
-    <sheet name="20180903" sheetId="64" r:id="rId55"/>
-    <sheet name="20180831（周报）" sheetId="63" r:id="rId56"/>
-    <sheet name="20180831" sheetId="62" r:id="rId57"/>
-    <sheet name="20180830" sheetId="61" r:id="rId58"/>
-    <sheet name="20180829" sheetId="60" r:id="rId59"/>
-    <sheet name="20180828" sheetId="59" r:id="rId60"/>
-    <sheet name="20180827" sheetId="58" r:id="rId61"/>
-    <sheet name="20180824（周报）" sheetId="57" r:id="rId62"/>
-    <sheet name="20180824" sheetId="56" r:id="rId63"/>
-    <sheet name="20180823" sheetId="55" r:id="rId64"/>
-    <sheet name="20180822" sheetId="54" r:id="rId65"/>
-    <sheet name="20180821" sheetId="53" r:id="rId66"/>
-    <sheet name="20180820" sheetId="52" r:id="rId67"/>
-    <sheet name="20180817（周报）" sheetId="51" r:id="rId68"/>
-    <sheet name="20180817" sheetId="50" r:id="rId69"/>
-    <sheet name="20180816" sheetId="49" r:id="rId70"/>
-    <sheet name="20180815" sheetId="48" r:id="rId71"/>
-    <sheet name="20180814" sheetId="47" r:id="rId72"/>
-    <sheet name="20180813" sheetId="46" r:id="rId73"/>
-    <sheet name="20180810（周报）" sheetId="45" r:id="rId74"/>
-    <sheet name="20180810" sheetId="44" r:id="rId75"/>
-    <sheet name="20180809" sheetId="43" r:id="rId76"/>
-    <sheet name="20180808" sheetId="42" r:id="rId77"/>
-    <sheet name="20180807" sheetId="41" r:id="rId78"/>
-    <sheet name="20180806" sheetId="40" r:id="rId79"/>
-    <sheet name="20180803（周报）" sheetId="39" r:id="rId80"/>
-    <sheet name="20180803" sheetId="38" r:id="rId81"/>
-    <sheet name="20180802" sheetId="37" r:id="rId82"/>
-    <sheet name="20180801" sheetId="36" r:id="rId83"/>
-    <sheet name="20180731" sheetId="35" r:id="rId84"/>
-    <sheet name="20180730" sheetId="34" r:id="rId85"/>
-    <sheet name="20180727(周报)" sheetId="33" r:id="rId86"/>
-    <sheet name="20180727" sheetId="32" r:id="rId87"/>
-    <sheet name="20180726" sheetId="31" r:id="rId88"/>
-    <sheet name="20180725" sheetId="30" r:id="rId89"/>
-    <sheet name="20180724" sheetId="29" r:id="rId90"/>
-    <sheet name="20180723" sheetId="28" r:id="rId91"/>
-    <sheet name="20180720(周报)" sheetId="27" r:id="rId92"/>
-    <sheet name="20180720" sheetId="26" r:id="rId93"/>
-    <sheet name="20180719" sheetId="25" r:id="rId94"/>
-    <sheet name="20180718" sheetId="23" r:id="rId95"/>
-    <sheet name="20180717" sheetId="22" r:id="rId96"/>
-    <sheet name="20180716" sheetId="21" r:id="rId97"/>
-    <sheet name="20180713(周报)" sheetId="24" r:id="rId98"/>
-    <sheet name="20180713" sheetId="20" r:id="rId99"/>
-    <sheet name="20180712" sheetId="19" r:id="rId100"/>
-    <sheet name="20180711" sheetId="18" r:id="rId101"/>
-    <sheet name="20180710" sheetId="17" r:id="rId102"/>
-    <sheet name="20180709" sheetId="16" r:id="rId103"/>
-    <sheet name="20180706(周报)" sheetId="15" r:id="rId104"/>
-    <sheet name="20180706" sheetId="14" r:id="rId105"/>
-    <sheet name="20180705" sheetId="13" r:id="rId106"/>
-    <sheet name="20180704" sheetId="12" r:id="rId107"/>
-    <sheet name="20180703" sheetId="11" r:id="rId108"/>
-    <sheet name="20180702" sheetId="10" r:id="rId109"/>
-    <sheet name="20180629" sheetId="9" r:id="rId110"/>
-    <sheet name="20180628" sheetId="8" r:id="rId111"/>
-    <sheet name="20180627" sheetId="7" r:id="rId112"/>
-    <sheet name="20180626" sheetId="6" r:id="rId113"/>
-    <sheet name="20180625" sheetId="3" r:id="rId114"/>
-    <sheet name="20180621" sheetId="2" r:id="rId115"/>
-    <sheet name="20180622" sheetId="1" r:id="rId116"/>
-    <sheet name="项目计划" sheetId="4" r:id="rId117"/>
+    <sheet name="20181120" sheetId="118" r:id="rId2"/>
+    <sheet name="20181119" sheetId="117" r:id="rId3"/>
+    <sheet name="20181116（周报）" sheetId="116" r:id="rId4"/>
+    <sheet name="20181116" sheetId="115" r:id="rId5"/>
+    <sheet name="20181115" sheetId="114" r:id="rId6"/>
+    <sheet name="20181114" sheetId="113" r:id="rId7"/>
+    <sheet name="20181113" sheetId="112" r:id="rId8"/>
+    <sheet name="20181112" sheetId="111" r:id="rId9"/>
+    <sheet name="20181108" sheetId="110" r:id="rId10"/>
+    <sheet name="20181107" sheetId="109" r:id="rId11"/>
+    <sheet name="20181105" sheetId="108" r:id="rId12"/>
+    <sheet name="20181102（周报）" sheetId="107" r:id="rId13"/>
+    <sheet name="20181102" sheetId="106" r:id="rId14"/>
+    <sheet name="20181101" sheetId="105" r:id="rId15"/>
+    <sheet name="20181031" sheetId="104" r:id="rId16"/>
+    <sheet name="20181030" sheetId="103" r:id="rId17"/>
+    <sheet name="20181029" sheetId="102" r:id="rId18"/>
+    <sheet name="20181025" sheetId="101" r:id="rId19"/>
+    <sheet name="20181024" sheetId="100" r:id="rId20"/>
+    <sheet name="20181023" sheetId="99" r:id="rId21"/>
+    <sheet name="20181022" sheetId="98" r:id="rId22"/>
+    <sheet name="20181019（周报）" sheetId="97" r:id="rId23"/>
+    <sheet name="20181019" sheetId="96" r:id="rId24"/>
+    <sheet name="20181018" sheetId="95" r:id="rId25"/>
+    <sheet name="20181017" sheetId="94" r:id="rId26"/>
+    <sheet name="20181016" sheetId="93" r:id="rId27"/>
+    <sheet name="20181015" sheetId="92" r:id="rId28"/>
+    <sheet name="20181012（周报）" sheetId="91" r:id="rId29"/>
+    <sheet name="20181012" sheetId="90" r:id="rId30"/>
+    <sheet name="20181011" sheetId="89" r:id="rId31"/>
+    <sheet name="20181010" sheetId="88" r:id="rId32"/>
+    <sheet name="20181009" sheetId="87" r:id="rId33"/>
+    <sheet name="20181008" sheetId="86" r:id="rId34"/>
+    <sheet name="20180928（周报）" sheetId="80" r:id="rId35"/>
+    <sheet name="20180928" sheetId="84" r:id="rId36"/>
+    <sheet name="20180927" sheetId="83" r:id="rId37"/>
+    <sheet name="20180926" sheetId="82" r:id="rId38"/>
+    <sheet name="20180925" sheetId="81" r:id="rId39"/>
+    <sheet name="20180921（周报）" sheetId="85" r:id="rId40"/>
+    <sheet name="20180921" sheetId="79" r:id="rId41"/>
+    <sheet name="20180920" sheetId="78" r:id="rId42"/>
+    <sheet name="20180919" sheetId="77" r:id="rId43"/>
+    <sheet name="20180918" sheetId="76" r:id="rId44"/>
+    <sheet name="20180917" sheetId="75" r:id="rId45"/>
+    <sheet name="20180914（周报）" sheetId="74" r:id="rId46"/>
+    <sheet name="20180914" sheetId="73" r:id="rId47"/>
+    <sheet name="20180913" sheetId="71" r:id="rId48"/>
+    <sheet name="20180912" sheetId="72" r:id="rId49"/>
+    <sheet name="20180911" sheetId="70" r:id="rId50"/>
+    <sheet name="20180910" sheetId="69" r:id="rId51"/>
+    <sheet name="20180907（周报）" sheetId="68" r:id="rId52"/>
+    <sheet name="20180907" sheetId="67" r:id="rId53"/>
+    <sheet name="20180906" sheetId="66" r:id="rId54"/>
+    <sheet name="20180905" sheetId="65" r:id="rId55"/>
+    <sheet name="20180903" sheetId="64" r:id="rId56"/>
+    <sheet name="20180831（周报）" sheetId="63" r:id="rId57"/>
+    <sheet name="20180831" sheetId="62" r:id="rId58"/>
+    <sheet name="20180830" sheetId="61" r:id="rId59"/>
+    <sheet name="20180829" sheetId="60" r:id="rId60"/>
+    <sheet name="20180828" sheetId="59" r:id="rId61"/>
+    <sheet name="20180827" sheetId="58" r:id="rId62"/>
+    <sheet name="20180824（周报）" sheetId="57" r:id="rId63"/>
+    <sheet name="20180824" sheetId="56" r:id="rId64"/>
+    <sheet name="20180823" sheetId="55" r:id="rId65"/>
+    <sheet name="20180822" sheetId="54" r:id="rId66"/>
+    <sheet name="20180821" sheetId="53" r:id="rId67"/>
+    <sheet name="20180820" sheetId="52" r:id="rId68"/>
+    <sheet name="20180817（周报）" sheetId="51" r:id="rId69"/>
+    <sheet name="20180817" sheetId="50" r:id="rId70"/>
+    <sheet name="20180816" sheetId="49" r:id="rId71"/>
+    <sheet name="20180815" sheetId="48" r:id="rId72"/>
+    <sheet name="20180814" sheetId="47" r:id="rId73"/>
+    <sheet name="20180813" sheetId="46" r:id="rId74"/>
+    <sheet name="20180810（周报）" sheetId="45" r:id="rId75"/>
+    <sheet name="20180810" sheetId="44" r:id="rId76"/>
+    <sheet name="20180809" sheetId="43" r:id="rId77"/>
+    <sheet name="20180808" sheetId="42" r:id="rId78"/>
+    <sheet name="20180807" sheetId="41" r:id="rId79"/>
+    <sheet name="20180806" sheetId="40" r:id="rId80"/>
+    <sheet name="20180803（周报）" sheetId="39" r:id="rId81"/>
+    <sheet name="20180803" sheetId="38" r:id="rId82"/>
+    <sheet name="20180802" sheetId="37" r:id="rId83"/>
+    <sheet name="20180801" sheetId="36" r:id="rId84"/>
+    <sheet name="20180731" sheetId="35" r:id="rId85"/>
+    <sheet name="20180730" sheetId="34" r:id="rId86"/>
+    <sheet name="20180727(周报)" sheetId="33" r:id="rId87"/>
+    <sheet name="20180727" sheetId="32" r:id="rId88"/>
+    <sheet name="20180726" sheetId="31" r:id="rId89"/>
+    <sheet name="20180725" sheetId="30" r:id="rId90"/>
+    <sheet name="20180724" sheetId="29" r:id="rId91"/>
+    <sheet name="20180723" sheetId="28" r:id="rId92"/>
+    <sheet name="20180720(周报)" sheetId="27" r:id="rId93"/>
+    <sheet name="20180720" sheetId="26" r:id="rId94"/>
+    <sheet name="20180719" sheetId="25" r:id="rId95"/>
+    <sheet name="20180718" sheetId="23" r:id="rId96"/>
+    <sheet name="20180717" sheetId="22" r:id="rId97"/>
+    <sheet name="20180716" sheetId="21" r:id="rId98"/>
+    <sheet name="20180713(周报)" sheetId="24" r:id="rId99"/>
+    <sheet name="20180713" sheetId="20" r:id="rId100"/>
+    <sheet name="20180712" sheetId="19" r:id="rId101"/>
+    <sheet name="20180711" sheetId="18" r:id="rId102"/>
+    <sheet name="20180710" sheetId="17" r:id="rId103"/>
+    <sheet name="20180709" sheetId="16" r:id="rId104"/>
+    <sheet name="20180706(周报)" sheetId="15" r:id="rId105"/>
+    <sheet name="20180706" sheetId="14" r:id="rId106"/>
+    <sheet name="20180705" sheetId="13" r:id="rId107"/>
+    <sheet name="20180704" sheetId="12" r:id="rId108"/>
+    <sheet name="20180703" sheetId="11" r:id="rId109"/>
+    <sheet name="20180702" sheetId="10" r:id="rId110"/>
+    <sheet name="20180629" sheetId="9" r:id="rId111"/>
+    <sheet name="20180628" sheetId="8" r:id="rId112"/>
+    <sheet name="20180627" sheetId="7" r:id="rId113"/>
+    <sheet name="20180626" sheetId="6" r:id="rId114"/>
+    <sheet name="20180625" sheetId="3" r:id="rId115"/>
+    <sheet name="20180621" sheetId="2" r:id="rId116"/>
+    <sheet name="20180622" sheetId="1" r:id="rId117"/>
+    <sheet name="项目计划" sheetId="4" r:id="rId118"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -140,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="613">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2560,11 +2562,15 @@
     <t>Benny Zhao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Amy Tang, Angela Liang, Ashley Yiu, Piko Law</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2976,11 +2982,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="差_20180628" xfId="1"/>
-    <cellStyle name="差_20180628_1" xfId="3"/>
+    <cellStyle name="差_20180628" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="差_20180628_1" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好_20180628" xfId="2"/>
-    <cellStyle name="好_20180628_1" xfId="4"/>
+    <cellStyle name="好_20180628" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="好_20180628_1" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3291,7 +3297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D35"/>
   <sheetViews>
@@ -3689,11 +3695,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3706,129 +3712,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
+      <c r="C2" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>4</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>589</v>
+      <c r="B4" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="B5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
+      <c r="A6" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3838,7 +3823,194 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6200-000000000000}">
+  <sheetPr codeName="Sheet80"/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6300-000000000000}">
   <sheetPr codeName="Sheet81"/>
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -3946,8 +4118,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6400-000000000000}">
   <sheetPr codeName="Sheet82"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -4107,8 +4279,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6500-000000000000}">
   <sheetPr codeName="Sheet83"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -4312,8 +4484,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6600-000000000000}">
   <sheetPr codeName="Sheet84"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -4555,8 +4727,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6700-000000000000}">
   <sheetPr codeName="Sheet85"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -4725,8 +4897,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6800-000000000000}">
   <sheetPr codeName="Sheet86"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -5005,8 +5177,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6900-000000000000}">
   <sheetPr codeName="Sheet87"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -5135,8 +5307,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6A00-000000000000}">
   <sheetPr codeName="Sheet88"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -5288,8 +5460,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6B00-000000000000}">
   <sheetPr codeName="Sheet89"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -5441,8 +5613,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6C00-000000000000}">
   <sheetPr codeName="Sheet90"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -5594,136 +5915,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>583</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6D00-000000000000}">
   <sheetPr codeName="Sheet91"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -5814,8 +6007,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6E00-000000000000}">
   <sheetPr codeName="Sheet92"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -5969,8 +6162,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6F00-000000000000}">
   <sheetPr codeName="Sheet93"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -6122,8 +6315,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7000-000000000000}">
   <sheetPr codeName="Sheet94"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -6252,8 +6445,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7100-000000000000}">
   <sheetPr codeName="Sheet95"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -6380,8 +6573,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7200-000000000000}">
   <sheetPr codeName="Sheet96"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -6558,8 +6751,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7300-000000000000}">
   <sheetPr codeName="Sheet97"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -6724,8 +6917,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7400-000000000000}">
   <sheetPr codeName="Sheet98"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -6741,7 +6934,135 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6865,8 +7186,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6993,8 +7314,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7142,8 +7463,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7291,8 +7612,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7440,8 +7761,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7589,8 +7910,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet100"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -7739,8 +8060,155 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE42C82-9E2D-4793-BEA9-A3FB328CCEA2}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
+        <v>5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet101"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -7889,155 +8357,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>602</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>472</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>472</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="33">
-        <v>4</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet99"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -8186,8 +8507,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -8336,8 +8657,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -8490,8 +8811,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -8663,8 +8984,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -8834,8 +9155,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -8984,8 +9305,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -9136,8 +9457,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -9286,8 +9607,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -9421,8 +9742,155 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
+        <v>4</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -9571,133 +10039,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="17">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="17">
-        <v>2</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
-        <v>3</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>4</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>609</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -9867,8 +10210,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -10017,8 +10360,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -10169,8 +10512,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -10317,8 +10660,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -10466,8 +10809,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -10614,8 +10957,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -10764,8 +11107,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -10935,8 +11278,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -11129,8 +11472,133 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>609</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -11278,115 +11746,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>606</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="32">
-        <v>1</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -11558,8 +11919,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -11731,8 +12092,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -11940,8 +12301,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -12130,8 +12491,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -12303,8 +12664,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -12478,8 +12839,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -12630,8 +12991,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -12784,8 +13145,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -12936,8 +13297,115 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>606</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="32">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -13088,157 +13556,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>603</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>1</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>604</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="33">
-        <v>2</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -13429,8 +13748,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -13555,8 +13874,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -13730,8 +14049,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -13880,8 +14199,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -14030,8 +14349,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -14182,8 +14501,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -14325,8 +14644,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -14515,8 +14834,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -14688,8 +15007,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>603</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>604</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
+        <v>2</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -14838,136 +15306,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="A1:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>603</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>7</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>1</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -15156,8 +15496,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -15327,8 +15667,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -15474,8 +15814,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -15643,8 +15983,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -15795,8 +16135,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -15949,8 +16289,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -16103,8 +16443,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -16282,8 +16622,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -16424,8 +16764,136 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>603</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>7</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -16559,157 +17027,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>602</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>1</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="33">
-        <v>2</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -16863,8 +17182,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -17016,8 +17335,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -17190,8 +17509,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -17341,8 +17660,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -17497,8 +17816,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4A00-000000000000}">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -17629,8 +17948,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4B00-000000000000}">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -17805,8 +18124,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4C00-000000000000}">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -17960,8 +18279,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4D00-000000000000}">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -18115,8 +18434,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
+        <v>2</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4E00-000000000000}">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -18270,157 +18738,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>596</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>2</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>4</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4F00-000000000000}">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -18569,8 +18888,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5000-000000000000}">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -18701,8 +19020,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5100-000000000000}">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -18829,8 +19148,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5200-000000000000}">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -18978,8 +19297,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5300-000000000000}">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -19148,8 +19467,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5400-000000000000}">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -19318,8 +19637,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5500-000000000000}">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -19462,8 +19781,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5600-000000000000}">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -19632,8 +19951,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5700-000000000000}">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -19760,8 +20079,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>2</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>4</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5800-000000000000}">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -19888,136 +20356,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>590</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>4</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5900-000000000000}">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -20144,8 +20484,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5A00-000000000000}">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -20295,8 +20635,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5B00-000000000000}">
   <sheetPr codeName="Sheet73"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -20443,8 +20783,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5C00-000000000000}">
   <sheetPr codeName="Sheet74"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -20594,8 +20934,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5D00-000000000000}">
   <sheetPr codeName="Sheet75"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -20722,8 +21062,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5E00-000000000000}">
   <sheetPr codeName="Sheet76"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -20936,8 +21276,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5F00-000000000000}">
   <sheetPr codeName="Sheet77"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -21108,8 +21448,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6000-000000000000}">
   <sheetPr codeName="Sheet78"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -21301,8 +21641,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6100-000000000000}">
   <sheetPr codeName="Sheet79"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -21472,191 +21812,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet80"/>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/management/周报-2018.xlsx
+++ b/management/周报-2018.xlsx
@@ -8,129 +8,130 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cn085258\git\ahkamanet\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2DECC4-72D1-4A39-82BC-C6E08F8CC395}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930A5B0C-EF82-409E-80EA-18118F71F6C6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CornJob项目计划" sheetId="5" r:id="rId1"/>
-    <sheet name="20181120" sheetId="118" r:id="rId2"/>
-    <sheet name="20181119" sheetId="117" r:id="rId3"/>
-    <sheet name="20181116（周报）" sheetId="116" r:id="rId4"/>
-    <sheet name="20181116" sheetId="115" r:id="rId5"/>
-    <sheet name="20181115" sheetId="114" r:id="rId6"/>
-    <sheet name="20181114" sheetId="113" r:id="rId7"/>
-    <sheet name="20181113" sheetId="112" r:id="rId8"/>
-    <sheet name="20181112" sheetId="111" r:id="rId9"/>
-    <sheet name="20181108" sheetId="110" r:id="rId10"/>
-    <sheet name="20181107" sheetId="109" r:id="rId11"/>
-    <sheet name="20181105" sheetId="108" r:id="rId12"/>
-    <sheet name="20181102（周报）" sheetId="107" r:id="rId13"/>
-    <sheet name="20181102" sheetId="106" r:id="rId14"/>
-    <sheet name="20181101" sheetId="105" r:id="rId15"/>
-    <sheet name="20181031" sheetId="104" r:id="rId16"/>
-    <sheet name="20181030" sheetId="103" r:id="rId17"/>
-    <sheet name="20181029" sheetId="102" r:id="rId18"/>
-    <sheet name="20181025" sheetId="101" r:id="rId19"/>
-    <sheet name="20181024" sheetId="100" r:id="rId20"/>
-    <sheet name="20181023" sheetId="99" r:id="rId21"/>
-    <sheet name="20181022" sheetId="98" r:id="rId22"/>
-    <sheet name="20181019（周报）" sheetId="97" r:id="rId23"/>
-    <sheet name="20181019" sheetId="96" r:id="rId24"/>
-    <sheet name="20181018" sheetId="95" r:id="rId25"/>
-    <sheet name="20181017" sheetId="94" r:id="rId26"/>
-    <sheet name="20181016" sheetId="93" r:id="rId27"/>
-    <sheet name="20181015" sheetId="92" r:id="rId28"/>
-    <sheet name="20181012（周报）" sheetId="91" r:id="rId29"/>
-    <sheet name="20181012" sheetId="90" r:id="rId30"/>
-    <sheet name="20181011" sheetId="89" r:id="rId31"/>
-    <sheet name="20181010" sheetId="88" r:id="rId32"/>
-    <sheet name="20181009" sheetId="87" r:id="rId33"/>
-    <sheet name="20181008" sheetId="86" r:id="rId34"/>
-    <sheet name="20180928（周报）" sheetId="80" r:id="rId35"/>
-    <sheet name="20180928" sheetId="84" r:id="rId36"/>
-    <sheet name="20180927" sheetId="83" r:id="rId37"/>
-    <sheet name="20180926" sheetId="82" r:id="rId38"/>
-    <sheet name="20180925" sheetId="81" r:id="rId39"/>
-    <sheet name="20180921（周报）" sheetId="85" r:id="rId40"/>
-    <sheet name="20180921" sheetId="79" r:id="rId41"/>
-    <sheet name="20180920" sheetId="78" r:id="rId42"/>
-    <sheet name="20180919" sheetId="77" r:id="rId43"/>
-    <sheet name="20180918" sheetId="76" r:id="rId44"/>
-    <sheet name="20180917" sheetId="75" r:id="rId45"/>
-    <sheet name="20180914（周报）" sheetId="74" r:id="rId46"/>
-    <sheet name="20180914" sheetId="73" r:id="rId47"/>
-    <sheet name="20180913" sheetId="71" r:id="rId48"/>
-    <sheet name="20180912" sheetId="72" r:id="rId49"/>
-    <sheet name="20180911" sheetId="70" r:id="rId50"/>
-    <sheet name="20180910" sheetId="69" r:id="rId51"/>
-    <sheet name="20180907（周报）" sheetId="68" r:id="rId52"/>
-    <sheet name="20180907" sheetId="67" r:id="rId53"/>
-    <sheet name="20180906" sheetId="66" r:id="rId54"/>
-    <sheet name="20180905" sheetId="65" r:id="rId55"/>
-    <sheet name="20180903" sheetId="64" r:id="rId56"/>
-    <sheet name="20180831（周报）" sheetId="63" r:id="rId57"/>
-    <sheet name="20180831" sheetId="62" r:id="rId58"/>
-    <sheet name="20180830" sheetId="61" r:id="rId59"/>
-    <sheet name="20180829" sheetId="60" r:id="rId60"/>
-    <sheet name="20180828" sheetId="59" r:id="rId61"/>
-    <sheet name="20180827" sheetId="58" r:id="rId62"/>
-    <sheet name="20180824（周报）" sheetId="57" r:id="rId63"/>
-    <sheet name="20180824" sheetId="56" r:id="rId64"/>
-    <sheet name="20180823" sheetId="55" r:id="rId65"/>
-    <sheet name="20180822" sheetId="54" r:id="rId66"/>
-    <sheet name="20180821" sheetId="53" r:id="rId67"/>
-    <sheet name="20180820" sheetId="52" r:id="rId68"/>
-    <sheet name="20180817（周报）" sheetId="51" r:id="rId69"/>
-    <sheet name="20180817" sheetId="50" r:id="rId70"/>
-    <sheet name="20180816" sheetId="49" r:id="rId71"/>
-    <sheet name="20180815" sheetId="48" r:id="rId72"/>
-    <sheet name="20180814" sheetId="47" r:id="rId73"/>
-    <sheet name="20180813" sheetId="46" r:id="rId74"/>
-    <sheet name="20180810（周报）" sheetId="45" r:id="rId75"/>
-    <sheet name="20180810" sheetId="44" r:id="rId76"/>
-    <sheet name="20180809" sheetId="43" r:id="rId77"/>
-    <sheet name="20180808" sheetId="42" r:id="rId78"/>
-    <sheet name="20180807" sheetId="41" r:id="rId79"/>
-    <sheet name="20180806" sheetId="40" r:id="rId80"/>
-    <sheet name="20180803（周报）" sheetId="39" r:id="rId81"/>
-    <sheet name="20180803" sheetId="38" r:id="rId82"/>
-    <sheet name="20180802" sheetId="37" r:id="rId83"/>
-    <sheet name="20180801" sheetId="36" r:id="rId84"/>
-    <sheet name="20180731" sheetId="35" r:id="rId85"/>
-    <sheet name="20180730" sheetId="34" r:id="rId86"/>
-    <sheet name="20180727(周报)" sheetId="33" r:id="rId87"/>
-    <sheet name="20180727" sheetId="32" r:id="rId88"/>
-    <sheet name="20180726" sheetId="31" r:id="rId89"/>
-    <sheet name="20180725" sheetId="30" r:id="rId90"/>
-    <sheet name="20180724" sheetId="29" r:id="rId91"/>
-    <sheet name="20180723" sheetId="28" r:id="rId92"/>
-    <sheet name="20180720(周报)" sheetId="27" r:id="rId93"/>
-    <sheet name="20180720" sheetId="26" r:id="rId94"/>
-    <sheet name="20180719" sheetId="25" r:id="rId95"/>
-    <sheet name="20180718" sheetId="23" r:id="rId96"/>
-    <sheet name="20180717" sheetId="22" r:id="rId97"/>
-    <sheet name="20180716" sheetId="21" r:id="rId98"/>
-    <sheet name="20180713(周报)" sheetId="24" r:id="rId99"/>
-    <sheet name="20180713" sheetId="20" r:id="rId100"/>
-    <sheet name="20180712" sheetId="19" r:id="rId101"/>
-    <sheet name="20180711" sheetId="18" r:id="rId102"/>
-    <sheet name="20180710" sheetId="17" r:id="rId103"/>
-    <sheet name="20180709" sheetId="16" r:id="rId104"/>
-    <sheet name="20180706(周报)" sheetId="15" r:id="rId105"/>
-    <sheet name="20180706" sheetId="14" r:id="rId106"/>
-    <sheet name="20180705" sheetId="13" r:id="rId107"/>
-    <sheet name="20180704" sheetId="12" r:id="rId108"/>
-    <sheet name="20180703" sheetId="11" r:id="rId109"/>
-    <sheet name="20180702" sheetId="10" r:id="rId110"/>
-    <sheet name="20180629" sheetId="9" r:id="rId111"/>
-    <sheet name="20180628" sheetId="8" r:id="rId112"/>
-    <sheet name="20180627" sheetId="7" r:id="rId113"/>
-    <sheet name="20180626" sheetId="6" r:id="rId114"/>
-    <sheet name="20180625" sheetId="3" r:id="rId115"/>
-    <sheet name="20180621" sheetId="2" r:id="rId116"/>
-    <sheet name="20180622" sheetId="1" r:id="rId117"/>
-    <sheet name="项目计划" sheetId="4" r:id="rId118"/>
+    <sheet name="20181121" sheetId="119" r:id="rId2"/>
+    <sheet name="20181120" sheetId="118" r:id="rId3"/>
+    <sheet name="20181119" sheetId="117" r:id="rId4"/>
+    <sheet name="20181116（周报）" sheetId="116" r:id="rId5"/>
+    <sheet name="20181116" sheetId="115" r:id="rId6"/>
+    <sheet name="20181115" sheetId="114" r:id="rId7"/>
+    <sheet name="20181114" sheetId="113" r:id="rId8"/>
+    <sheet name="20181113" sheetId="112" r:id="rId9"/>
+    <sheet name="20181112" sheetId="111" r:id="rId10"/>
+    <sheet name="20181108" sheetId="110" r:id="rId11"/>
+    <sheet name="20181107" sheetId="109" r:id="rId12"/>
+    <sheet name="20181105" sheetId="108" r:id="rId13"/>
+    <sheet name="20181102（周报）" sheetId="107" r:id="rId14"/>
+    <sheet name="20181102" sheetId="106" r:id="rId15"/>
+    <sheet name="20181101" sheetId="105" r:id="rId16"/>
+    <sheet name="20181031" sheetId="104" r:id="rId17"/>
+    <sheet name="20181030" sheetId="103" r:id="rId18"/>
+    <sheet name="20181029" sheetId="102" r:id="rId19"/>
+    <sheet name="20181025" sheetId="101" r:id="rId20"/>
+    <sheet name="20181024" sheetId="100" r:id="rId21"/>
+    <sheet name="20181023" sheetId="99" r:id="rId22"/>
+    <sheet name="20181022" sheetId="98" r:id="rId23"/>
+    <sheet name="20181019（周报）" sheetId="97" r:id="rId24"/>
+    <sheet name="20181019" sheetId="96" r:id="rId25"/>
+    <sheet name="20181018" sheetId="95" r:id="rId26"/>
+    <sheet name="20181017" sheetId="94" r:id="rId27"/>
+    <sheet name="20181016" sheetId="93" r:id="rId28"/>
+    <sheet name="20181015" sheetId="92" r:id="rId29"/>
+    <sheet name="20181012（周报）" sheetId="91" r:id="rId30"/>
+    <sheet name="20181012" sheetId="90" r:id="rId31"/>
+    <sheet name="20181011" sheetId="89" r:id="rId32"/>
+    <sheet name="20181010" sheetId="88" r:id="rId33"/>
+    <sheet name="20181009" sheetId="87" r:id="rId34"/>
+    <sheet name="20181008" sheetId="86" r:id="rId35"/>
+    <sheet name="20180928（周报）" sheetId="80" r:id="rId36"/>
+    <sheet name="20180928" sheetId="84" r:id="rId37"/>
+    <sheet name="20180927" sheetId="83" r:id="rId38"/>
+    <sheet name="20180926" sheetId="82" r:id="rId39"/>
+    <sheet name="20180925" sheetId="81" r:id="rId40"/>
+    <sheet name="20180921（周报）" sheetId="85" r:id="rId41"/>
+    <sheet name="20180921" sheetId="79" r:id="rId42"/>
+    <sheet name="20180920" sheetId="78" r:id="rId43"/>
+    <sheet name="20180919" sheetId="77" r:id="rId44"/>
+    <sheet name="20180918" sheetId="76" r:id="rId45"/>
+    <sheet name="20180917" sheetId="75" r:id="rId46"/>
+    <sheet name="20180914（周报）" sheetId="74" r:id="rId47"/>
+    <sheet name="20180914" sheetId="73" r:id="rId48"/>
+    <sheet name="20180913" sheetId="71" r:id="rId49"/>
+    <sheet name="20180912" sheetId="72" r:id="rId50"/>
+    <sheet name="20180911" sheetId="70" r:id="rId51"/>
+    <sheet name="20180910" sheetId="69" r:id="rId52"/>
+    <sheet name="20180907（周报）" sheetId="68" r:id="rId53"/>
+    <sheet name="20180907" sheetId="67" r:id="rId54"/>
+    <sheet name="20180906" sheetId="66" r:id="rId55"/>
+    <sheet name="20180905" sheetId="65" r:id="rId56"/>
+    <sheet name="20180903" sheetId="64" r:id="rId57"/>
+    <sheet name="20180831（周报）" sheetId="63" r:id="rId58"/>
+    <sheet name="20180831" sheetId="62" r:id="rId59"/>
+    <sheet name="20180830" sheetId="61" r:id="rId60"/>
+    <sheet name="20180829" sheetId="60" r:id="rId61"/>
+    <sheet name="20180828" sheetId="59" r:id="rId62"/>
+    <sheet name="20180827" sheetId="58" r:id="rId63"/>
+    <sheet name="20180824（周报）" sheetId="57" r:id="rId64"/>
+    <sheet name="20180824" sheetId="56" r:id="rId65"/>
+    <sheet name="20180823" sheetId="55" r:id="rId66"/>
+    <sheet name="20180822" sheetId="54" r:id="rId67"/>
+    <sheet name="20180821" sheetId="53" r:id="rId68"/>
+    <sheet name="20180820" sheetId="52" r:id="rId69"/>
+    <sheet name="20180817（周报）" sheetId="51" r:id="rId70"/>
+    <sheet name="20180817" sheetId="50" r:id="rId71"/>
+    <sheet name="20180816" sheetId="49" r:id="rId72"/>
+    <sheet name="20180815" sheetId="48" r:id="rId73"/>
+    <sheet name="20180814" sheetId="47" r:id="rId74"/>
+    <sheet name="20180813" sheetId="46" r:id="rId75"/>
+    <sheet name="20180810（周报）" sheetId="45" r:id="rId76"/>
+    <sheet name="20180810" sheetId="44" r:id="rId77"/>
+    <sheet name="20180809" sheetId="43" r:id="rId78"/>
+    <sheet name="20180808" sheetId="42" r:id="rId79"/>
+    <sheet name="20180807" sheetId="41" r:id="rId80"/>
+    <sheet name="20180806" sheetId="40" r:id="rId81"/>
+    <sheet name="20180803（周报）" sheetId="39" r:id="rId82"/>
+    <sheet name="20180803" sheetId="38" r:id="rId83"/>
+    <sheet name="20180802" sheetId="37" r:id="rId84"/>
+    <sheet name="20180801" sheetId="36" r:id="rId85"/>
+    <sheet name="20180731" sheetId="35" r:id="rId86"/>
+    <sheet name="20180730" sheetId="34" r:id="rId87"/>
+    <sheet name="20180727(周报)" sheetId="33" r:id="rId88"/>
+    <sheet name="20180727" sheetId="32" r:id="rId89"/>
+    <sheet name="20180726" sheetId="31" r:id="rId90"/>
+    <sheet name="20180725" sheetId="30" r:id="rId91"/>
+    <sheet name="20180724" sheetId="29" r:id="rId92"/>
+    <sheet name="20180723" sheetId="28" r:id="rId93"/>
+    <sheet name="20180720(周报)" sheetId="27" r:id="rId94"/>
+    <sheet name="20180720" sheetId="26" r:id="rId95"/>
+    <sheet name="20180719" sheetId="25" r:id="rId96"/>
+    <sheet name="20180718" sheetId="23" r:id="rId97"/>
+    <sheet name="20180717" sheetId="22" r:id="rId98"/>
+    <sheet name="20180716" sheetId="21" r:id="rId99"/>
+    <sheet name="20180713(周报)" sheetId="24" r:id="rId100"/>
+    <sheet name="20180713" sheetId="20" r:id="rId101"/>
+    <sheet name="20180712" sheetId="19" r:id="rId102"/>
+    <sheet name="20180711" sheetId="18" r:id="rId103"/>
+    <sheet name="20180710" sheetId="17" r:id="rId104"/>
+    <sheet name="20180709" sheetId="16" r:id="rId105"/>
+    <sheet name="20180706(周报)" sheetId="15" r:id="rId106"/>
+    <sheet name="20180706" sheetId="14" r:id="rId107"/>
+    <sheet name="20180705" sheetId="13" r:id="rId108"/>
+    <sheet name="20180704" sheetId="12" r:id="rId109"/>
+    <sheet name="20180703" sheetId="11" r:id="rId110"/>
+    <sheet name="20180702" sheetId="10" r:id="rId111"/>
+    <sheet name="20180629" sheetId="9" r:id="rId112"/>
+    <sheet name="20180628" sheetId="8" r:id="rId113"/>
+    <sheet name="20180627" sheetId="7" r:id="rId114"/>
+    <sheet name="20180626" sheetId="6" r:id="rId115"/>
+    <sheet name="20180625" sheetId="3" r:id="rId116"/>
+    <sheet name="20180621" sheetId="2" r:id="rId117"/>
+    <sheet name="20180622" sheetId="1" r:id="rId118"/>
+    <sheet name="项目计划" sheetId="4" r:id="rId119"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -142,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="614">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2564,6 +2565,10 @@
   </si>
   <si>
     <t>Amy Tang, Angela Liang, Ashley Yiu, Piko Law</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hongxu Dai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3695,11 +3700,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G6" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3734,7 +3739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -3742,20 +3747,20 @@
         <v>311</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>591</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -3770,50 +3775,71 @@
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="33">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="32">
-        <v>0.5</v>
+      <c r="B4" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
+        <v>1.5</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>125</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3823,6 +3849,179 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6100-000000000000}">
+  <sheetPr codeName="Sheet79"/>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>1</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
+        <v>2</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
+        <v>3</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
+        <v>4</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="17">
+        <v>5</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6200-000000000000}">
   <sheetPr codeName="Sheet80"/>
   <dimension ref="A1:G8"/>
@@ -4009,7 +4208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6300-000000000000}">
   <sheetPr codeName="Sheet81"/>
   <dimension ref="A1:G4"/>
@@ -4118,7 +4317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6400-000000000000}">
   <sheetPr codeName="Sheet82"/>
   <dimension ref="A1:G14"/>
@@ -4279,7 +4478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6500-000000000000}">
   <sheetPr codeName="Sheet83"/>
   <dimension ref="A1:G16"/>
@@ -4484,7 +4683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6600-000000000000}">
   <sheetPr codeName="Sheet84"/>
   <dimension ref="A1:G18"/>
@@ -4727,7 +4926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6700-000000000000}">
   <sheetPr codeName="Sheet85"/>
   <dimension ref="A1:H14"/>
@@ -4897,7 +5096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6800-000000000000}">
   <sheetPr codeName="Sheet86"/>
   <dimension ref="A1:G18"/>
@@ -5177,7 +5376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6900-000000000000}">
   <sheetPr codeName="Sheet87"/>
   <dimension ref="A1:G5"/>
@@ -5307,7 +5506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6A00-000000000000}">
   <sheetPr codeName="Sheet88"/>
   <dimension ref="A1:G6"/>
@@ -5460,7 +5659,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>4</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6B00-000000000000}">
   <sheetPr codeName="Sheet89"/>
   <dimension ref="A1:G6"/>
@@ -5613,156 +5940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6C00-000000000000}">
   <sheetPr codeName="Sheet90"/>
   <dimension ref="A1:G6"/>
@@ -5915,7 +6093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6D00-000000000000}">
   <sheetPr codeName="Sheet91"/>
   <dimension ref="A1:G3"/>
@@ -6007,7 +6185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6E00-000000000000}">
   <sheetPr codeName="Sheet92"/>
   <dimension ref="A1:G6"/>
@@ -6162,7 +6340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6F00-000000000000}">
   <sheetPr codeName="Sheet93"/>
   <dimension ref="A1:G6"/>
@@ -6315,7 +6493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7000-000000000000}">
   <sheetPr codeName="Sheet94"/>
   <dimension ref="A1:G5"/>
@@ -6445,7 +6623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7100-000000000000}">
   <sheetPr codeName="Sheet95"/>
   <dimension ref="A1:G5"/>
@@ -6573,7 +6751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7200-000000000000}">
   <sheetPr codeName="Sheet96"/>
   <dimension ref="A1:G8"/>
@@ -6751,7 +6929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7300-000000000000}">
   <sheetPr codeName="Sheet97"/>
   <dimension ref="A1:G7"/>
@@ -6917,7 +7095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7400-000000000000}">
   <sheetPr codeName="Sheet98"/>
   <dimension ref="A1"/>
@@ -6934,6 +7112,155 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -7061,7 +7388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -7186,7 +7513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -7314,7 +7641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -7463,7 +7790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -7612,7 +7939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -7761,7 +8088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -7910,7 +8237,133 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A41A3F-5546-498B-8DE2-D5CE65723392}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>1</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet100"/>
   <dimension ref="A1:G7"/>
@@ -8060,154 +8513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE42C82-9E2D-4793-BEA9-A3FB328CCEA2}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>602</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>1</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>472</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>472</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="33">
-        <v>5</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet101"/>
   <dimension ref="A1:G7"/>
@@ -8357,7 +8663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet99"/>
   <dimension ref="A1:G7"/>
@@ -8507,7 +8813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G7"/>
@@ -8657,7 +8963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H13"/>
@@ -8811,7 +9117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G8"/>
@@ -8984,7 +9290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G8"/>
@@ -9155,7 +9461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G7"/>
@@ -9305,7 +9611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G7"/>
@@ -9457,7 +9763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G7"/>
@@ -9607,7 +9913,154 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE42C82-9E2D-4793-BEA9-A3FB328CCEA2}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
+        <v>5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H12"/>
@@ -9742,154 +10195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>602</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>472</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>472</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="33">
-        <v>4</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G7"/>
@@ -10039,7 +10345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G8"/>
@@ -10210,7 +10516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G7"/>
@@ -10360,7 +10666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G7"/>
@@ -10512,7 +10818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G7"/>
@@ -10660,7 +10966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H13"/>
@@ -10809,7 +11115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G7"/>
@@ -10957,7 +11263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:G7"/>
@@ -11107,7 +11413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:G8"/>
@@ -11278,7 +11584,154 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
+        <v>4</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:G9"/>
@@ -11472,132 +11925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="17">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="17">
-        <v>2</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
-        <v>3</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>4</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>609</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H13"/>
@@ -11746,7 +12074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:G8"/>
@@ -11919,7 +12247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:G8"/>
@@ -12092,7 +12420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:G10"/>
@@ -12301,7 +12629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:G9"/>
@@ -12491,7 +12819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:G8"/>
@@ -12664,7 +12992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H15"/>
@@ -12839,7 +13167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:G7"/>
@@ -12991,7 +13319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:G7"/>
@@ -13145,7 +13473,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>609</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:G7"/>
@@ -13297,114 +13750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>606</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="32">
-        <v>1</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:G7"/>
@@ -13556,7 +13902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:G9"/>
@@ -13748,7 +14094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H11"/>
@@ -13874,7 +14220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:G8"/>
@@ -14049,7 +14395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:G7"/>
@@ -14199,7 +14545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:G7"/>
@@ -14349,7 +14695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:G7"/>
@@ -14501,7 +14847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H13"/>
@@ -14644,7 +14990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:G9"/>
@@ -14834,7 +15180,114 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>606</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="32">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:G8"/>
@@ -15007,156 +15460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>603</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>1</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>604</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="33">
-        <v>2</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:G7"/>
@@ -15306,7 +15610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:G9"/>
@@ -15496,7 +15800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:G8"/>
@@ -15667,7 +15971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:H13"/>
@@ -15814,7 +16118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:G8"/>
@@ -15983,7 +16287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:G7"/>
@@ -16135,7 +16439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:G7"/>
@@ -16289,7 +16593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:G7"/>
@@ -16443,7 +16747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:G8"/>
@@ -16622,7 +16926,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>603</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>604</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
+        <v>2</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H13"/>
@@ -16764,135 +17217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="A1:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>603</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>7</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>1</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:G6"/>
@@ -17027,7 +17352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:G6"/>
@@ -17182,7 +17507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:G6"/>
@@ -17335,7 +17660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:G7"/>
@@ -17509,7 +17834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:G6"/>
@@ -17660,7 +17985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H14"/>
@@ -17816,7 +18141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4A00-000000000000}">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:G5"/>
@@ -17948,7 +18273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4B00-000000000000}">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:G7"/>
@@ -18124,7 +18449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4C00-000000000000}">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:G6"/>
@@ -18279,7 +18604,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>603</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>7</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4D00-000000000000}">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:G6"/>
@@ -18434,156 +18887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>602</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>1</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="33">
-        <v>2</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4E00-000000000000}">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:G6"/>
@@ -18738,7 +19042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4F00-000000000000}">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H14"/>
@@ -18888,7 +19192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5000-000000000000}">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:G5"/>
@@ -19020,7 +19324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5100-000000000000}">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:G5"/>
@@ -19148,7 +19452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5200-000000000000}">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:G6"/>
@@ -19297,7 +19601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5300-000000000000}">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:G7"/>
@@ -19467,7 +19771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5400-000000000000}">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:G7"/>
@@ -19637,7 +19941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5500-000000000000}">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H14"/>
@@ -19781,7 +20085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5600-000000000000}">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:G7"/>
@@ -19951,7 +20255,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="33">
+        <v>2</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5700-000000000000}">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:G5"/>
@@ -20079,156 +20532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>596</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33">
-        <v>2</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="33">
-        <v>4</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5800-000000000000}">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:G5"/>
@@ -20356,7 +20660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5900-000000000000}">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:G5"/>
@@ -20484,7 +20788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5A00-000000000000}">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:G6"/>
@@ -20635,7 +20939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5B00-000000000000}">
   <sheetPr codeName="Sheet73"/>
   <dimension ref="A1:H13"/>
@@ -20783,7 +21087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5C00-000000000000}">
   <sheetPr codeName="Sheet74"/>
   <dimension ref="A1:G6"/>
@@ -20934,7 +21238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5D00-000000000000}">
   <sheetPr codeName="Sheet75"/>
   <dimension ref="A1:G5"/>
@@ -21062,7 +21366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5E00-000000000000}">
   <sheetPr codeName="Sheet76"/>
   <dimension ref="A1:G9"/>
@@ -21276,7 +21580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5F00-000000000000}">
   <sheetPr codeName="Sheet77"/>
   <dimension ref="A1:G7"/>
@@ -21448,7 +21752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6000-000000000000}">
   <sheetPr codeName="Sheet78"/>
   <dimension ref="A1:G8"/>
@@ -21639,177 +21943,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6100-000000000000}">
-  <sheetPr codeName="Sheet79"/>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="17">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="17">
-        <v>7</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>1</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
-        <v>2</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
-        <v>3</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="17">
-        <v>4</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="17">
-        <v>5</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/management/周报-2018.xlsx
+++ b/management/周报-2018.xlsx
@@ -8,130 +8,140 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cn085258\git\ahkamanet\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930A5B0C-EF82-409E-80EA-18118F71F6C6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5117F7BA-5FA3-4506-822D-8D9ED09C6E3F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CornJob项目计划" sheetId="5" r:id="rId1"/>
-    <sheet name="20181121" sheetId="119" r:id="rId2"/>
-    <sheet name="20181120" sheetId="118" r:id="rId3"/>
-    <sheet name="20181119" sheetId="117" r:id="rId4"/>
-    <sheet name="20181116（周报）" sheetId="116" r:id="rId5"/>
-    <sheet name="20181116" sheetId="115" r:id="rId6"/>
-    <sheet name="20181115" sheetId="114" r:id="rId7"/>
-    <sheet name="20181114" sheetId="113" r:id="rId8"/>
-    <sheet name="20181113" sheetId="112" r:id="rId9"/>
-    <sheet name="20181112" sheetId="111" r:id="rId10"/>
-    <sheet name="20181108" sheetId="110" r:id="rId11"/>
-    <sheet name="20181107" sheetId="109" r:id="rId12"/>
-    <sheet name="20181105" sheetId="108" r:id="rId13"/>
-    <sheet name="20181102（周报）" sheetId="107" r:id="rId14"/>
-    <sheet name="20181102" sheetId="106" r:id="rId15"/>
-    <sheet name="20181101" sheetId="105" r:id="rId16"/>
-    <sheet name="20181031" sheetId="104" r:id="rId17"/>
-    <sheet name="20181030" sheetId="103" r:id="rId18"/>
-    <sheet name="20181029" sheetId="102" r:id="rId19"/>
-    <sheet name="20181025" sheetId="101" r:id="rId20"/>
-    <sheet name="20181024" sheetId="100" r:id="rId21"/>
-    <sheet name="20181023" sheetId="99" r:id="rId22"/>
-    <sheet name="20181022" sheetId="98" r:id="rId23"/>
-    <sheet name="20181019（周报）" sheetId="97" r:id="rId24"/>
-    <sheet name="20181019" sheetId="96" r:id="rId25"/>
-    <sheet name="20181018" sheetId="95" r:id="rId26"/>
-    <sheet name="20181017" sheetId="94" r:id="rId27"/>
-    <sheet name="20181016" sheetId="93" r:id="rId28"/>
-    <sheet name="20181015" sheetId="92" r:id="rId29"/>
-    <sheet name="20181012（周报）" sheetId="91" r:id="rId30"/>
-    <sheet name="20181012" sheetId="90" r:id="rId31"/>
-    <sheet name="20181011" sheetId="89" r:id="rId32"/>
-    <sheet name="20181010" sheetId="88" r:id="rId33"/>
-    <sheet name="20181009" sheetId="87" r:id="rId34"/>
-    <sheet name="20181008" sheetId="86" r:id="rId35"/>
-    <sheet name="20180928（周报）" sheetId="80" r:id="rId36"/>
-    <sheet name="20180928" sheetId="84" r:id="rId37"/>
-    <sheet name="20180927" sheetId="83" r:id="rId38"/>
-    <sheet name="20180926" sheetId="82" r:id="rId39"/>
-    <sheet name="20180925" sheetId="81" r:id="rId40"/>
-    <sheet name="20180921（周报）" sheetId="85" r:id="rId41"/>
-    <sheet name="20180921" sheetId="79" r:id="rId42"/>
-    <sheet name="20180920" sheetId="78" r:id="rId43"/>
-    <sheet name="20180919" sheetId="77" r:id="rId44"/>
-    <sheet name="20180918" sheetId="76" r:id="rId45"/>
-    <sheet name="20180917" sheetId="75" r:id="rId46"/>
-    <sheet name="20180914（周报）" sheetId="74" r:id="rId47"/>
-    <sheet name="20180914" sheetId="73" r:id="rId48"/>
-    <sheet name="20180913" sheetId="71" r:id="rId49"/>
-    <sheet name="20180912" sheetId="72" r:id="rId50"/>
-    <sheet name="20180911" sheetId="70" r:id="rId51"/>
-    <sheet name="20180910" sheetId="69" r:id="rId52"/>
-    <sheet name="20180907（周报）" sheetId="68" r:id="rId53"/>
-    <sheet name="20180907" sheetId="67" r:id="rId54"/>
-    <sheet name="20180906" sheetId="66" r:id="rId55"/>
-    <sheet name="20180905" sheetId="65" r:id="rId56"/>
-    <sheet name="20180903" sheetId="64" r:id="rId57"/>
-    <sheet name="20180831（周报）" sheetId="63" r:id="rId58"/>
-    <sheet name="20180831" sheetId="62" r:id="rId59"/>
-    <sheet name="20180830" sheetId="61" r:id="rId60"/>
-    <sheet name="20180829" sheetId="60" r:id="rId61"/>
-    <sheet name="20180828" sheetId="59" r:id="rId62"/>
-    <sheet name="20180827" sheetId="58" r:id="rId63"/>
-    <sheet name="20180824（周报）" sheetId="57" r:id="rId64"/>
-    <sheet name="20180824" sheetId="56" r:id="rId65"/>
-    <sheet name="20180823" sheetId="55" r:id="rId66"/>
-    <sheet name="20180822" sheetId="54" r:id="rId67"/>
-    <sheet name="20180821" sheetId="53" r:id="rId68"/>
-    <sheet name="20180820" sheetId="52" r:id="rId69"/>
-    <sheet name="20180817（周报）" sheetId="51" r:id="rId70"/>
-    <sheet name="20180817" sheetId="50" r:id="rId71"/>
-    <sheet name="20180816" sheetId="49" r:id="rId72"/>
-    <sheet name="20180815" sheetId="48" r:id="rId73"/>
-    <sheet name="20180814" sheetId="47" r:id="rId74"/>
-    <sheet name="20180813" sheetId="46" r:id="rId75"/>
-    <sheet name="20180810（周报）" sheetId="45" r:id="rId76"/>
-    <sheet name="20180810" sheetId="44" r:id="rId77"/>
-    <sheet name="20180809" sheetId="43" r:id="rId78"/>
-    <sheet name="20180808" sheetId="42" r:id="rId79"/>
-    <sheet name="20180807" sheetId="41" r:id="rId80"/>
-    <sheet name="20180806" sheetId="40" r:id="rId81"/>
-    <sheet name="20180803（周报）" sheetId="39" r:id="rId82"/>
-    <sheet name="20180803" sheetId="38" r:id="rId83"/>
-    <sheet name="20180802" sheetId="37" r:id="rId84"/>
-    <sheet name="20180801" sheetId="36" r:id="rId85"/>
-    <sheet name="20180731" sheetId="35" r:id="rId86"/>
-    <sheet name="20180730" sheetId="34" r:id="rId87"/>
-    <sheet name="20180727(周报)" sheetId="33" r:id="rId88"/>
-    <sheet name="20180727" sheetId="32" r:id="rId89"/>
-    <sheet name="20180726" sheetId="31" r:id="rId90"/>
-    <sheet name="20180725" sheetId="30" r:id="rId91"/>
-    <sheet name="20180724" sheetId="29" r:id="rId92"/>
-    <sheet name="20180723" sheetId="28" r:id="rId93"/>
-    <sheet name="20180720(周报)" sheetId="27" r:id="rId94"/>
-    <sheet name="20180720" sheetId="26" r:id="rId95"/>
-    <sheet name="20180719" sheetId="25" r:id="rId96"/>
-    <sheet name="20180718" sheetId="23" r:id="rId97"/>
-    <sheet name="20180717" sheetId="22" r:id="rId98"/>
-    <sheet name="20180716" sheetId="21" r:id="rId99"/>
-    <sheet name="20180713(周报)" sheetId="24" r:id="rId100"/>
-    <sheet name="20180713" sheetId="20" r:id="rId101"/>
-    <sheet name="20180712" sheetId="19" r:id="rId102"/>
-    <sheet name="20180711" sheetId="18" r:id="rId103"/>
-    <sheet name="20180710" sheetId="17" r:id="rId104"/>
-    <sheet name="20180709" sheetId="16" r:id="rId105"/>
-    <sheet name="20180706(周报)" sheetId="15" r:id="rId106"/>
-    <sheet name="20180706" sheetId="14" r:id="rId107"/>
-    <sheet name="20180705" sheetId="13" r:id="rId108"/>
-    <sheet name="20180704" sheetId="12" r:id="rId109"/>
-    <sheet name="20180703" sheetId="11" r:id="rId110"/>
-    <sheet name="20180702" sheetId="10" r:id="rId111"/>
-    <sheet name="20180629" sheetId="9" r:id="rId112"/>
-    <sheet name="20180628" sheetId="8" r:id="rId113"/>
-    <sheet name="20180627" sheetId="7" r:id="rId114"/>
-    <sheet name="20180626" sheetId="6" r:id="rId115"/>
-    <sheet name="20180625" sheetId="3" r:id="rId116"/>
-    <sheet name="20180621" sheetId="2" r:id="rId117"/>
-    <sheet name="20180622" sheetId="1" r:id="rId118"/>
-    <sheet name="项目计划" sheetId="4" r:id="rId119"/>
+    <sheet name="20181130（周报）" sheetId="128" r:id="rId2"/>
+    <sheet name="20181203" sheetId="129" r:id="rId3"/>
+    <sheet name="20181130" sheetId="127" r:id="rId4"/>
+    <sheet name="20181129" sheetId="126" r:id="rId5"/>
+    <sheet name="20181128" sheetId="125" r:id="rId6"/>
+    <sheet name="20181127" sheetId="124" r:id="rId7"/>
+    <sheet name="20181126" sheetId="123" r:id="rId8"/>
+    <sheet name="20181123（周报）" sheetId="122" r:id="rId9"/>
+    <sheet name="20181123" sheetId="121" r:id="rId10"/>
+    <sheet name="20181122" sheetId="120" r:id="rId11"/>
+    <sheet name="20181121" sheetId="119" r:id="rId12"/>
+    <sheet name="20181120" sheetId="118" r:id="rId13"/>
+    <sheet name="20181119" sheetId="117" r:id="rId14"/>
+    <sheet name="20181116（周报）" sheetId="116" r:id="rId15"/>
+    <sheet name="20181116" sheetId="115" r:id="rId16"/>
+    <sheet name="20181115" sheetId="114" r:id="rId17"/>
+    <sheet name="20181114" sheetId="113" r:id="rId18"/>
+    <sheet name="20181113" sheetId="112" r:id="rId19"/>
+    <sheet name="20181112" sheetId="111" r:id="rId20"/>
+    <sheet name="20181108" sheetId="110" r:id="rId21"/>
+    <sheet name="20181107" sheetId="109" r:id="rId22"/>
+    <sheet name="20181105" sheetId="108" r:id="rId23"/>
+    <sheet name="20181102（周报）" sheetId="107" r:id="rId24"/>
+    <sheet name="20181102" sheetId="106" r:id="rId25"/>
+    <sheet name="20181101" sheetId="105" r:id="rId26"/>
+    <sheet name="20181031" sheetId="104" r:id="rId27"/>
+    <sheet name="20181030" sheetId="103" r:id="rId28"/>
+    <sheet name="20181029" sheetId="102" r:id="rId29"/>
+    <sheet name="20181025" sheetId="101" r:id="rId30"/>
+    <sheet name="20181024" sheetId="100" r:id="rId31"/>
+    <sheet name="20181023" sheetId="99" r:id="rId32"/>
+    <sheet name="20181022" sheetId="98" r:id="rId33"/>
+    <sheet name="20181019（周报）" sheetId="97" r:id="rId34"/>
+    <sheet name="20181019" sheetId="96" r:id="rId35"/>
+    <sheet name="20181018" sheetId="95" r:id="rId36"/>
+    <sheet name="20181017" sheetId="94" r:id="rId37"/>
+    <sheet name="20181016" sheetId="93" r:id="rId38"/>
+    <sheet name="20181015" sheetId="92" r:id="rId39"/>
+    <sheet name="20181012（周报）" sheetId="91" r:id="rId40"/>
+    <sheet name="20181012" sheetId="90" r:id="rId41"/>
+    <sheet name="20181011" sheetId="89" r:id="rId42"/>
+    <sheet name="20181010" sheetId="88" r:id="rId43"/>
+    <sheet name="20181009" sheetId="87" r:id="rId44"/>
+    <sheet name="20181008" sheetId="86" r:id="rId45"/>
+    <sheet name="20180928（周报）" sheetId="80" r:id="rId46"/>
+    <sheet name="20180928" sheetId="84" r:id="rId47"/>
+    <sheet name="20180927" sheetId="83" r:id="rId48"/>
+    <sheet name="20180926" sheetId="82" r:id="rId49"/>
+    <sheet name="20180925" sheetId="81" r:id="rId50"/>
+    <sheet name="20180921（周报）" sheetId="85" r:id="rId51"/>
+    <sheet name="20180921" sheetId="79" r:id="rId52"/>
+    <sheet name="20180920" sheetId="78" r:id="rId53"/>
+    <sheet name="20180919" sheetId="77" r:id="rId54"/>
+    <sheet name="20180918" sheetId="76" r:id="rId55"/>
+    <sheet name="20180917" sheetId="75" r:id="rId56"/>
+    <sheet name="20180914（周报）" sheetId="74" r:id="rId57"/>
+    <sheet name="20180914" sheetId="73" r:id="rId58"/>
+    <sheet name="20180913" sheetId="71" r:id="rId59"/>
+    <sheet name="20180912" sheetId="72" r:id="rId60"/>
+    <sheet name="20180911" sheetId="70" r:id="rId61"/>
+    <sheet name="20180910" sheetId="69" r:id="rId62"/>
+    <sheet name="20180907（周报）" sheetId="68" r:id="rId63"/>
+    <sheet name="20180907" sheetId="67" r:id="rId64"/>
+    <sheet name="20180906" sheetId="66" r:id="rId65"/>
+    <sheet name="20180905" sheetId="65" r:id="rId66"/>
+    <sheet name="20180903" sheetId="64" r:id="rId67"/>
+    <sheet name="20180831（周报）" sheetId="63" r:id="rId68"/>
+    <sheet name="20180831" sheetId="62" r:id="rId69"/>
+    <sheet name="20180830" sheetId="61" r:id="rId70"/>
+    <sheet name="20180829" sheetId="60" r:id="rId71"/>
+    <sheet name="20180828" sheetId="59" r:id="rId72"/>
+    <sheet name="20180827" sheetId="58" r:id="rId73"/>
+    <sheet name="20180824（周报）" sheetId="57" r:id="rId74"/>
+    <sheet name="20180824" sheetId="56" r:id="rId75"/>
+    <sheet name="20180823" sheetId="55" r:id="rId76"/>
+    <sheet name="20180822" sheetId="54" r:id="rId77"/>
+    <sheet name="20180821" sheetId="53" r:id="rId78"/>
+    <sheet name="20180820" sheetId="52" r:id="rId79"/>
+    <sheet name="20180817（周报）" sheetId="51" r:id="rId80"/>
+    <sheet name="20180817" sheetId="50" r:id="rId81"/>
+    <sheet name="20180816" sheetId="49" r:id="rId82"/>
+    <sheet name="20180815" sheetId="48" r:id="rId83"/>
+    <sheet name="20180814" sheetId="47" r:id="rId84"/>
+    <sheet name="20180813" sheetId="46" r:id="rId85"/>
+    <sheet name="20180810（周报）" sheetId="45" r:id="rId86"/>
+    <sheet name="20180810" sheetId="44" r:id="rId87"/>
+    <sheet name="20180809" sheetId="43" r:id="rId88"/>
+    <sheet name="20180808" sheetId="42" r:id="rId89"/>
+    <sheet name="20180807" sheetId="41" r:id="rId90"/>
+    <sheet name="20180806" sheetId="40" r:id="rId91"/>
+    <sheet name="20180803（周报）" sheetId="39" r:id="rId92"/>
+    <sheet name="20180803" sheetId="38" r:id="rId93"/>
+    <sheet name="20180802" sheetId="37" r:id="rId94"/>
+    <sheet name="20180801" sheetId="36" r:id="rId95"/>
+    <sheet name="20180731" sheetId="35" r:id="rId96"/>
+    <sheet name="20180730" sheetId="34" r:id="rId97"/>
+    <sheet name="20180727(周报)" sheetId="33" r:id="rId98"/>
+    <sheet name="20180727" sheetId="32" r:id="rId99"/>
+    <sheet name="20180726" sheetId="31" r:id="rId100"/>
+    <sheet name="20180725" sheetId="30" r:id="rId101"/>
+    <sheet name="20180724" sheetId="29" r:id="rId102"/>
+    <sheet name="20180723" sheetId="28" r:id="rId103"/>
+    <sheet name="20180720(周报)" sheetId="27" r:id="rId104"/>
+    <sheet name="20180720" sheetId="26" r:id="rId105"/>
+    <sheet name="20180719" sheetId="25" r:id="rId106"/>
+    <sheet name="20180718" sheetId="23" r:id="rId107"/>
+    <sheet name="20180717" sheetId="22" r:id="rId108"/>
+    <sheet name="20180716" sheetId="21" r:id="rId109"/>
+    <sheet name="20180713(周报)" sheetId="24" r:id="rId110"/>
+    <sheet name="20180713" sheetId="20" r:id="rId111"/>
+    <sheet name="20180712" sheetId="19" r:id="rId112"/>
+    <sheet name="20180711" sheetId="18" r:id="rId113"/>
+    <sheet name="20180710" sheetId="17" r:id="rId114"/>
+    <sheet name="20180709" sheetId="16" r:id="rId115"/>
+    <sheet name="20180706(周报)" sheetId="15" r:id="rId116"/>
+    <sheet name="20180706" sheetId="14" r:id="rId117"/>
+    <sheet name="20180705" sheetId="13" r:id="rId118"/>
+    <sheet name="20180704" sheetId="12" r:id="rId119"/>
+    <sheet name="20180703" sheetId="11" r:id="rId120"/>
+    <sheet name="20180702" sheetId="10" r:id="rId121"/>
+    <sheet name="20180629" sheetId="9" r:id="rId122"/>
+    <sheet name="20180628" sheetId="8" r:id="rId123"/>
+    <sheet name="20180627" sheetId="7" r:id="rId124"/>
+    <sheet name="20180626" sheetId="6" r:id="rId125"/>
+    <sheet name="20180625" sheetId="3" r:id="rId126"/>
+    <sheet name="20180621" sheetId="2" r:id="rId127"/>
+    <sheet name="20180622" sheetId="1" r:id="rId128"/>
+    <sheet name="项目计划" sheetId="4" r:id="rId129"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -143,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="628">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2569,6 +2579,62 @@
   </si>
   <si>
     <t>Hongxu Dai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhihua Huang，Jin Ling,Sannie Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jacky Chen, Yvonne Gong, York Yang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHK12月5日新产品配置,促销配置，促销检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHK Hybirs开发环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annual review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amy Tang, Angela Liang, Ashley Yiu, Piko Law, Hazel Wan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frankie Guan, Amy Tang, Angela Liang, Ashley Yiu, Piko Law, Hazel Wan, Paul Lee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bruce Ding, Frankie Guan, Doris Li, Nick Xu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统问题跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHK Hybirs需求开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易联网交接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judy Zhou</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3700,11 +3766,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3964D30C-9138-40D5-903E-9B28DB85E0F8}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3739,7 +3805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -3747,7 +3813,7 @@
         <v>311</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>591</v>
@@ -3757,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -3775,10 +3841,10 @@
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -3786,60 +3852,79 @@
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>594</v>
+        <v>418</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>604</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="33">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32">
-        <v>0.5</v>
+      <c r="B5" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="33">
+        <v>3</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>125</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="32">
+        <v>1</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="32">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3849,6 +3934,1652 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5700-000000000000}">
+  <sheetPr codeName="Sheet69"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5800-000000000000}">
+  <sheetPr codeName="Sheet70"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5900-000000000000}">
+  <sheetPr codeName="Sheet71"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5A00-000000000000}">
+  <sheetPr codeName="Sheet72"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5B00-000000000000}">
+  <sheetPr codeName="Sheet73"/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>2</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
+        <v>3</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5C00-000000000000}">
+  <sheetPr codeName="Sheet74"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5D00-000000000000}">
+  <sheetPr codeName="Sheet75"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5E00-000000000000}">
+  <sheetPr codeName="Sheet76"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5F00-000000000000}">
+  <sheetPr codeName="Sheet77"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6000-000000000000}">
+  <sheetPr codeName="Sheet78"/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7F01D9-9DEA-4B6A-AC02-3CADFF7D29F9}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="33">
+        <v>6</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6100-000000000000}">
   <sheetPr codeName="Sheet79"/>
   <dimension ref="A1:H15"/>
@@ -4021,7 +5752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6200-000000000000}">
   <sheetPr codeName="Sheet80"/>
   <dimension ref="A1:G8"/>
@@ -4208,7 +5939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/wor